--- a/page-data-excel/books/books.xlsx
+++ b/page-data-excel/books/books.xlsx
@@ -97,6 +97,42 @@
     <x:t>https://books.toscrape.com/catalogue/see-america-a-celebration-of-our-national-parks-treasured-sites_732/index.html</x:t>
   </x:si>
   <x:si>
+    <x:t>With a new foreword by Tim Ferriss •There’s nothing like vagabonding: taking time off from your normal life—from six weeks to four months to two years—to discover and experience the world on your own terms. In this one-of-a-kind handbook, veteran travel writer Rolf Potts explains how anyone armed with an independent spirit can achieve the dream of extended overseas travel. With a new foreword by Tim Ferriss •&amp;nbsp;There’s nothing like vagabonding: taking time off from your normal life—from six weeks to four months to two years—to discover and experience the world on your own terms. In this one-of-a-kind handbook, veteran travel writer Rolf Potts explains how anyone armed with an independent spirit can achieve the dream of extended overseas travel. Now completely revised and updated, Vagabonding is an accessible and inspiring guide to &amp;nbsp; • financing your travel time • determining your destination • adjusting to life on the road • working and volunteering overseas •&amp;nbsp;handling travel adversity • re-assimilating back into ordinary life &amp;nbsp;Praise for Vagabonding&amp;nbsp; “A crucial reference for any budget wanderer.”—Time&amp;nbsp; “Vagabonding easily remains in my top-10 list of life-changing books. Why? Because one incredible trip, especially a long-term trip, can change your life forever. And Vagabonding teaches you how to travel (and think), not just for one trip, but for the rest of your life.”—Tim Ferriss, from the foreword &amp;nbsp; “The book is a meditation on the joys of hitting the road. . . . It’s also a primer for those with a case of pent-up wanderlust seeking to live the dream.”—USA Today &amp;nbsp; “I couldn’t put this book down. It’s a whole different ethic of travel. . . . [Potts’s] practical advice might just convince you to enjoy that open-ended trip of a lifetime.”—Rick Steves &amp;nbsp; “Potts wants us to wander, to explore, to embrace the unknown, and, finally, to take our own damn time about it. I think this is the most sensible book of travel-related advice ever written.”—Tim Cahill, founding editor of Outside ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1809259a5a5f1d8d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£36.94</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (8 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/ca/30/ca30b1afe1e76ce7ba1db8176d398e53.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/vagabonding-an-uncommon-guide-to-the-art-of-long-term-world-travel_552/index.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Acclaimed travel writer Rick Antonson sets his adventurous compass on Mount Ararat, exploring the region’s long history, religious mysteries, and complex politics.Mount Ararat is the most fabled mountain in the world. For millennia this massif in eastern Turkey has been rumored as the resting place of Noah’s Ark following the Great Flood. But it also plays a significant ro Acclaimed travel writer Rick Antonson sets his adventurous compass on Mount Ararat, exploring the region’s long history, religious mysteries, and complex politics.Mount Ararat is the most fabled mountain in the world. For millennia this massif in eastern Turkey has been rumored as the resting place of Noah’s Ark following the Great Flood. But it also plays a significant role in the longstanding conflict between Turkey and Armenia.Author Rick Antonson joined a five-member expedition to the mountain’s nearly 17,000-foot summit, trekking alongside a contingent of Armenians, for whom Mount Ararat is the stolen symbol of their country. Antonson weaves vivid historical anecdote with unexpected travel vignettes, whether tracing earlier mountaineering attempts on the peak, recounting the genocide of Armenians and its unresolved debate, or depicting the Kurds’ ambitions for their own nation’s borders, which some say should include Mount Ararat.What unfolds in Full Moon Over Noah’s Ark is one man’s odyssey, a tale told through many stories. Starting with the flooding of the Black Sea in 5600 BCE, through to the Epic of Gilgamesh and the contrasting narratives of the Great Flood known to followers of the Judaic, Christian and Islamic religions, Full Moon Over Noah’s Ark takes readers along with Antonson through the shadows and broad landscapes of Turkey, Iraq, Iran and Armenia, shedding light on a troubled but fascinating area of the world. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ce60436f52c5ee68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£49.43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (15 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/fe/8a/fe8af6ceec7718986380c0fde9b3b34f.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/full-moon-over-noahs-ark-an-odyssey-to-mount-ararat-and-beyond_811/index.html</x:t>
+  </x:si>
+  <x:si>
     <x:t>A CLASSIC FROM THE BESTSELLING AUTHOR OF UNDER MAGNOLIAFrances Mayes—widely published poet, gourmet cook, and travel writer—opens the door to a wondrous new world when she buys and restores an abandoned villa in the spectacular Tuscan countryside. In evocative language, she brings the reader along as she discovers the beauty and simplicity of life in Italy. Mayes also crea A CLASSIC FROM THE BESTSELLING AUTHOR OF UNDER MAGNOLIAFrances Mayes—widely published poet, gourmet cook, and travel writer—opens the door to a wondrous new world when she buys and restores an abandoned villa in the spectacular Tuscan countryside. In evocative language, she brings the reader along as she discovers the beauty and simplicity of life in Italy. Mayes also creates dozens of delicious seasonal recipes from her traditional kitchen and simple garden, all of which she includes in the book. Doing for Tuscany what M.F.K. Fisher and Peter Mayle did for Provence, Mayes writes about the tastes and pleasures of a foreign country with gusto and passion. ...more</x:t>
   </x:si>
   <x:si>
@@ -115,42 +151,6 @@
     <x:t>https://books.toscrape.com/catalogue/under-the-tuscan-sun_504/index.html</x:t>
   </x:si>
   <x:si>
-    <x:t>Acclaimed travel writer Rick Antonson sets his adventurous compass on Mount Ararat, exploring the region’s long history, religious mysteries, and complex politics.Mount Ararat is the most fabled mountain in the world. For millennia this massif in eastern Turkey has been rumored as the resting place of Noah’s Ark following the Great Flood. But it also plays a significant ro Acclaimed travel writer Rick Antonson sets his adventurous compass on Mount Ararat, exploring the region’s long history, religious mysteries, and complex politics.Mount Ararat is the most fabled mountain in the world. For millennia this massif in eastern Turkey has been rumored as the resting place of Noah’s Ark following the Great Flood. But it also plays a significant role in the longstanding conflict between Turkey and Armenia.Author Rick Antonson joined a five-member expedition to the mountain’s nearly 17,000-foot summit, trekking alongside a contingent of Armenians, for whom Mount Ararat is the stolen symbol of their country. Antonson weaves vivid historical anecdote with unexpected travel vignettes, whether tracing earlier mountaineering attempts on the peak, recounting the genocide of Armenians and its unresolved debate, or depicting the Kurds’ ambitions for their own nation’s borders, which some say should include Mount Ararat.What unfolds in Full Moon Over Noah’s Ark is one man’s odyssey, a tale told through many stories. Starting with the flooding of the Black Sea in 5600 BCE, through to the Epic of Gilgamesh and the contrasting narratives of the Great Flood known to followers of the Judaic, Christian and Islamic religions, Full Moon Over Noah’s Ark takes readers along with Antonson through the shadows and broad landscapes of Turkey, Iraq, Iran and Armenia, shedding light on a troubled but fascinating area of the world. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ce60436f52c5ee68</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£49.43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In stock (15 available)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/fe/8a/fe8af6ceec7718986380c0fde9b3b34f.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/full-moon-over-noahs-ark-an-odyssey-to-mount-ararat-and-beyond_811/index.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>With a new foreword by Tim Ferriss •There’s nothing like vagabonding: taking time off from your normal life—from six weeks to four months to two years—to discover and experience the world on your own terms. In this one-of-a-kind handbook, veteran travel writer Rolf Potts explains how anyone armed with an independent spirit can achieve the dream of extended overseas travel. With a new foreword by Tim Ferriss •&amp;nbsp;There’s nothing like vagabonding: taking time off from your normal life—from six weeks to four months to two years—to discover and experience the world on your own terms. In this one-of-a-kind handbook, veteran travel writer Rolf Potts explains how anyone armed with an independent spirit can achieve the dream of extended overseas travel. Now completely revised and updated, Vagabonding is an accessible and inspiring guide to &amp;nbsp; • financing your travel time • determining your destination • adjusting to life on the road • working and volunteering overseas •&amp;nbsp;handling travel adversity • re-assimilating back into ordinary life &amp;nbsp;Praise for Vagabonding&amp;nbsp; “A crucial reference for any budget wanderer.”—Time&amp;nbsp; “Vagabonding easily remains in my top-10 list of life-changing books. Why? Because one incredible trip, especially a long-term trip, can change your life forever. And Vagabonding teaches you how to travel (and think), not just for one trip, but for the rest of your life.”—Tim Ferriss, from the foreword &amp;nbsp; “The book is a meditation on the joys of hitting the road. . . . It’s also a primer for those with a case of pent-up wanderlust seeking to live the dream.”—USA Today &amp;nbsp; “I couldn’t put this book down. It’s a whole different ethic of travel. . . . [Potts’s] practical advice might just convince you to enjoy that open-ended trip of a lifetime.”—Rick Steves &amp;nbsp; “Potts wants us to wander, to explore, to embrace the unknown, and, finally, to take our own damn time about it. I think this is the most sensible book of travel-related advice ever written.”—Tim Cahill, founding editor of Outside ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1809259a5a5f1d8d</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£36.94</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In stock (8 available)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/ca/30/ca30b1afe1e76ce7ba1db8176d398e53.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/vagabonding-an-uncommon-guide-to-the-art-of-long-term-world-travel_552/index.html</x:t>
-  </x:si>
-  <x:si>
     <x:t>National BestsellerIn this witty and warm-hearted account, Peter Mayle tells what it is like to realize a long-cherished dream and actually move into a 200-year-old stone farmhouse in the remote country of the Lubéron with his wife and two large dogs. He endures January's frosty mistral as it comes howling down the Rhône Valley, discovers the secrets of goat racing through National Bestseller&amp;nbsp;In this witty and warm-hearted account, Peter Mayle tells what it is like to realize a long-cherished dream and actually move into a 200-year-old stone farmhouse in the remote country of the Lubéron with his wife and two large dogs. He endures January's frosty mistral as it comes howling down the Rhône Valley, discovers the secrets of goat racing through the middle of town, and delights in the glorious regional cuisine. A Year in Provence transports us into all the earthy pleasures of Provençal life and lets us live vicariously at a tempo governed by seasons, not by days. ...more</x:t>
   </x:si>
   <x:si>
@@ -184,6 +184,39 @@
     <x:t>https://books.toscrape.com/catalogue/a-summer-in-europe_458/index.html</x:t>
   </x:si>
   <x:si>
+    <x:t>First published more than thirty years ago, Paul Theroux's strange, unique, and hugely entertaining railway odyssey has become a modern classic of travel literature. Here Theroux recounts his early adventures on an unusual grand continental tour. Asia's fabled trains -- the Orient Express, the Khyber Pass Local, the Frontier Mail, the Golden Arrow to Kuala Lumpur, the Mand First published more than thirty years ago, Paul Theroux's strange, unique, and hugely entertaining railway odyssey has become a modern classic of travel literature. Here Theroux recounts his early adventures on an unusual grand continental tour. Asia's fabled trains -- the Orient Express, the Khyber Pass Local, the Frontier Mail, the Golden Arrow to Kuala Lumpur, the Mandalay Express, the Trans-Siberian Express -- are the stars of a journey that takes him on a loop eastbound from London's Victoria Station to Tokyo Central, then back from Japan on the Trans-Siberian. Brimming with Theroux's signature humor and wry observations, this engrossing chronicle is essential reading for both the ardent adventurer and the armchair traveler. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48736df57e7bec9f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£30.54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/d5/82/d582f6b0261c2842330e893962276295.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/the-great-railway-bazaar_446/index.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The hilarious and loving sequel to a hilarious and loving classic of travel writing: Notes from a Small Island, Bill Bryson’s valentine to his adopted country of EnglandIn 1995 Bill Bryson got into his car and took a weeks-long farewell motoring trip about England before moving his family back to the United States. The book about that trip, Notes from a Small Island, is up The hilarious and loving sequel to a hilarious and loving classic of travel writing: Notes from a Small Island, Bill Bryson’s valentine to his adopted country of EnglandIn 1995 Bill Bryson got into his car and took a weeks-long farewell motoring trip about England before moving his family back to the United States. The book about that trip, Notes from a Small Island, is uproarious and endlessly endearing, one of the most acute and affectionate portrayals of England in all its glorious eccentricity ever written. Two decades later, he set out again to rediscover that country, and the result is The Road to Little Dribbling. Nothing is funnier than Bill Bryson on the road—prepare for the total joy and multiple episodes of unseemly laughter. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>366a236aa1ea6f07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£23.21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (3 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/26/f5/26f5d20239a45046e756c6d09611b3ea.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/the-road-to-little-dribbling-adventures-of-an-american-in-britain-notes-from-a-small-island-2_277/index.html</x:t>
+  </x:si>
+  <x:si>
     <x:t>Bill Bryson's first travel book, The Lost Continent, was unanimously acclaimed as one of the funniest books in years. In Neither Here nor There he brings his unique brand of humour to bear on Europe as he shoulders his backpack, keeps a tight hold on his wallet, and journeys from Hammerfest, the northernmost town on the continent, to Istanbul on the cusp of Asia. Fluent in Bill Bryson's first travel book, The Lost Continent, was unanimously acclaimed as one of the funniest books in years. In Neither Here nor There he brings his unique brand of humour to bear on Europe as he shoulders his backpack, keeps a tight hold on his wallet, and journeys from Hammerfest, the northernmost town on the continent, to Istanbul on the cusp of Asia. Fluent in, oh, at least one language, he retraces his travels as a student twenty years before.Whether braving the homicidal motorist of Paris, being robbed by gypsies in Florence, attempting not to order tripe and eyeballs in a German restaurant, window-shopping in the sex shops of the Reeperbahn or disputing his hotel bill in Copenhagen, Bryson takes in the sights, dissects the culture and illuminates each place and person with his hilariously caustic observations. He even goes to Liechtenstein. ...more</x:t>
   </x:si>
   <x:si>
@@ -193,43 +226,10 @@
     <x:t>£38.95</x:t>
   </x:si>
   <x:si>
-    <x:t>In stock (3 available)</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://books.toscrape.com/media/cache/c9/9a/c99a7a05537cd842eb4db83d537e3a4d.jpg</x:t>
   </x:si>
   <x:si>
     <x:t>https://books.toscrape.com/catalogue/neither-here-nor-there-travels-in-europe_198/index.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>First published more than thirty years ago, Paul Theroux's strange, unique, and hugely entertaining railway odyssey has become a modern classic of travel literature. Here Theroux recounts his early adventures on an unusual grand continental tour. Asia's fabled trains -- the Orient Express, the Khyber Pass Local, the Frontier Mail, the Golden Arrow to Kuala Lumpur, the Mand First published more than thirty years ago, Paul Theroux's strange, unique, and hugely entertaining railway odyssey has become a modern classic of travel literature. Here Theroux recounts his early adventures on an unusual grand continental tour. Asia's fabled trains -- the Orient Express, the Khyber Pass Local, the Frontier Mail, the Golden Arrow to Kuala Lumpur, the Mandalay Express, the Trans-Siberian Express -- are the stars of a journey that takes him on a loop eastbound from London's Victoria Station to Tokyo Central, then back from Japan on the Trans-Siberian. Brimming with Theroux's signature humor and wry observations, this engrossing chronicle is essential reading for both the ardent adventurer and the armchair traveler. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48736df57e7bec9f</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£30.54</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/d5/82/d582f6b0261c2842330e893962276295.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/the-great-railway-bazaar_446/index.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The hilarious and loving sequel to a hilarious and loving classic of travel writing: Notes from a Small Island, Bill Bryson’s valentine to his adopted country of EnglandIn 1995 Bill Bryson got into his car and took a weeks-long farewell motoring trip about England before moving his family back to the United States. The book about that trip, Notes from a Small Island, is up The hilarious and loving sequel to a hilarious and loving classic of travel writing: Notes from a Small Island, Bill Bryson’s valentine to his adopted country of EnglandIn 1995 Bill Bryson got into his car and took a weeks-long farewell motoring trip about England before moving his family back to the United States. The book about that trip, Notes from a Small Island, is uproarious and endlessly endearing, one of the most acute and affectionate portrayals of England in all its glorious eccentricity ever written. Two decades later, he set out again to rediscover that country, and the result is The Road to Little Dribbling. Nothing is funnier than Bill Bryson on the road—prepare for the total joy and multiple episodes of unseemly laughter. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>366a236aa1ea6f07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£23.21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/26/f5/26f5d20239a45046e756c6d09611b3ea.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/the-road-to-little-dribbling-adventures-of-an-american-in-britain-notes-from-a-small-island-2_277/index.html</x:t>
   </x:si>
   <x:si>
     <x:t>Around the World, continent by continent, here is the best the world has to offer: 1,000 places guaranteed to give travelers the shivers. Sacred ruins, grand hotels, wildlife preserves, hilltop villages, snack shacks, castles, festivals, reefs, restaurants, cathedrals, hidden islands, opera houses, museums, and more. Each entry tells exactly why it's essential to visit. Th Around the World, continent by continent, here is the best the world has to offer: 1,000 places guaranteed to give travelers the shivers. Sacred ruins, grand hotels, wildlife preserves, hilltop villages, snack shacks, castles, festivals, reefs, restaurants, cathedrals, hidden islands, opera houses, museums, and more. Each entry tells exactly why it's essential to visit. Then come the nuts and bolts: addresses, websites, phone and fax numbers, best times to visit. Stop dreaming and get going.This hefty volume reminds vacationers that hot tourist spots are small percentage of what's worth seeing out there. A quick sampling: Venice's Cipriani Hotel; California's Monterey Peninsula; the Lewis and Clark Trail in Oregon; the Great Wall of China; Robert Louis Stevenson's home in Western Samoa; and the Alhambra in Andalusia, Spain. Veteran travel guide writer Schultz divides the book geographically, presenting a little less than a page on each location. Each entry lists exactly where to find the spot (e.g. Moorea is located "12 miles/19 km northwest of Tahiti; 10 minutes by air, 1 hour by boat") and when to go (e.g., if you want to check out The Complete Fly Fisher hotel in Montana, "May and Sept.-Oct. offer productive angling in a solitary setting"). This is an excellent resource for the intrepid traveler.Copyright 2003 Reed Business Information, Inc. ...more</x:t>
@@ -878,7 +878,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s">
         <x:v>18</x:v>
@@ -913,42 +913,42 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H9" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="J9" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="K9" s="0" t="s">
         <x:v>60</x:v>
-      </x:c>
-      <x:c r="K9" s="0" t="s">
-        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:11">
       <x:c r="A10" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s">
         <x:v>18</x:v>
@@ -983,7 +983,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s">
         <x:v>18</x:v>

--- a/page-data-excel/books/books.xlsx
+++ b/page-data-excel/books/books.xlsx
@@ -97,6 +97,24 @@
     <x:t>https://books.toscrape.com/catalogue/see-america-a-celebration-of-our-national-parks-treasured-sites_732/index.html</x:t>
   </x:si>
   <x:si>
+    <x:t>A CLASSIC FROM THE BESTSELLING AUTHOR OF UNDER MAGNOLIAFrances Mayes—widely published poet, gourmet cook, and travel writer—opens the door to a wondrous new world when she buys and restores an abandoned villa in the spectacular Tuscan countryside. In evocative language, she brings the reader along as she discovers the beauty and simplicity of life in Italy. Mayes also crea A CLASSIC FROM THE BESTSELLING AUTHOR OF UNDER MAGNOLIAFrances Mayes—widely published poet, gourmet cook, and travel writer—opens the door to a wondrous new world when she buys and restores an abandoned villa in the spectacular Tuscan countryside. In evocative language, she brings the reader along as she discovers the beauty and simplicity of life in Italy. Mayes also creates dozens of delicious seasonal recipes from her traditional kitchen and simple garden, all of which she includes in the book. Doing for Tuscany what M.F.K. Fisher and Peter Mayle did for Provence, Mayes writes about the tastes and pleasures of a foreign country with gusto and passion. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a94350ee74deaa07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£37.33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (7 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/45/21/4521c581ba727f5c835e34860cbf53e5.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/under-the-tuscan-sun_504/index.html</x:t>
+  </x:si>
+  <x:si>
     <x:t>With a new foreword by Tim Ferriss •There’s nothing like vagabonding: taking time off from your normal life—from six weeks to four months to two years—to discover and experience the world on your own terms. In this one-of-a-kind handbook, veteran travel writer Rolf Potts explains how anyone armed with an independent spirit can achieve the dream of extended overseas travel. With a new foreword by Tim Ferriss •&amp;nbsp;There’s nothing like vagabonding: taking time off from your normal life—from six weeks to four months to two years—to discover and experience the world on your own terms. In this one-of-a-kind handbook, veteran travel writer Rolf Potts explains how anyone armed with an independent spirit can achieve the dream of extended overseas travel. Now completely revised and updated, Vagabonding is an accessible and inspiring guide to &amp;nbsp; • financing your travel time • determining your destination • adjusting to life on the road • working and volunteering overseas •&amp;nbsp;handling travel adversity • re-assimilating back into ordinary life &amp;nbsp;Praise for Vagabonding&amp;nbsp; “A crucial reference for any budget wanderer.”—Time&amp;nbsp; “Vagabonding easily remains in my top-10 list of life-changing books. Why? Because one incredible trip, especially a long-term trip, can change your life forever. And Vagabonding teaches you how to travel (and think), not just for one trip, but for the rest of your life.”—Tim Ferriss, from the foreword &amp;nbsp; “The book is a meditation on the joys of hitting the road. . . . It’s also a primer for those with a case of pent-up wanderlust seeking to live the dream.”—USA Today &amp;nbsp; “I couldn’t put this book down. It’s a whole different ethic of travel. . . . [Potts’s] practical advice might just convince you to enjoy that open-ended trip of a lifetime.”—Rick Steves &amp;nbsp; “Potts wants us to wander, to explore, to embrace the unknown, and, finally, to take our own damn time about it. I think this is the most sensible book of travel-related advice ever written.”—Tim Cahill, founding editor of Outside ...more</x:t>
   </x:si>
   <x:si>
@@ -133,24 +151,6 @@
     <x:t>https://books.toscrape.com/catalogue/full-moon-over-noahs-ark-an-odyssey-to-mount-ararat-and-beyond_811/index.html</x:t>
   </x:si>
   <x:si>
-    <x:t>A CLASSIC FROM THE BESTSELLING AUTHOR OF UNDER MAGNOLIAFrances Mayes—widely published poet, gourmet cook, and travel writer—opens the door to a wondrous new world when she buys and restores an abandoned villa in the spectacular Tuscan countryside. In evocative language, she brings the reader along as she discovers the beauty and simplicity of life in Italy. Mayes also crea A CLASSIC FROM THE BESTSELLING AUTHOR OF UNDER MAGNOLIAFrances Mayes—widely published poet, gourmet cook, and travel writer—opens the door to a wondrous new world when she buys and restores an abandoned villa in the spectacular Tuscan countryside. In evocative language, she brings the reader along as she discovers the beauty and simplicity of life in Italy. Mayes also creates dozens of delicious seasonal recipes from her traditional kitchen and simple garden, all of which she includes in the book. Doing for Tuscany what M.F.K. Fisher and Peter Mayle did for Provence, Mayes writes about the tastes and pleasures of a foreign country with gusto and passion. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>a94350ee74deaa07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£37.33</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In stock (7 available)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/45/21/4521c581ba727f5c835e34860cbf53e5.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/under-the-tuscan-sun_504/index.html</x:t>
-  </x:si>
-  <x:si>
     <x:t>National BestsellerIn this witty and warm-hearted account, Peter Mayle tells what it is like to realize a long-cherished dream and actually move into a 200-year-old stone farmhouse in the remote country of the Lubéron with his wife and two large dogs. He endures January's frosty mistral as it comes howling down the Rhône Valley, discovers the secrets of goat racing through National Bestseller&amp;nbsp;In this witty and warm-hearted account, Peter Mayle tells what it is like to realize a long-cherished dream and actually move into a 200-year-old stone farmhouse in the remote country of the Lubéron with his wife and two large dogs. He endures January's frosty mistral as it comes howling down the Rhône Valley, discovers the secrets of goat racing through the middle of town, and delights in the glorious regional cuisine. A Year in Provence transports us into all the earthy pleasures of Provençal life and lets us live vicariously at a tempo governed by seasons, not by days. ...more</x:t>
   </x:si>
   <x:si>
@@ -169,6 +169,54 @@
     <x:t>https://books.toscrape.com/catalogue/a-year-in-provence-provence-1_421/index.html</x:t>
   </x:si>
   <x:si>
+    <x:t>Bill Bryson's first travel book, The Lost Continent, was unanimously acclaimed as one of the funniest books in years. In Neither Here nor There he brings his unique brand of humour to bear on Europe as he shoulders his backpack, keeps a tight hold on his wallet, and journeys from Hammerfest, the northernmost town on the continent, to Istanbul on the cusp of Asia. Fluent in Bill Bryson's first travel book, The Lost Continent, was unanimously acclaimed as one of the funniest books in years. In Neither Here nor There he brings his unique brand of humour to bear on Europe as he shoulders his backpack, keeps a tight hold on his wallet, and journeys from Hammerfest, the northernmost town on the continent, to Istanbul on the cusp of Asia. Fluent in, oh, at least one language, he retraces his travels as a student twenty years before.Whether braving the homicidal motorist of Paris, being robbed by gypsies in Florence, attempting not to order tripe and eyeballs in a German restaurant, window-shopping in the sex shops of the Reeperbahn or disputing his hotel bill in Copenhagen, Bryson takes in the sights, dissects the culture and illuminates each place and person with his hilariously caustic observations. He even goes to Liechtenstein. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>747cf7fca2ccdbd4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£38.95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (3 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/c9/9a/c99a7a05537cd842eb4db83d537e3a4d.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/neither-here-nor-there-travels-in-europe_198/index.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>First published more than thirty years ago, Paul Theroux's strange, unique, and hugely entertaining railway odyssey has become a modern classic of travel literature. Here Theroux recounts his early adventures on an unusual grand continental tour. Asia's fabled trains -- the Orient Express, the Khyber Pass Local, the Frontier Mail, the Golden Arrow to Kuala Lumpur, the Mand First published more than thirty years ago, Paul Theroux's strange, unique, and hugely entertaining railway odyssey has become a modern classic of travel literature. Here Theroux recounts his early adventures on an unusual grand continental tour. Asia's fabled trains -- the Orient Express, the Khyber Pass Local, the Frontier Mail, the Golden Arrow to Kuala Lumpur, the Mandalay Express, the Trans-Siberian Express -- are the stars of a journey that takes him on a loop eastbound from London's Victoria Station to Tokyo Central, then back from Japan on the Trans-Siberian. Brimming with Theroux's signature humor and wry observations, this engrossing chronicle is essential reading for both the ardent adventurer and the armchair traveler. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48736df57e7bec9f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£30.54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/d5/82/d582f6b0261c2842330e893962276295.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/the-great-railway-bazaar_446/index.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The hilarious and loving sequel to a hilarious and loving classic of travel writing: Notes from a Small Island, Bill Bryson’s valentine to his adopted country of EnglandIn 1995 Bill Bryson got into his car and took a weeks-long farewell motoring trip about England before moving his family back to the United States. The book about that trip, Notes from a Small Island, is up The hilarious and loving sequel to a hilarious and loving classic of travel writing: Notes from a Small Island, Bill Bryson’s valentine to his adopted country of EnglandIn 1995 Bill Bryson got into his car and took a weeks-long farewell motoring trip about England before moving his family back to the United States. The book about that trip, Notes from a Small Island, is uproarious and endlessly endearing, one of the most acute and affectionate portrayals of England in all its glorious eccentricity ever written. Two decades later, he set out again to rediscover that country, and the result is The Road to Little Dribbling. Nothing is funnier than Bill Bryson on the road—prepare for the total joy and multiple episodes of unseemly laughter. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>366a236aa1ea6f07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£23.21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/26/f5/26f5d20239a45046e756c6d09611b3ea.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/the-road-to-little-dribbling-adventures-of-an-american-in-britain-notes-from-a-small-island-2_277/index.html</x:t>
+  </x:si>
+  <x:si>
     <x:t>On her thirtieth birthday, Gwendolyn Reese receives an unexpected present from her widowed Aunt Bea: a grand tour of Europe in the company of Bea's Sudoku and Mahjongg Club. The prospect isn't entirely appealing. But when the gift she is expecting--an engagement ring from her boyfriend--doesn't materialize, Gwen decides to go. At first, Gwen approaches the trip as if it's On her thirtieth birthday, Gwendolyn Reese receives an unexpected present from her widowed Aunt Bea: a grand tour of Europe in the company of Bea's Sudoku and Mahjongg Club. The prospect isn't entirely appealing. But when the gift she is expecting--an engagement ring from her boyfriend--doesn't materialize, Gwen decides to go. At first, Gwen approaches the trip as if it's the math homework she assigns her students, diligently checking monuments off her must-see list. But amid the bougainvillea and stunning vistas of southern Italy, something changes. Gwen begins to live in the moment--skipping down stone staircases in Capri, running her fingers over a glacier in view of the Matterhorn, racing through the Louvre, and taste-testing pastries at a Marseilles cafe. Reveling in every new experience--especially her attraction to a charismatic British physics professor--Gwen discovers that the ancient wonders around her are nothing compared to the renaissance unfolding within. . . "A thinking woman's love story, it swept me away to breathtaking places with a cast of endearing characters I won't soon forget. Bravissima!" Susan McBride, author of "Little Black Dress" Praise for Marilyn Brant's According to Jane "A warm, witty and charmingly original story." --Susan Wiggs, "New York Times " bestselling author "Brant infuses her sweetly romantic and delightfully clever tale with just the right dash of Austen-esque wit." "Chicago Tribune" "An engaging read for all who have been through the long, dark, dating wars, and still believe there's sunshine, and a Mr. Darcy, at the end of the tunnel." --Cathy Lamb, author of "Such a Pretty Face"" ...more</x:t>
   </x:si>
   <x:si>
@@ -182,54 +230,6 @@
   </x:si>
   <x:si>
     <x:t>https://books.toscrape.com/catalogue/a-summer-in-europe_458/index.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>First published more than thirty years ago, Paul Theroux's strange, unique, and hugely entertaining railway odyssey has become a modern classic of travel literature. Here Theroux recounts his early adventures on an unusual grand continental tour. Asia's fabled trains -- the Orient Express, the Khyber Pass Local, the Frontier Mail, the Golden Arrow to Kuala Lumpur, the Mand First published more than thirty years ago, Paul Theroux's strange, unique, and hugely entertaining railway odyssey has become a modern classic of travel literature. Here Theroux recounts his early adventures on an unusual grand continental tour. Asia's fabled trains -- the Orient Express, the Khyber Pass Local, the Frontier Mail, the Golden Arrow to Kuala Lumpur, the Mandalay Express, the Trans-Siberian Express -- are the stars of a journey that takes him on a loop eastbound from London's Victoria Station to Tokyo Central, then back from Japan on the Trans-Siberian. Brimming with Theroux's signature humor and wry observations, this engrossing chronicle is essential reading for both the ardent adventurer and the armchair traveler. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48736df57e7bec9f</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£30.54</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/d5/82/d582f6b0261c2842330e893962276295.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/the-great-railway-bazaar_446/index.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The hilarious and loving sequel to a hilarious and loving classic of travel writing: Notes from a Small Island, Bill Bryson’s valentine to his adopted country of EnglandIn 1995 Bill Bryson got into his car and took a weeks-long farewell motoring trip about England before moving his family back to the United States. The book about that trip, Notes from a Small Island, is up The hilarious and loving sequel to a hilarious and loving classic of travel writing: Notes from a Small Island, Bill Bryson’s valentine to his adopted country of EnglandIn 1995 Bill Bryson got into his car and took a weeks-long farewell motoring trip about England before moving his family back to the United States. The book about that trip, Notes from a Small Island, is uproarious and endlessly endearing, one of the most acute and affectionate portrayals of England in all its glorious eccentricity ever written. Two decades later, he set out again to rediscover that country, and the result is The Road to Little Dribbling. Nothing is funnier than Bill Bryson on the road—prepare for the total joy and multiple episodes of unseemly laughter. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>366a236aa1ea6f07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£23.21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In stock (3 available)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/26/f5/26f5d20239a45046e756c6d09611b3ea.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/the-road-to-little-dribbling-adventures-of-an-american-in-britain-notes-from-a-small-island-2_277/index.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bill Bryson's first travel book, The Lost Continent, was unanimously acclaimed as one of the funniest books in years. In Neither Here nor There he brings his unique brand of humour to bear on Europe as he shoulders his backpack, keeps a tight hold on his wallet, and journeys from Hammerfest, the northernmost town on the continent, to Istanbul on the cusp of Asia. Fluent in Bill Bryson's first travel book, The Lost Continent, was unanimously acclaimed as one of the funniest books in years. In Neither Here nor There he brings his unique brand of humour to bear on Europe as he shoulders his backpack, keeps a tight hold on his wallet, and journeys from Hammerfest, the northernmost town on the continent, to Istanbul on the cusp of Asia. Fluent in, oh, at least one language, he retraces his travels as a student twenty years before.Whether braving the homicidal motorist of Paris, being robbed by gypsies in Florence, attempting not to order tripe and eyeballs in a German restaurant, window-shopping in the sex shops of the Reeperbahn or disputing his hotel bill in Copenhagen, Bryson takes in the sights, dissects the culture and illuminates each place and person with his hilariously caustic observations. He even goes to Liechtenstein. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>747cf7fca2ccdbd4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£38.95</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/c9/9a/c99a7a05537cd842eb4db83d537e3a4d.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/neither-here-nor-there-travels-in-europe_198/index.html</x:t>
   </x:si>
   <x:si>
     <x:t>Around the World, continent by continent, here is the best the world has to offer: 1,000 places guaranteed to give travelers the shivers. Sacred ruins, grand hotels, wildlife preserves, hilltop villages, snack shacks, castles, festivals, reefs, restaurants, cathedrals, hidden islands, opera houses, museums, and more. Each entry tells exactly why it's essential to visit. Th Around the World, continent by continent, here is the best the world has to offer: 1,000 places guaranteed to give travelers the shivers. Sacred ruins, grand hotels, wildlife preserves, hilltop villages, snack shacks, castles, festivals, reefs, restaurants, cathedrals, hidden islands, opera houses, museums, and more. Each entry tells exactly why it's essential to visit. Then come the nuts and bolts: addresses, websites, phone and fax numbers, best times to visit. Stop dreaming and get going.This hefty volume reminds vacationers that hot tourist spots are small percentage of what's worth seeing out there. A quick sampling: Venice's Cipriani Hotel; California's Monterey Peninsula; the Lewis and Clark Trail in Oregon; the Great Wall of China; Robert Louis Stevenson's home in Western Samoa; and the Alhambra in Andalusia, Spain. Veteran travel guide writer Schultz divides the book geographically, presenting a little less than a page on each location. Each entry lists exactly where to find the spot (e.g. Moorea is located "12 miles/19 km northwest of Tahiti; 10 minutes by air, 1 hour by boat") and when to go (e.g., if you want to check out The Complete Fly Fisher hotel in Montana, "May and Sept.-Oct. offer productive angling in a solitary setting"). This is an excellent resource for the intrepid traveler.Copyright 2003 Reed Business Information, Inc. ...more</x:t>
@@ -878,36 +878,36 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="J8" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="K8" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:11">
       <x:c r="A9" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
         <x:v>16</x:v>
@@ -919,36 +919,36 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="J9" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="K9" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:11">
       <x:c r="A10" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s">
         <x:v>18</x:v>
@@ -983,7 +983,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s">
         <x:v>18</x:v>

--- a/page-data-excel/books/books.xlsx
+++ b/page-data-excel/books/books.xlsx
@@ -115,6 +115,24 @@
     <x:t>https://books.toscrape.com/catalogue/under-the-tuscan-sun_504/index.html</x:t>
   </x:si>
   <x:si>
+    <x:t>Acclaimed travel writer Rick Antonson sets his adventurous compass on Mount Ararat, exploring the region’s long history, religious mysteries, and complex politics.Mount Ararat is the most fabled mountain in the world. For millennia this massif in eastern Turkey has been rumored as the resting place of Noah’s Ark following the Great Flood. But it also plays a significant ro Acclaimed travel writer Rick Antonson sets his adventurous compass on Mount Ararat, exploring the region’s long history, religious mysteries, and complex politics.Mount Ararat is the most fabled mountain in the world. For millennia this massif in eastern Turkey has been rumored as the resting place of Noah’s Ark following the Great Flood. But it also plays a significant role in the longstanding conflict between Turkey and Armenia.Author Rick Antonson joined a five-member expedition to the mountain’s nearly 17,000-foot summit, trekking alongside a contingent of Armenians, for whom Mount Ararat is the stolen symbol of their country. Antonson weaves vivid historical anecdote with unexpected travel vignettes, whether tracing earlier mountaineering attempts on the peak, recounting the genocide of Armenians and its unresolved debate, or depicting the Kurds’ ambitions for their own nation’s borders, which some say should include Mount Ararat.What unfolds in Full Moon Over Noah’s Ark is one man’s odyssey, a tale told through many stories. Starting with the flooding of the Black Sea in 5600 BCE, through to the Epic of Gilgamesh and the contrasting narratives of the Great Flood known to followers of the Judaic, Christian and Islamic religions, Full Moon Over Noah’s Ark takes readers along with Antonson through the shadows and broad landscapes of Turkey, Iraq, Iran and Armenia, shedding light on a troubled but fascinating area of the world. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ce60436f52c5ee68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£49.43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (15 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/fe/8a/fe8af6ceec7718986380c0fde9b3b34f.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/full-moon-over-noahs-ark-an-odyssey-to-mount-ararat-and-beyond_811/index.html</x:t>
+  </x:si>
+  <x:si>
     <x:t>With a new foreword by Tim Ferriss •There’s nothing like vagabonding: taking time off from your normal life—from six weeks to four months to two years—to discover and experience the world on your own terms. In this one-of-a-kind handbook, veteran travel writer Rolf Potts explains how anyone armed with an independent spirit can achieve the dream of extended overseas travel. With a new foreword by Tim Ferriss •&amp;nbsp;There’s nothing like vagabonding: taking time off from your normal life—from six weeks to four months to two years—to discover and experience the world on your own terms. In this one-of-a-kind handbook, veteran travel writer Rolf Potts explains how anyone armed with an independent spirit can achieve the dream of extended overseas travel. Now completely revised and updated, Vagabonding is an accessible and inspiring guide to &amp;nbsp; • financing your travel time • determining your destination • adjusting to life on the road • working and volunteering overseas •&amp;nbsp;handling travel adversity • re-assimilating back into ordinary life &amp;nbsp;Praise for Vagabonding&amp;nbsp; “A crucial reference for any budget wanderer.”—Time&amp;nbsp; “Vagabonding easily remains in my top-10 list of life-changing books. Why? Because one incredible trip, especially a long-term trip, can change your life forever. And Vagabonding teaches you how to travel (and think), not just for one trip, but for the rest of your life.”—Tim Ferriss, from the foreword &amp;nbsp; “The book is a meditation on the joys of hitting the road. . . . It’s also a primer for those with a case of pent-up wanderlust seeking to live the dream.”—USA Today &amp;nbsp; “I couldn’t put this book down. It’s a whole different ethic of travel. . . . [Potts’s] practical advice might just convince you to enjoy that open-ended trip of a lifetime.”—Rick Steves &amp;nbsp; “Potts wants us to wander, to explore, to embrace the unknown, and, finally, to take our own damn time about it. I think this is the most sensible book of travel-related advice ever written.”—Tim Cahill, founding editor of Outside ...more</x:t>
   </x:si>
   <x:si>
@@ -133,24 +151,6 @@
     <x:t>https://books.toscrape.com/catalogue/vagabonding-an-uncommon-guide-to-the-art-of-long-term-world-travel_552/index.html</x:t>
   </x:si>
   <x:si>
-    <x:t>Acclaimed travel writer Rick Antonson sets his adventurous compass on Mount Ararat, exploring the region’s long history, religious mysteries, and complex politics.Mount Ararat is the most fabled mountain in the world. For millennia this massif in eastern Turkey has been rumored as the resting place of Noah’s Ark following the Great Flood. But it also plays a significant ro Acclaimed travel writer Rick Antonson sets his adventurous compass on Mount Ararat, exploring the region’s long history, religious mysteries, and complex politics.Mount Ararat is the most fabled mountain in the world. For millennia this massif in eastern Turkey has been rumored as the resting place of Noah’s Ark following the Great Flood. But it also plays a significant role in the longstanding conflict between Turkey and Armenia.Author Rick Antonson joined a five-member expedition to the mountain’s nearly 17,000-foot summit, trekking alongside a contingent of Armenians, for whom Mount Ararat is the stolen symbol of their country. Antonson weaves vivid historical anecdote with unexpected travel vignettes, whether tracing earlier mountaineering attempts on the peak, recounting the genocide of Armenians and its unresolved debate, or depicting the Kurds’ ambitions for their own nation’s borders, which some say should include Mount Ararat.What unfolds in Full Moon Over Noah’s Ark is one man’s odyssey, a tale told through many stories. Starting with the flooding of the Black Sea in 5600 BCE, through to the Epic of Gilgamesh and the contrasting narratives of the Great Flood known to followers of the Judaic, Christian and Islamic religions, Full Moon Over Noah’s Ark takes readers along with Antonson through the shadows and broad landscapes of Turkey, Iraq, Iran and Armenia, shedding light on a troubled but fascinating area of the world. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ce60436f52c5ee68</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£49.43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In stock (15 available)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/fe/8a/fe8af6ceec7718986380c0fde9b3b34f.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/full-moon-over-noahs-ark-an-odyssey-to-mount-ararat-and-beyond_811/index.html</x:t>
-  </x:si>
-  <x:si>
     <x:t>National BestsellerIn this witty and warm-hearted account, Peter Mayle tells what it is like to realize a long-cherished dream and actually move into a 200-year-old stone farmhouse in the remote country of the Lubéron with his wife and two large dogs. He endures January's frosty mistral as it comes howling down the Rhône Valley, discovers the secrets of goat racing through National Bestseller&amp;nbsp;In this witty and warm-hearted account, Peter Mayle tells what it is like to realize a long-cherished dream and actually move into a 200-year-old stone farmhouse in the remote country of the Lubéron with his wife and two large dogs. He endures January's frosty mistral as it comes howling down the Rhône Valley, discovers the secrets of goat racing through the middle of town, and delights in the glorious regional cuisine. A Year in Provence transports us into all the earthy pleasures of Provençal life and lets us live vicariously at a tempo governed by seasons, not by days. ...more</x:t>
   </x:si>
   <x:si>
@@ -169,6 +169,21 @@
     <x:t>https://books.toscrape.com/catalogue/a-year-in-provence-provence-1_421/index.html</x:t>
   </x:si>
   <x:si>
+    <x:t>On her thirtieth birthday, Gwendolyn Reese receives an unexpected present from her widowed Aunt Bea: a grand tour of Europe in the company of Bea's Sudoku and Mahjongg Club. The prospect isn't entirely appealing. But when the gift she is expecting--an engagement ring from her boyfriend--doesn't materialize, Gwen decides to go. At first, Gwen approaches the trip as if it's On her thirtieth birthday, Gwendolyn Reese receives an unexpected present from her widowed Aunt Bea: a grand tour of Europe in the company of Bea's Sudoku and Mahjongg Club. The prospect isn't entirely appealing. But when the gift she is expecting--an engagement ring from her boyfriend--doesn't materialize, Gwen decides to go. At first, Gwen approaches the trip as if it's the math homework she assigns her students, diligently checking monuments off her must-see list. But amid the bougainvillea and stunning vistas of southern Italy, something changes. Gwen begins to live in the moment--skipping down stone staircases in Capri, running her fingers over a glacier in view of the Matterhorn, racing through the Louvre, and taste-testing pastries at a Marseilles cafe. Reveling in every new experience--especially her attraction to a charismatic British physics professor--Gwen discovers that the ancient wonders around her are nothing compared to the renaissance unfolding within. . . "A thinking woman's love story, it swept me away to breathtaking places with a cast of endearing characters I won't soon forget. Bravissima!" Susan McBride, author of "Little Black Dress" Praise for Marilyn Brant's According to Jane "A warm, witty and charmingly original story." --Susan Wiggs, "New York Times " bestselling author "Brant infuses her sweetly romantic and delightfully clever tale with just the right dash of Austen-esque wit." "Chicago Tribune" "An engaging read for all who have been through the long, dark, dating wars, and still believe there's sunshine, and a Mr. Darcy, at the end of the tunnel." --Cathy Lamb, author of "Such a Pretty Face"" ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cc1936a9f4e93477</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£44.34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/6c/e3/6ce3003931701c7a3fd5354917538ea9.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/a-summer-in-europe_458/index.html</x:t>
+  </x:si>
+  <x:si>
     <x:t>Bill Bryson's first travel book, The Lost Continent, was unanimously acclaimed as one of the funniest books in years. In Neither Here nor There he brings his unique brand of humour to bear on Europe as he shoulders his backpack, keeps a tight hold on his wallet, and journeys from Hammerfest, the northernmost town on the continent, to Istanbul on the cusp of Asia. Fluent in Bill Bryson's first travel book, The Lost Continent, was unanimously acclaimed as one of the funniest books in years. In Neither Here nor There he brings his unique brand of humour to bear on Europe as he shoulders his backpack, keeps a tight hold on his wallet, and journeys from Hammerfest, the northernmost town on the continent, to Istanbul on the cusp of Asia. Fluent in, oh, at least one language, he retraces his travels as a student twenty years before.Whether braving the homicidal motorist of Paris, being robbed by gypsies in Florence, attempting not to order tripe and eyeballs in a German restaurant, window-shopping in the sex shops of the Reeperbahn or disputing his hotel bill in Copenhagen, Bryson takes in the sights, dissects the culture and illuminates each place and person with his hilariously caustic observations. He even goes to Liechtenstein. ...more</x:t>
   </x:si>
   <x:si>
@@ -215,21 +230,6 @@
   </x:si>
   <x:si>
     <x:t>https://books.toscrape.com/catalogue/the-road-to-little-dribbling-adventures-of-an-american-in-britain-notes-from-a-small-island-2_277/index.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>On her thirtieth birthday, Gwendolyn Reese receives an unexpected present from her widowed Aunt Bea: a grand tour of Europe in the company of Bea's Sudoku and Mahjongg Club. The prospect isn't entirely appealing. But when the gift she is expecting--an engagement ring from her boyfriend--doesn't materialize, Gwen decides to go. At first, Gwen approaches the trip as if it's On her thirtieth birthday, Gwendolyn Reese receives an unexpected present from her widowed Aunt Bea: a grand tour of Europe in the company of Bea's Sudoku and Mahjongg Club. The prospect isn't entirely appealing. But when the gift she is expecting--an engagement ring from her boyfriend--doesn't materialize, Gwen decides to go. At first, Gwen approaches the trip as if it's the math homework she assigns her students, diligently checking monuments off her must-see list. But amid the bougainvillea and stunning vistas of southern Italy, something changes. Gwen begins to live in the moment--skipping down stone staircases in Capri, running her fingers over a glacier in view of the Matterhorn, racing through the Louvre, and taste-testing pastries at a Marseilles cafe. Reveling in every new experience--especially her attraction to a charismatic British physics professor--Gwen discovers that the ancient wonders around her are nothing compared to the renaissance unfolding within. . . "A thinking woman's love story, it swept me away to breathtaking places with a cast of endearing characters I won't soon forget. Bravissima!" Susan McBride, author of "Little Black Dress" Praise for Marilyn Brant's According to Jane "A warm, witty and charmingly original story." --Susan Wiggs, "New York Times " bestselling author "Brant infuses her sweetly romantic and delightfully clever tale with just the right dash of Austen-esque wit." "Chicago Tribune" "An engaging read for all who have been through the long, dark, dating wars, and still believe there's sunshine, and a Mr. Darcy, at the end of the tunnel." --Cathy Lamb, author of "Such a Pretty Face"" ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cc1936a9f4e93477</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£44.34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/6c/e3/6ce3003931701c7a3fd5354917538ea9.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/a-summer-in-europe_458/index.html</x:t>
   </x:si>
   <x:si>
     <x:t>Around the World, continent by continent, here is the best the world has to offer: 1,000 places guaranteed to give travelers the shivers. Sacred ruins, grand hotels, wildlife preserves, hilltop villages, snack shacks, castles, festivals, reefs, restaurants, cathedrals, hidden islands, opera houses, museums, and more. Each entry tells exactly why it's essential to visit. Th Around the World, continent by continent, here is the best the world has to offer: 1,000 places guaranteed to give travelers the shivers. Sacred ruins, grand hotels, wildlife preserves, hilltop villages, snack shacks, castles, festivals, reefs, restaurants, cathedrals, hidden islands, opera houses, museums, and more. Each entry tells exactly why it's essential to visit. Then come the nuts and bolts: addresses, websites, phone and fax numbers, best times to visit. Stop dreaming and get going.This hefty volume reminds vacationers that hot tourist spots are small percentage of what's worth seeing out there. A quick sampling: Venice's Cipriani Hotel; California's Monterey Peninsula; the Lewis and Clark Trail in Oregon; the Great Wall of China; Robert Louis Stevenson's home in Western Samoa; and the Alhambra in Andalusia, Spain. Veteran travel guide writer Schultz divides the book geographically, presenting a little less than a page on each location. Each entry lists exactly where to find the spot (e.g. Moorea is located "12 miles/19 km northwest of Tahiti; 10 minutes by air, 1 hour by boat") and when to go (e.g., if you want to check out The Complete Fly Fisher hotel in Montana, "May and Sept.-Oct. offer productive angling in a solitary setting"). This is an excellent resource for the intrepid traveler.Copyright 2003 Reed Business Information, Inc. ...more</x:t>
@@ -878,42 +878,42 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="J8" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="K8" s="0" t="s">
         <x:v>55</x:v>
-      </x:c>
-      <x:c r="K8" s="0" t="s">
-        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:11">
       <x:c r="A9" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="H9" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s">
         <x:v>18</x:v>
@@ -948,7 +948,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s">
         <x:v>18</x:v>
@@ -983,7 +983,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s">
         <x:v>18</x:v>

--- a/page-data-excel/books/books.xlsx
+++ b/page-data-excel/books/books.xlsx
@@ -49,52 +49,124 @@
     <x:t>url</x:t>
   </x:si>
   <x:si>
+    <x:t>To coincide with the 2016 centennial anniversary of the National Parks Service, the Creative Action Network has partnered with the National Parks Conservation Association to revive and reimagine the legacy of WPA travel posters. Artists from all over the world have participated in the creation of this new, crowdsourced collection of See America posters for a modern era. Fe To coincide with the 2016 centennial anniversary of the National Parks Service, the Creative Action Network has partnered with the National Parks Conservation Association to revive and reimagine the legacy of WPA travel posters. Artists from all over the world have participated in the creation of this new, crowdsourced collection of See America posters for a modern era. Featuring artwork for 75 national parks and monuments across all 50 states, this engaging keepsake volume celebrates the full range of our nation's landmarks and treasured wilderness. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Travel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f9705c362f070608</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Books</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£48.87</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£0.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (14 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/c7/1a/c71a85dbf8c2dbc75cb271026618477c.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/see-america-a-celebration-of-our-national-parks-treasured-sites_732/index.html</x:t>
+  </x:si>
+  <x:si>
     <x:t>“Wherever you go, whatever you do, just . . . don’t do anything stupid.” —My MotherDuring her yearlong adventure backpacking from South Africa to Singapore, S. Bedford definitely did a few things her mother might classify as "stupid." She swam with great white sharks in South Africa, ran from lions in Zimbabwe, climbed a Himalayan mountain without training in Nepal, and wa “Wherever you go, whatever you do, just . . . don’t do anything stupid.” —My MotherDuring her yearlong adventure backpacking from South Africa to Singapore, S. Bedford definitely did a few things her mother might classify as "stupid." She swam with great white sharks in South Africa, ran from lions in Zimbabwe, climbed a Himalayan mountain without training in Nepal, and watched as her friend was attacked by a monkey in Indonesia.But interspersed in those slightly more crazy moments, Sue Bedfored and her friend "Sara the Stoic" experienced the sights, sounds, life, and culture of fifteen countries. Joined along the way by a few friends and their aging fathers here and there, Sue and Sara experience the trip of a lifetime. They fall in love with the world, cultivate an appreciation for home, and discover who, or what, they want to become.It's Only the Himalayas is the incredibly funny, sometimes outlandish, always entertaining confession of a young backpacker that will inspire you to take your own adventure. ...more</x:t>
   </x:si>
   <x:si>
-    <x:t>Travel</x:t>
-  </x:si>
-  <x:si>
     <x:t>a22124811bfa8350</x:t>
   </x:si>
   <x:si>
-    <x:t>Books</x:t>
-  </x:si>
-  <x:si>
     <x:t>£45.17</x:t>
   </x:si>
   <x:si>
-    <x:t>£0.00</x:t>
-  </x:si>
-  <x:si>
     <x:t>In stock (19 available)</x:t>
   </x:si>
   <x:si>
-    <x:t>0</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://books.toscrape.com/media/cache/6d/41/6d418a73cc7d4ecfd75ca11d854041db.jpg</x:t>
   </x:si>
   <x:si>
     <x:t>https://books.toscrape.com/catalogue/its-only-the-himalayas_981/index.html</x:t>
   </x:si>
   <x:si>
-    <x:t>To coincide with the 2016 centennial anniversary of the National Parks Service, the Creative Action Network has partnered with the National Parks Conservation Association to revive and reimagine the legacy of WPA travel posters. Artists from all over the world have participated in the creation of this new, crowdsourced collection of See America posters for a modern era. Fe To coincide with the 2016 centennial anniversary of the National Parks Service, the Creative Action Network has partnered with the National Parks Conservation Association to revive and reimagine the legacy of WPA travel posters. Artists from all over the world have participated in the creation of this new, crowdsourced collection of See America posters for a modern era. Featuring artwork for 75 national parks and monuments across all 50 states, this engaging keepsake volume celebrates the full range of our nation's landmarks and treasured wilderness. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f9705c362f070608</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£48.87</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In stock (14 available)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/c7/1a/c71a85dbf8c2dbc75cb271026618477c.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/see-america-a-celebration-of-our-national-parks-treasured-sites_732/index.html</x:t>
+    <x:t>On her thirtieth birthday, Gwendolyn Reese receives an unexpected present from her widowed Aunt Bea: a grand tour of Europe in the company of Bea's Sudoku and Mahjongg Club. The prospect isn't entirely appealing. But when the gift she is expecting--an engagement ring from her boyfriend--doesn't materialize, Gwen decides to go. At first, Gwen approaches the trip as if it's On her thirtieth birthday, Gwendolyn Reese receives an unexpected present from her widowed Aunt Bea: a grand tour of Europe in the company of Bea's Sudoku and Mahjongg Club. The prospect isn't entirely appealing. But when the gift she is expecting--an engagement ring from her boyfriend--doesn't materialize, Gwen decides to go. At first, Gwen approaches the trip as if it's the math homework she assigns her students, diligently checking monuments off her must-see list. But amid the bougainvillea and stunning vistas of southern Italy, something changes. Gwen begins to live in the moment--skipping down stone staircases in Capri, running her fingers over a glacier in view of the Matterhorn, racing through the Louvre, and taste-testing pastries at a Marseilles cafe. Reveling in every new experience--especially her attraction to a charismatic British physics professor--Gwen discovers that the ancient wonders around her are nothing compared to the renaissance unfolding within. . . "A thinking woman's love story, it swept me away to breathtaking places with a cast of endearing characters I won't soon forget. Bravissima!" Susan McBride, author of "Little Black Dress" Praise for Marilyn Brant's According to Jane "A warm, witty and charmingly original story." --Susan Wiggs, "New York Times " bestselling author "Brant infuses her sweetly romantic and delightfully clever tale with just the right dash of Austen-esque wit." "Chicago Tribune" "An engaging read for all who have been through the long, dark, dating wars, and still believe there's sunshine, and a Mr. Darcy, at the end of the tunnel." --Cathy Lamb, author of "Such a Pretty Face"" ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cc1936a9f4e93477</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£44.34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (7 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/6c/e3/6ce3003931701c7a3fd5354917538ea9.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/a-summer-in-europe_458/index.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Acclaimed travel writer Rick Antonson sets his adventurous compass on Mount Ararat, exploring the region’s long history, religious mysteries, and complex politics.Mount Ararat is the most fabled mountain in the world. For millennia this massif in eastern Turkey has been rumored as the resting place of Noah’s Ark following the Great Flood. But it also plays a significant ro Acclaimed travel writer Rick Antonson sets his adventurous compass on Mount Ararat, exploring the region’s long history, religious mysteries, and complex politics.Mount Ararat is the most fabled mountain in the world. For millennia this massif in eastern Turkey has been rumored as the resting place of Noah’s Ark following the Great Flood. But it also plays a significant role in the longstanding conflict between Turkey and Armenia.Author Rick Antonson joined a five-member expedition to the mountain’s nearly 17,000-foot summit, trekking alongside a contingent of Armenians, for whom Mount Ararat is the stolen symbol of their country. Antonson weaves vivid historical anecdote with unexpected travel vignettes, whether tracing earlier mountaineering attempts on the peak, recounting the genocide of Armenians and its unresolved debate, or depicting the Kurds’ ambitions for their own nation’s borders, which some say should include Mount Ararat.What unfolds in Full Moon Over Noah’s Ark is one man’s odyssey, a tale told through many stories. Starting with the flooding of the Black Sea in 5600 BCE, through to the Epic of Gilgamesh and the contrasting narratives of the Great Flood known to followers of the Judaic, Christian and Islamic religions, Full Moon Over Noah’s Ark takes readers along with Antonson through the shadows and broad landscapes of Turkey, Iraq, Iran and Armenia, shedding light on a troubled but fascinating area of the world. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ce60436f52c5ee68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£49.43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (15 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/fe/8a/fe8af6ceec7718986380c0fde9b3b34f.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/full-moon-over-noahs-ark-an-odyssey-to-mount-ararat-and-beyond_811/index.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>First published more than thirty years ago, Paul Theroux's strange, unique, and hugely entertaining railway odyssey has become a modern classic of travel literature. Here Theroux recounts his early adventures on an unusual grand continental tour. Asia's fabled trains -- the Orient Express, the Khyber Pass Local, the Frontier Mail, the Golden Arrow to Kuala Lumpur, the Mand First published more than thirty years ago, Paul Theroux's strange, unique, and hugely entertaining railway odyssey has become a modern classic of travel literature. Here Theroux recounts his early adventures on an unusual grand continental tour. Asia's fabled trains -- the Orient Express, the Khyber Pass Local, the Frontier Mail, the Golden Arrow to Kuala Lumpur, the Mandalay Express, the Trans-Siberian Express -- are the stars of a journey that takes him on a loop eastbound from London's Victoria Station to Tokyo Central, then back from Japan on the Trans-Siberian. Brimming with Theroux's signature humor and wry observations, this engrossing chronicle is essential reading for both the ardent adventurer and the armchair traveler. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48736df57e7bec9f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£30.54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (6 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/d5/82/d582f6b0261c2842330e893962276295.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/the-great-railway-bazaar_446/index.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>With a new foreword by Tim Ferriss •There’s nothing like vagabonding: taking time off from your normal life—from six weeks to four months to two years—to discover and experience the world on your own terms. In this one-of-a-kind handbook, veteran travel writer Rolf Potts explains how anyone armed with an independent spirit can achieve the dream of extended overseas travel. With a new foreword by Tim Ferriss •&amp;nbsp;There’s nothing like vagabonding: taking time off from your normal life—from six weeks to four months to two years—to discover and experience the world on your own terms. In this one-of-a-kind handbook, veteran travel writer Rolf Potts explains how anyone armed with an independent spirit can achieve the dream of extended overseas travel. Now completely revised and updated, Vagabonding is an accessible and inspiring guide to &amp;nbsp; • financing your travel time • determining your destination • adjusting to life on the road • working and volunteering overseas •&amp;nbsp;handling travel adversity • re-assimilating back into ordinary life &amp;nbsp;Praise for Vagabonding&amp;nbsp; “A crucial reference for any budget wanderer.”—Time&amp;nbsp; “Vagabonding easily remains in my top-10 list of life-changing books. Why? Because one incredible trip, especially a long-term trip, can change your life forever. And Vagabonding teaches you how to travel (and think), not just for one trip, but for the rest of your life.”—Tim Ferriss, from the foreword &amp;nbsp; “The book is a meditation on the joys of hitting the road. . . . It’s also a primer for those with a case of pent-up wanderlust seeking to live the dream.”—USA Today &amp;nbsp; “I couldn’t put this book down. It’s a whole different ethic of travel. . . . [Potts’s] practical advice might just convince you to enjoy that open-ended trip of a lifetime.”—Rick Steves &amp;nbsp; “Potts wants us to wander, to explore, to embrace the unknown, and, finally, to take our own damn time about it. I think this is the most sensible book of travel-related advice ever written.”—Tim Cahill, founding editor of Outside ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1809259a5a5f1d8d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£36.94</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (8 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/ca/30/ca30b1afe1e76ce7ba1db8176d398e53.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/vagabonding-an-uncommon-guide-to-the-art-of-long-term-world-travel_552/index.html</x:t>
   </x:si>
   <x:si>
     <x:t>A CLASSIC FROM THE BESTSELLING AUTHOR OF UNDER MAGNOLIAFrances Mayes—widely published poet, gourmet cook, and travel writer—opens the door to a wondrous new world when she buys and restores an abandoned villa in the spectacular Tuscan countryside. In evocative language, she brings the reader along as she discovers the beauty and simplicity of life in Italy. Mayes also crea A CLASSIC FROM THE BESTSELLING AUTHOR OF UNDER MAGNOLIAFrances Mayes—widely published poet, gourmet cook, and travel writer—opens the door to a wondrous new world when she buys and restores an abandoned villa in the spectacular Tuscan countryside. In evocative language, she brings the reader along as she discovers the beauty and simplicity of life in Italy. Mayes also creates dozens of delicious seasonal recipes from her traditional kitchen and simple garden, all of which she includes in the book. Doing for Tuscany what M.F.K. Fisher and Peter Mayle did for Provence, Mayes writes about the tastes and pleasures of a foreign country with gusto and passion. ...more</x:t>
@@ -106,49 +178,28 @@
     <x:t>£37.33</x:t>
   </x:si>
   <x:si>
-    <x:t>In stock (7 available)</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://books.toscrape.com/media/cache/45/21/4521c581ba727f5c835e34860cbf53e5.jpg</x:t>
   </x:si>
   <x:si>
     <x:t>https://books.toscrape.com/catalogue/under-the-tuscan-sun_504/index.html</x:t>
   </x:si>
   <x:si>
-    <x:t>Acclaimed travel writer Rick Antonson sets his adventurous compass on Mount Ararat, exploring the region’s long history, religious mysteries, and complex politics.Mount Ararat is the most fabled mountain in the world. For millennia this massif in eastern Turkey has been rumored as the resting place of Noah’s Ark following the Great Flood. But it also plays a significant ro Acclaimed travel writer Rick Antonson sets his adventurous compass on Mount Ararat, exploring the region’s long history, religious mysteries, and complex politics.Mount Ararat is the most fabled mountain in the world. For millennia this massif in eastern Turkey has been rumored as the resting place of Noah’s Ark following the Great Flood. But it also plays a significant role in the longstanding conflict between Turkey and Armenia.Author Rick Antonson joined a five-member expedition to the mountain’s nearly 17,000-foot summit, trekking alongside a contingent of Armenians, for whom Mount Ararat is the stolen symbol of their country. Antonson weaves vivid historical anecdote with unexpected travel vignettes, whether tracing earlier mountaineering attempts on the peak, recounting the genocide of Armenians and its unresolved debate, or depicting the Kurds’ ambitions for their own nation’s borders, which some say should include Mount Ararat.What unfolds in Full Moon Over Noah’s Ark is one man’s odyssey, a tale told through many stories. Starting with the flooding of the Black Sea in 5600 BCE, through to the Epic of Gilgamesh and the contrasting narratives of the Great Flood known to followers of the Judaic, Christian and Islamic religions, Full Moon Over Noah’s Ark takes readers along with Antonson through the shadows and broad landscapes of Turkey, Iraq, Iran and Armenia, shedding light on a troubled but fascinating area of the world. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ce60436f52c5ee68</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£49.43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In stock (15 available)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/fe/8a/fe8af6ceec7718986380c0fde9b3b34f.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/full-moon-over-noahs-ark-an-odyssey-to-mount-ararat-and-beyond_811/index.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>With a new foreword by Tim Ferriss •There’s nothing like vagabonding: taking time off from your normal life—from six weeks to four months to two years—to discover and experience the world on your own terms. In this one-of-a-kind handbook, veteran travel writer Rolf Potts explains how anyone armed with an independent spirit can achieve the dream of extended overseas travel. With a new foreword by Tim Ferriss •&amp;nbsp;There’s nothing like vagabonding: taking time off from your normal life—from six weeks to four months to two years—to discover and experience the world on your own terms. In this one-of-a-kind handbook, veteran travel writer Rolf Potts explains how anyone armed with an independent spirit can achieve the dream of extended overseas travel. Now completely revised and updated, Vagabonding is an accessible and inspiring guide to &amp;nbsp; • financing your travel time • determining your destination • adjusting to life on the road • working and volunteering overseas •&amp;nbsp;handling travel adversity • re-assimilating back into ordinary life &amp;nbsp;Praise for Vagabonding&amp;nbsp; “A crucial reference for any budget wanderer.”—Time&amp;nbsp; “Vagabonding easily remains in my top-10 list of life-changing books. Why? Because one incredible trip, especially a long-term trip, can change your life forever. And Vagabonding teaches you how to travel (and think), not just for one trip, but for the rest of your life.”—Tim Ferriss, from the foreword &amp;nbsp; “The book is a meditation on the joys of hitting the road. . . . It’s also a primer for those with a case of pent-up wanderlust seeking to live the dream.”—USA Today &amp;nbsp; “I couldn’t put this book down. It’s a whole different ethic of travel. . . . [Potts’s] practical advice might just convince you to enjoy that open-ended trip of a lifetime.”—Rick Steves &amp;nbsp; “Potts wants us to wander, to explore, to embrace the unknown, and, finally, to take our own damn time about it. I think this is the most sensible book of travel-related advice ever written.”—Tim Cahill, founding editor of Outside ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1809259a5a5f1d8d</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£36.94</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In stock (8 available)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/ca/30/ca30b1afe1e76ce7ba1db8176d398e53.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/vagabonding-an-uncommon-guide-to-the-art-of-long-term-world-travel_552/index.html</x:t>
+    <x:t>Around the World, continent by continent, here is the best the world has to offer: 1,000 places guaranteed to give travelers the shivers. Sacred ruins, grand hotels, wildlife preserves, hilltop villages, snack shacks, castles, festivals, reefs, restaurants, cathedrals, hidden islands, opera houses, museums, and more. Each entry tells exactly why it's essential to visit. Th Around the World, continent by continent, here is the best the world has to offer: 1,000 places guaranteed to give travelers the shivers. Sacred ruins, grand hotels, wildlife preserves, hilltop villages, snack shacks, castles, festivals, reefs, restaurants, cathedrals, hidden islands, opera houses, museums, and more. Each entry tells exactly why it's essential to visit. Then come the nuts and bolts: addresses, websites, phone and fax numbers, best times to visit. Stop dreaming and get going.This hefty volume reminds vacationers that hot tourist spots are small percentage of what's worth seeing out there. A quick sampling: Venice's Cipriani Hotel; California's Monterey Peninsula; the Lewis and Clark Trail in Oregon; the Great Wall of China; Robert Louis Stevenson's home in Western Samoa; and the Alhambra in Andalusia, Spain. Veteran travel guide writer Schultz divides the book geographically, presenting a little less than a page on each location. Each entry lists exactly where to find the spot (e.g. Moorea is located "12 miles/19 km northwest of Tahiti; 10 minutes by air, 1 hour by boat") and when to go (e.g., if you want to check out The Complete Fly Fisher hotel in Montana, "May and Sept.-Oct. offer productive angling in a solitary setting"). This is an excellent resource for the intrepid traveler.Copyright 2003 Reed Business Information, Inc. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>228ba5e7577e1d49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£26.08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (1 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/9e/10/9e106f81f65b293e488718a4f54a6a3f.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/1000-places-to-see-before-you-die_1/index.html</x:t>
   </x:si>
   <x:si>
     <x:t>National BestsellerIn this witty and warm-hearted account, Peter Mayle tells what it is like to realize a long-cherished dream and actually move into a 200-year-old stone farmhouse in the remote country of the Lubéron with his wife and two large dogs. He endures January's frosty mistral as it comes howling down the Rhône Valley, discovers the secrets of goat racing through National Bestseller&amp;nbsp;In this witty and warm-hearted account, Peter Mayle tells what it is like to realize a long-cherished dream and actually move into a 200-year-old stone farmhouse in the remote country of the Lubéron with his wife and two large dogs. He endures January's frosty mistral as it comes howling down the Rhône Valley, discovers the secrets of goat racing through the middle of town, and delights in the glorious regional cuisine. A Year in Provence transports us into all the earthy pleasures of Provençal life and lets us live vicariously at a tempo governed by seasons, not by days. ...more</x:t>
@@ -160,30 +211,12 @@
     <x:t>£56.88</x:t>
   </x:si>
   <x:si>
-    <x:t>In stock (6 available)</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://books.toscrape.com/media/cache/8b/81/8b81cd9b2c8f89a12099a80bed1c4911.jpg</x:t>
   </x:si>
   <x:si>
     <x:t>https://books.toscrape.com/catalogue/a-year-in-provence-provence-1_421/index.html</x:t>
   </x:si>
   <x:si>
-    <x:t>On her thirtieth birthday, Gwendolyn Reese receives an unexpected present from her widowed Aunt Bea: a grand tour of Europe in the company of Bea's Sudoku and Mahjongg Club. The prospect isn't entirely appealing. But when the gift she is expecting--an engagement ring from her boyfriend--doesn't materialize, Gwen decides to go. At first, Gwen approaches the trip as if it's On her thirtieth birthday, Gwendolyn Reese receives an unexpected present from her widowed Aunt Bea: a grand tour of Europe in the company of Bea's Sudoku and Mahjongg Club. The prospect isn't entirely appealing. But when the gift she is expecting--an engagement ring from her boyfriend--doesn't materialize, Gwen decides to go. At first, Gwen approaches the trip as if it's the math homework she assigns her students, diligently checking monuments off her must-see list. But amid the bougainvillea and stunning vistas of southern Italy, something changes. Gwen begins to live in the moment--skipping down stone staircases in Capri, running her fingers over a glacier in view of the Matterhorn, racing through the Louvre, and taste-testing pastries at a Marseilles cafe. Reveling in every new experience--especially her attraction to a charismatic British physics professor--Gwen discovers that the ancient wonders around her are nothing compared to the renaissance unfolding within. . . "A thinking woman's love story, it swept me away to breathtaking places with a cast of endearing characters I won't soon forget. Bravissima!" Susan McBride, author of "Little Black Dress" Praise for Marilyn Brant's According to Jane "A warm, witty and charmingly original story." --Susan Wiggs, "New York Times " bestselling author "Brant infuses her sweetly romantic and delightfully clever tale with just the right dash of Austen-esque wit." "Chicago Tribune" "An engaging read for all who have been through the long, dark, dating wars, and still believe there's sunshine, and a Mr. Darcy, at the end of the tunnel." --Cathy Lamb, author of "Such a Pretty Face"" ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cc1936a9f4e93477</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£44.34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/6c/e3/6ce3003931701c7a3fd5354917538ea9.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/a-summer-in-europe_458/index.html</x:t>
-  </x:si>
-  <x:si>
     <x:t>Bill Bryson's first travel book, The Lost Continent, was unanimously acclaimed as one of the funniest books in years. In Neither Here nor There he brings his unique brand of humour to bear on Europe as he shoulders his backpack, keeps a tight hold on his wallet, and journeys from Hammerfest, the northernmost town on the continent, to Istanbul on the cusp of Asia. Fluent in Bill Bryson's first travel book, The Lost Continent, was unanimously acclaimed as one of the funniest books in years. In Neither Here nor There he brings his unique brand of humour to bear on Europe as he shoulders his backpack, keeps a tight hold on his wallet, and journeys from Hammerfest, the northernmost town on the continent, to Istanbul on the cusp of Asia. Fluent in, oh, at least one language, he retraces his travels as a student twenty years before.Whether braving the homicidal motorist of Paris, being robbed by gypsies in Florence, attempting not to order tripe and eyeballs in a German restaurant, window-shopping in the sex shops of the Reeperbahn or disputing his hotel bill in Copenhagen, Bryson takes in the sights, dissects the culture and illuminates each place and person with his hilariously caustic observations. He even goes to Liechtenstein. ...more</x:t>
   </x:si>
   <x:si>
@@ -202,21 +235,6 @@
     <x:t>https://books.toscrape.com/catalogue/neither-here-nor-there-travels-in-europe_198/index.html</x:t>
   </x:si>
   <x:si>
-    <x:t>First published more than thirty years ago, Paul Theroux's strange, unique, and hugely entertaining railway odyssey has become a modern classic of travel literature. Here Theroux recounts his early adventures on an unusual grand continental tour. Asia's fabled trains -- the Orient Express, the Khyber Pass Local, the Frontier Mail, the Golden Arrow to Kuala Lumpur, the Mand First published more than thirty years ago, Paul Theroux's strange, unique, and hugely entertaining railway odyssey has become a modern classic of travel literature. Here Theroux recounts his early adventures on an unusual grand continental tour. Asia's fabled trains -- the Orient Express, the Khyber Pass Local, the Frontier Mail, the Golden Arrow to Kuala Lumpur, the Mandalay Express, the Trans-Siberian Express -- are the stars of a journey that takes him on a loop eastbound from London's Victoria Station to Tokyo Central, then back from Japan on the Trans-Siberian. Brimming with Theroux's signature humor and wry observations, this engrossing chronicle is essential reading for both the ardent adventurer and the armchair traveler. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48736df57e7bec9f</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£30.54</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/d5/82/d582f6b0261c2842330e893962276295.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/the-great-railway-bazaar_446/index.html</x:t>
-  </x:si>
-  <x:si>
     <x:t>The hilarious and loving sequel to a hilarious and loving classic of travel writing: Notes from a Small Island, Bill Bryson’s valentine to his adopted country of EnglandIn 1995 Bill Bryson got into his car and took a weeks-long farewell motoring trip about England before moving his family back to the United States. The book about that trip, Notes from a Small Island, is up The hilarious and loving sequel to a hilarious and loving classic of travel writing: Notes from a Small Island, Bill Bryson’s valentine to his adopted country of EnglandIn 1995 Bill Bryson got into his car and took a weeks-long farewell motoring trip about England before moving his family back to the United States. The book about that trip, Notes from a Small Island, is uproarious and endlessly endearing, one of the most acute and affectionate portrayals of England in all its glorious eccentricity ever written. Two decades later, he set out again to rediscover that country, and the result is The Road to Little Dribbling. Nothing is funnier than Bill Bryson on the road—prepare for the total joy and multiple episodes of unseemly laughter. ...more</x:t>
   </x:si>
   <x:si>
@@ -230,24 +248,6 @@
   </x:si>
   <x:si>
     <x:t>https://books.toscrape.com/catalogue/the-road-to-little-dribbling-adventures-of-an-american-in-britain-notes-from-a-small-island-2_277/index.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Around the World, continent by continent, here is the best the world has to offer: 1,000 places guaranteed to give travelers the shivers. Sacred ruins, grand hotels, wildlife preserves, hilltop villages, snack shacks, castles, festivals, reefs, restaurants, cathedrals, hidden islands, opera houses, museums, and more. Each entry tells exactly why it's essential to visit. Th Around the World, continent by continent, here is the best the world has to offer: 1,000 places guaranteed to give travelers the shivers. Sacred ruins, grand hotels, wildlife preserves, hilltop villages, snack shacks, castles, festivals, reefs, restaurants, cathedrals, hidden islands, opera houses, museums, and more. Each entry tells exactly why it's essential to visit. Then come the nuts and bolts: addresses, websites, phone and fax numbers, best times to visit. Stop dreaming and get going.This hefty volume reminds vacationers that hot tourist spots are small percentage of what's worth seeing out there. A quick sampling: Venice's Cipriani Hotel; California's Monterey Peninsula; the Lewis and Clark Trail in Oregon; the Great Wall of China; Robert Louis Stevenson's home in Western Samoa; and the Alhambra in Andalusia, Spain. Veteran travel guide writer Schultz divides the book geographically, presenting a little less than a page on each location. Each entry lists exactly where to find the spot (e.g. Moorea is located "12 miles/19 km northwest of Tahiti; 10 minutes by air, 1 hour by boat") and when to go (e.g., if you want to check out The Complete Fly Fisher hotel in Montana, "May and Sept.-Oct. offer productive angling in a solitary setting"). This is an excellent resource for the intrepid traveler.Copyright 2003 Reed Business Information, Inc. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>228ba5e7577e1d49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£26.08</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In stock (1 available)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/9e/10/9e106f81f65b293e488718a4f54a6a3f.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/1000-places-to-see-before-you-die_1/index.html</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -948,7 +948,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s">
         <x:v>18</x:v>
@@ -983,42 +983,42 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="J11" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="K11" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:11">
       <x:c r="A12" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="H12" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s">
         <x:v>18</x:v>

--- a/page-data-excel/books/books.xlsx
+++ b/page-data-excel/books/books.xlsx
@@ -217,6 +217,24 @@
     <x:t>https://books.toscrape.com/catalogue/a-year-in-provence-provence-1_421/index.html</x:t>
   </x:si>
   <x:si>
+    <x:t>The hilarious and loving sequel to a hilarious and loving classic of travel writing: Notes from a Small Island, Bill Bryson’s valentine to his adopted country of EnglandIn 1995 Bill Bryson got into his car and took a weeks-long farewell motoring trip about England before moving his family back to the United States. The book about that trip, Notes from a Small Island, is up The hilarious and loving sequel to a hilarious and loving classic of travel writing: Notes from a Small Island, Bill Bryson’s valentine to his adopted country of EnglandIn 1995 Bill Bryson got into his car and took a weeks-long farewell motoring trip about England before moving his family back to the United States. The book about that trip, Notes from a Small Island, is uproarious and endlessly endearing, one of the most acute and affectionate portrayals of England in all its glorious eccentricity ever written. Two decades later, he set out again to rediscover that country, and the result is The Road to Little Dribbling. Nothing is funnier than Bill Bryson on the road—prepare for the total joy and multiple episodes of unseemly laughter. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>366a236aa1ea6f07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£23.21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (3 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/26/f5/26f5d20239a45046e756c6d09611b3ea.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/the-road-to-little-dribbling-adventures-of-an-american-in-britain-notes-from-a-small-island-2_277/index.html</x:t>
+  </x:si>
+  <x:si>
     <x:t>Bill Bryson's first travel book, The Lost Continent, was unanimously acclaimed as one of the funniest books in years. In Neither Here nor There he brings his unique brand of humour to bear on Europe as he shoulders his backpack, keeps a tight hold on his wallet, and journeys from Hammerfest, the northernmost town on the continent, to Istanbul on the cusp of Asia. Fluent in Bill Bryson's first travel book, The Lost Continent, was unanimously acclaimed as one of the funniest books in years. In Neither Here nor There he brings his unique brand of humour to bear on Europe as he shoulders his backpack, keeps a tight hold on his wallet, and journeys from Hammerfest, the northernmost town on the continent, to Istanbul on the cusp of Asia. Fluent in, oh, at least one language, he retraces his travels as a student twenty years before.Whether braving the homicidal motorist of Paris, being robbed by gypsies in Florence, attempting not to order tripe and eyeballs in a German restaurant, window-shopping in the sex shops of the Reeperbahn or disputing his hotel bill in Copenhagen, Bryson takes in the sights, dissects the culture and illuminates each place and person with his hilariously caustic observations. He even goes to Liechtenstein. ...more</x:t>
   </x:si>
   <x:si>
@@ -226,28 +244,10 @@
     <x:t>£38.95</x:t>
   </x:si>
   <x:si>
-    <x:t>In stock (3 available)</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://books.toscrape.com/media/cache/c9/9a/c99a7a05537cd842eb4db83d537e3a4d.jpg</x:t>
   </x:si>
   <x:si>
     <x:t>https://books.toscrape.com/catalogue/neither-here-nor-there-travels-in-europe_198/index.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The hilarious and loving sequel to a hilarious and loving classic of travel writing: Notes from a Small Island, Bill Bryson’s valentine to his adopted country of EnglandIn 1995 Bill Bryson got into his car and took a weeks-long farewell motoring trip about England before moving his family back to the United States. The book about that trip, Notes from a Small Island, is up The hilarious and loving sequel to a hilarious and loving classic of travel writing: Notes from a Small Island, Bill Bryson’s valentine to his adopted country of EnglandIn 1995 Bill Bryson got into his car and took a weeks-long farewell motoring trip about England before moving his family back to the United States. The book about that trip, Notes from a Small Island, is uproarious and endlessly endearing, one of the most acute and affectionate portrayals of England in all its glorious eccentricity ever written. Two decades later, he set out again to rediscover that country, and the result is The Road to Little Dribbling. Nothing is funnier than Bill Bryson on the road—prepare for the total joy and multiple episodes of unseemly laughter. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>366a236aa1ea6f07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£23.21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/26/f5/26f5d20239a45046e756c6d09611b3ea.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/the-road-to-little-dribbling-adventures-of-an-american-in-britain-notes-from-a-small-island-2_277/index.html</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/page-data-excel/books/books.xlsx
+++ b/page-data-excel/books/books.xlsx
@@ -49,52 +49,142 @@
     <x:t>url</x:t>
   </x:si>
   <x:si>
+    <x:t>“Wherever you go, whatever you do, just . . . don’t do anything stupid.” —My MotherDuring her yearlong adventure backpacking from South Africa to Singapore, S. Bedford definitely did a few things her mother might classify as "stupid." She swam with great white sharks in South Africa, ran from lions in Zimbabwe, climbed a Himalayan mountain without training in Nepal, and wa “Wherever you go, whatever you do, just . . . don’t do anything stupid.” —My MotherDuring her yearlong adventure backpacking from South Africa to Singapore, S. Bedford definitely did a few things her mother might classify as "stupid." She swam with great white sharks in South Africa, ran from lions in Zimbabwe, climbed a Himalayan mountain without training in Nepal, and watched as her friend was attacked by a monkey in Indonesia.But interspersed in those slightly more crazy moments, Sue Bedfored and her friend "Sara the Stoic" experienced the sights, sounds, life, and culture of fifteen countries. Joined along the way by a few friends and their aging fathers here and there, Sue and Sara experience the trip of a lifetime. They fall in love with the world, cultivate an appreciation for home, and discover who, or what, they want to become.It's Only the Himalayas is the incredibly funny, sometimes outlandish, always entertaining confession of a young backpacker that will inspire you to take your own adventure. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Travel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a22124811bfa8350</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Books</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£45.17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£0.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (19 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/6d/41/6d418a73cc7d4ecfd75ca11d854041db.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/its-only-the-himalayas_981/index.html</x:t>
+  </x:si>
+  <x:si>
     <x:t>To coincide with the 2016 centennial anniversary of the National Parks Service, the Creative Action Network has partnered with the National Parks Conservation Association to revive and reimagine the legacy of WPA travel posters. Artists from all over the world have participated in the creation of this new, crowdsourced collection of See America posters for a modern era. Fe To coincide with the 2016 centennial anniversary of the National Parks Service, the Creative Action Network has partnered with the National Parks Conservation Association to revive and reimagine the legacy of WPA travel posters. Artists from all over the world have participated in the creation of this new, crowdsourced collection of See America posters for a modern era. Featuring artwork for 75 national parks and monuments across all 50 states, this engaging keepsake volume celebrates the full range of our nation's landmarks and treasured wilderness. ...more</x:t>
   </x:si>
   <x:si>
-    <x:t>Travel</x:t>
-  </x:si>
-  <x:si>
     <x:t>f9705c362f070608</x:t>
   </x:si>
   <x:si>
-    <x:t>Books</x:t>
-  </x:si>
-  <x:si>
     <x:t>£48.87</x:t>
   </x:si>
   <x:si>
-    <x:t>£0.00</x:t>
-  </x:si>
-  <x:si>
     <x:t>In stock (14 available)</x:t>
   </x:si>
   <x:si>
-    <x:t>0</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://books.toscrape.com/media/cache/c7/1a/c71a85dbf8c2dbc75cb271026618477c.jpg</x:t>
   </x:si>
   <x:si>
     <x:t>https://books.toscrape.com/catalogue/see-america-a-celebration-of-our-national-parks-treasured-sites_732/index.html</x:t>
   </x:si>
   <x:si>
-    <x:t>“Wherever you go, whatever you do, just . . . don’t do anything stupid.” —My MotherDuring her yearlong adventure backpacking from South Africa to Singapore, S. Bedford definitely did a few things her mother might classify as "stupid." She swam with great white sharks in South Africa, ran from lions in Zimbabwe, climbed a Himalayan mountain without training in Nepal, and wa “Wherever you go, whatever you do, just . . . don’t do anything stupid.” —My MotherDuring her yearlong adventure backpacking from South Africa to Singapore, S. Bedford definitely did a few things her mother might classify as "stupid." She swam with great white sharks in South Africa, ran from lions in Zimbabwe, climbed a Himalayan mountain without training in Nepal, and watched as her friend was attacked by a monkey in Indonesia.But interspersed in those slightly more crazy moments, Sue Bedfored and her friend "Sara the Stoic" experienced the sights, sounds, life, and culture of fifteen countries. Joined along the way by a few friends and their aging fathers here and there, Sue and Sara experience the trip of a lifetime. They fall in love with the world, cultivate an appreciation for home, and discover who, or what, they want to become.It's Only the Himalayas is the incredibly funny, sometimes outlandish, always entertaining confession of a young backpacker that will inspire you to take your own adventure. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>a22124811bfa8350</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£45.17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In stock (19 available)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/6d/41/6d418a73cc7d4ecfd75ca11d854041db.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/its-only-the-himalayas_981/index.html</x:t>
+    <x:t>A CLASSIC FROM THE BESTSELLING AUTHOR OF UNDER MAGNOLIAFrances Mayes—widely published poet, gourmet cook, and travel writer—opens the door to a wondrous new world when she buys and restores an abandoned villa in the spectacular Tuscan countryside. In evocative language, she brings the reader along as she discovers the beauty and simplicity of life in Italy. Mayes also crea A CLASSIC FROM THE BESTSELLING AUTHOR OF UNDER MAGNOLIAFrances Mayes—widely published poet, gourmet cook, and travel writer—opens the door to a wondrous new world when she buys and restores an abandoned villa in the spectacular Tuscan countryside. In evocative language, she brings the reader along as she discovers the beauty and simplicity of life in Italy. Mayes also creates dozens of delicious seasonal recipes from her traditional kitchen and simple garden, all of which she includes in the book. Doing for Tuscany what M.F.K. Fisher and Peter Mayle did for Provence, Mayes writes about the tastes and pleasures of a foreign country with gusto and passion. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a94350ee74deaa07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£37.33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (7 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/45/21/4521c581ba727f5c835e34860cbf53e5.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/under-the-tuscan-sun_504/index.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Acclaimed travel writer Rick Antonson sets his adventurous compass on Mount Ararat, exploring the region’s long history, religious mysteries, and complex politics.Mount Ararat is the most fabled mountain in the world. For millennia this massif in eastern Turkey has been rumored as the resting place of Noah’s Ark following the Great Flood. But it also plays a significant ro Acclaimed travel writer Rick Antonson sets his adventurous compass on Mount Ararat, exploring the region’s long history, religious mysteries, and complex politics.Mount Ararat is the most fabled mountain in the world. For millennia this massif in eastern Turkey has been rumored as the resting place of Noah’s Ark following the Great Flood. But it also plays a significant role in the longstanding conflict between Turkey and Armenia.Author Rick Antonson joined a five-member expedition to the mountain’s nearly 17,000-foot summit, trekking alongside a contingent of Armenians, for whom Mount Ararat is the stolen symbol of their country. Antonson weaves vivid historical anecdote with unexpected travel vignettes, whether tracing earlier mountaineering attempts on the peak, recounting the genocide of Armenians and its unresolved debate, or depicting the Kurds’ ambitions for their own nation’s borders, which some say should include Mount Ararat.What unfolds in Full Moon Over Noah’s Ark is one man’s odyssey, a tale told through many stories. Starting with the flooding of the Black Sea in 5600 BCE, through to the Epic of Gilgamesh and the contrasting narratives of the Great Flood known to followers of the Judaic, Christian and Islamic religions, Full Moon Over Noah’s Ark takes readers along with Antonson through the shadows and broad landscapes of Turkey, Iraq, Iran and Armenia, shedding light on a troubled but fascinating area of the world. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ce60436f52c5ee68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£49.43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (15 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/fe/8a/fe8af6ceec7718986380c0fde9b3b34f.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/full-moon-over-noahs-ark-an-odyssey-to-mount-ararat-and-beyond_811/index.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>With a new foreword by Tim Ferriss •There’s nothing like vagabonding: taking time off from your normal life—from six weeks to four months to two years—to discover and experience the world on your own terms. In this one-of-a-kind handbook, veteran travel writer Rolf Potts explains how anyone armed with an independent spirit can achieve the dream of extended overseas travel. With a new foreword by Tim Ferriss •&amp;nbsp;There’s nothing like vagabonding: taking time off from your normal life—from six weeks to four months to two years—to discover and experience the world on your own terms. In this one-of-a-kind handbook, veteran travel writer Rolf Potts explains how anyone armed with an independent spirit can achieve the dream of extended overseas travel. Now completely revised and updated, Vagabonding is an accessible and inspiring guide to &amp;nbsp; • financing your travel time • determining your destination • adjusting to life on the road • working and volunteering overseas •&amp;nbsp;handling travel adversity • re-assimilating back into ordinary life &amp;nbsp;Praise for Vagabonding&amp;nbsp; “A crucial reference for any budget wanderer.”—Time&amp;nbsp; “Vagabonding easily remains in my top-10 list of life-changing books. Why? Because one incredible trip, especially a long-term trip, can change your life forever. And Vagabonding teaches you how to travel (and think), not just for one trip, but for the rest of your life.”—Tim Ferriss, from the foreword &amp;nbsp; “The book is a meditation on the joys of hitting the road. . . . It’s also a primer for those with a case of pent-up wanderlust seeking to live the dream.”—USA Today &amp;nbsp; “I couldn’t put this book down. It’s a whole different ethic of travel. . . . [Potts’s] practical advice might just convince you to enjoy that open-ended trip of a lifetime.”—Rick Steves &amp;nbsp; “Potts wants us to wander, to explore, to embrace the unknown, and, finally, to take our own damn time about it. I think this is the most sensible book of travel-related advice ever written.”—Tim Cahill, founding editor of Outside ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1809259a5a5f1d8d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£36.94</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (8 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/ca/30/ca30b1afe1e76ce7ba1db8176d398e53.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/vagabonding-an-uncommon-guide-to-the-art-of-long-term-world-travel_552/index.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>National BestsellerIn this witty and warm-hearted account, Peter Mayle tells what it is like to realize a long-cherished dream and actually move into a 200-year-old stone farmhouse in the remote country of the Lubéron with his wife and two large dogs. He endures January's frosty mistral as it comes howling down the Rhône Valley, discovers the secrets of goat racing through National Bestseller&amp;nbsp;In this witty and warm-hearted account, Peter Mayle tells what it is like to realize a long-cherished dream and actually move into a 200-year-old stone farmhouse in the remote country of the Lubéron with his wife and two large dogs. He endures January's frosty mistral as it comes howling down the Rhône Valley, discovers the secrets of goat racing through the middle of town, and delights in the glorious regional cuisine. A Year in Provence transports us into all the earthy pleasures of Provençal life and lets us live vicariously at a tempo governed by seasons, not by days. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9e60929f521fa280</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£56.88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (6 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/8b/81/8b81cd9b2c8f89a12099a80bed1c4911.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/a-year-in-provence-provence-1_421/index.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bill Bryson's first travel book, The Lost Continent, was unanimously acclaimed as one of the funniest books in years. In Neither Here nor There he brings his unique brand of humour to bear on Europe as he shoulders his backpack, keeps a tight hold on his wallet, and journeys from Hammerfest, the northernmost town on the continent, to Istanbul on the cusp of Asia. Fluent in Bill Bryson's first travel book, The Lost Continent, was unanimously acclaimed as one of the funniest books in years. In Neither Here nor There he brings his unique brand of humour to bear on Europe as he shoulders his backpack, keeps a tight hold on his wallet, and journeys from Hammerfest, the northernmost town on the continent, to Istanbul on the cusp of Asia. Fluent in, oh, at least one language, he retraces his travels as a student twenty years before.Whether braving the homicidal motorist of Paris, being robbed by gypsies in Florence, attempting not to order tripe and eyeballs in a German restaurant, window-shopping in the sex shops of the Reeperbahn or disputing his hotel bill in Copenhagen, Bryson takes in the sights, dissects the culture and illuminates each place and person with his hilariously caustic observations. He even goes to Liechtenstein. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>747cf7fca2ccdbd4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£38.95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (3 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/c9/9a/c99a7a05537cd842eb4db83d537e3a4d.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/neither-here-nor-there-travels-in-europe_198/index.html</x:t>
   </x:si>
   <x:si>
     <x:t>On her thirtieth birthday, Gwendolyn Reese receives an unexpected present from her widowed Aunt Bea: a grand tour of Europe in the company of Bea's Sudoku and Mahjongg Club. The prospect isn't entirely appealing. But when the gift she is expecting--an engagement ring from her boyfriend--doesn't materialize, Gwen decides to go. At first, Gwen approaches the trip as if it's On her thirtieth birthday, Gwendolyn Reese receives an unexpected present from her widowed Aunt Bea: a grand tour of Europe in the company of Bea's Sudoku and Mahjongg Club. The prospect isn't entirely appealing. But when the gift she is expecting--an engagement ring from her boyfriend--doesn't materialize, Gwen decides to go. At first, Gwen approaches the trip as if it's the math homework she assigns her students, diligently checking monuments off her must-see list. But amid the bougainvillea and stunning vistas of southern Italy, something changes. Gwen begins to live in the moment--skipping down stone staircases in Capri, running her fingers over a glacier in view of the Matterhorn, racing through the Louvre, and taste-testing pastries at a Marseilles cafe. Reveling in every new experience--especially her attraction to a charismatic British physics professor--Gwen discovers that the ancient wonders around her are nothing compared to the renaissance unfolding within. . . "A thinking woman's love story, it swept me away to breathtaking places with a cast of endearing characters I won't soon forget. Bravissima!" Susan McBride, author of "Little Black Dress" Praise for Marilyn Brant's According to Jane "A warm, witty and charmingly original story." --Susan Wiggs, "New York Times " bestselling author "Brant infuses her sweetly romantic and delightfully clever tale with just the right dash of Austen-esque wit." "Chicago Tribune" "An engaging read for all who have been through the long, dark, dating wars, and still believe there's sunshine, and a Mr. Darcy, at the end of the tunnel." --Cathy Lamb, author of "Such a Pretty Face"" ...more</x:t>
@@ -106,33 +196,12 @@
     <x:t>£44.34</x:t>
   </x:si>
   <x:si>
-    <x:t>In stock (7 available)</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://books.toscrape.com/media/cache/6c/e3/6ce3003931701c7a3fd5354917538ea9.jpg</x:t>
   </x:si>
   <x:si>
     <x:t>https://books.toscrape.com/catalogue/a-summer-in-europe_458/index.html</x:t>
   </x:si>
   <x:si>
-    <x:t>Acclaimed travel writer Rick Antonson sets his adventurous compass on Mount Ararat, exploring the region’s long history, religious mysteries, and complex politics.Mount Ararat is the most fabled mountain in the world. For millennia this massif in eastern Turkey has been rumored as the resting place of Noah’s Ark following the Great Flood. But it also plays a significant ro Acclaimed travel writer Rick Antonson sets his adventurous compass on Mount Ararat, exploring the region’s long history, religious mysteries, and complex politics.Mount Ararat is the most fabled mountain in the world. For millennia this massif in eastern Turkey has been rumored as the resting place of Noah’s Ark following the Great Flood. But it also plays a significant role in the longstanding conflict between Turkey and Armenia.Author Rick Antonson joined a five-member expedition to the mountain’s nearly 17,000-foot summit, trekking alongside a contingent of Armenians, for whom Mount Ararat is the stolen symbol of their country. Antonson weaves vivid historical anecdote with unexpected travel vignettes, whether tracing earlier mountaineering attempts on the peak, recounting the genocide of Armenians and its unresolved debate, or depicting the Kurds’ ambitions for their own nation’s borders, which some say should include Mount Ararat.What unfolds in Full Moon Over Noah’s Ark is one man’s odyssey, a tale told through many stories. Starting with the flooding of the Black Sea in 5600 BCE, through to the Epic of Gilgamesh and the contrasting narratives of the Great Flood known to followers of the Judaic, Christian and Islamic religions, Full Moon Over Noah’s Ark takes readers along with Antonson through the shadows and broad landscapes of Turkey, Iraq, Iran and Armenia, shedding light on a troubled but fascinating area of the world. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ce60436f52c5ee68</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£49.43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In stock (15 available)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/fe/8a/fe8af6ceec7718986380c0fde9b3b34f.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/full-moon-over-noahs-ark-an-odyssey-to-mount-ararat-and-beyond_811/index.html</x:t>
-  </x:si>
-  <x:si>
     <x:t>First published more than thirty years ago, Paul Theroux's strange, unique, and hugely entertaining railway odyssey has become a modern classic of travel literature. Here Theroux recounts his early adventures on an unusual grand continental tour. Asia's fabled trains -- the Orient Express, the Khyber Pass Local, the Frontier Mail, the Golden Arrow to Kuala Lumpur, the Mand First published more than thirty years ago, Paul Theroux's strange, unique, and hugely entertaining railway odyssey has become a modern classic of travel literature. Here Theroux recounts his early adventures on an unusual grand continental tour. Asia's fabled trains -- the Orient Express, the Khyber Pass Local, the Frontier Mail, the Golden Arrow to Kuala Lumpur, the Mandalay Express, the Trans-Siberian Express -- are the stars of a journey that takes him on a loop eastbound from London's Victoria Station to Tokyo Central, then back from Japan on the Trans-Siberian. Brimming with Theroux's signature humor and wry observations, this engrossing chronicle is essential reading for both the ardent adventurer and the armchair traveler. ...more</x:t>
   </x:si>
   <x:si>
@@ -142,46 +211,25 @@
     <x:t>£30.54</x:t>
   </x:si>
   <x:si>
-    <x:t>In stock (6 available)</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://books.toscrape.com/media/cache/d5/82/d582f6b0261c2842330e893962276295.jpg</x:t>
   </x:si>
   <x:si>
     <x:t>https://books.toscrape.com/catalogue/the-great-railway-bazaar_446/index.html</x:t>
   </x:si>
   <x:si>
-    <x:t>With a new foreword by Tim Ferriss •There’s nothing like vagabonding: taking time off from your normal life—from six weeks to four months to two years—to discover and experience the world on your own terms. In this one-of-a-kind handbook, veteran travel writer Rolf Potts explains how anyone armed with an independent spirit can achieve the dream of extended overseas travel. With a new foreword by Tim Ferriss •&amp;nbsp;There’s nothing like vagabonding: taking time off from your normal life—from six weeks to four months to two years—to discover and experience the world on your own terms. In this one-of-a-kind handbook, veteran travel writer Rolf Potts explains how anyone armed with an independent spirit can achieve the dream of extended overseas travel. Now completely revised and updated, Vagabonding is an accessible and inspiring guide to &amp;nbsp; • financing your travel time • determining your destination • adjusting to life on the road • working and volunteering overseas •&amp;nbsp;handling travel adversity • re-assimilating back into ordinary life &amp;nbsp;Praise for Vagabonding&amp;nbsp; “A crucial reference for any budget wanderer.”—Time&amp;nbsp; “Vagabonding easily remains in my top-10 list of life-changing books. Why? Because one incredible trip, especially a long-term trip, can change your life forever. And Vagabonding teaches you how to travel (and think), not just for one trip, but for the rest of your life.”—Tim Ferriss, from the foreword &amp;nbsp; “The book is a meditation on the joys of hitting the road. . . . It’s also a primer for those with a case of pent-up wanderlust seeking to live the dream.”—USA Today &amp;nbsp; “I couldn’t put this book down. It’s a whole different ethic of travel. . . . [Potts’s] practical advice might just convince you to enjoy that open-ended trip of a lifetime.”—Rick Steves &amp;nbsp; “Potts wants us to wander, to explore, to embrace the unknown, and, finally, to take our own damn time about it. I think this is the most sensible book of travel-related advice ever written.”—Tim Cahill, founding editor of Outside ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1809259a5a5f1d8d</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£36.94</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In stock (8 available)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/ca/30/ca30b1afe1e76ce7ba1db8176d398e53.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/vagabonding-an-uncommon-guide-to-the-art-of-long-term-world-travel_552/index.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A CLASSIC FROM THE BESTSELLING AUTHOR OF UNDER MAGNOLIAFrances Mayes—widely published poet, gourmet cook, and travel writer—opens the door to a wondrous new world when she buys and restores an abandoned villa in the spectacular Tuscan countryside. In evocative language, she brings the reader along as she discovers the beauty and simplicity of life in Italy. Mayes also crea A CLASSIC FROM THE BESTSELLING AUTHOR OF UNDER MAGNOLIAFrances Mayes—widely published poet, gourmet cook, and travel writer—opens the door to a wondrous new world when she buys and restores an abandoned villa in the spectacular Tuscan countryside. In evocative language, she brings the reader along as she discovers the beauty and simplicity of life in Italy. Mayes also creates dozens of delicious seasonal recipes from her traditional kitchen and simple garden, all of which she includes in the book. Doing for Tuscany what M.F.K. Fisher and Peter Mayle did for Provence, Mayes writes about the tastes and pleasures of a foreign country with gusto and passion. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>a94350ee74deaa07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£37.33</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/45/21/4521c581ba727f5c835e34860cbf53e5.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/under-the-tuscan-sun_504/index.html</x:t>
+    <x:t>The hilarious and loving sequel to a hilarious and loving classic of travel writing: Notes from a Small Island, Bill Bryson’s valentine to his adopted country of EnglandIn 1995 Bill Bryson got into his car and took a weeks-long farewell motoring trip about England before moving his family back to the United States. The book about that trip, Notes from a Small Island, is up The hilarious and loving sequel to a hilarious and loving classic of travel writing: Notes from a Small Island, Bill Bryson’s valentine to his adopted country of EnglandIn 1995 Bill Bryson got into his car and took a weeks-long farewell motoring trip about England before moving his family back to the United States. The book about that trip, Notes from a Small Island, is uproarious and endlessly endearing, one of the most acute and affectionate portrayals of England in all its glorious eccentricity ever written. Two decades later, he set out again to rediscover that country, and the result is The Road to Little Dribbling. Nothing is funnier than Bill Bryson on the road—prepare for the total joy and multiple episodes of unseemly laughter. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>366a236aa1ea6f07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£23.21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/26/f5/26f5d20239a45046e756c6d09611b3ea.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/the-road-to-little-dribbling-adventures-of-an-american-in-britain-notes-from-a-small-island-2_277/index.html</x:t>
   </x:si>
   <x:si>
     <x:t>Around the World, continent by continent, here is the best the world has to offer: 1,000 places guaranteed to give travelers the shivers. Sacred ruins, grand hotels, wildlife preserves, hilltop villages, snack shacks, castles, festivals, reefs, restaurants, cathedrals, hidden islands, opera houses, museums, and more. Each entry tells exactly why it's essential to visit. Th Around the World, continent by continent, here is the best the world has to offer: 1,000 places guaranteed to give travelers the shivers. Sacred ruins, grand hotels, wildlife preserves, hilltop villages, snack shacks, castles, festivals, reefs, restaurants, cathedrals, hidden islands, opera houses, museums, and more. Each entry tells exactly why it's essential to visit. Then come the nuts and bolts: addresses, websites, phone and fax numbers, best times to visit. Stop dreaming and get going.This hefty volume reminds vacationers that hot tourist spots are small percentage of what's worth seeing out there. A quick sampling: Venice's Cipriani Hotel; California's Monterey Peninsula; the Lewis and Clark Trail in Oregon; the Great Wall of China; Robert Louis Stevenson's home in Western Samoa; and the Alhambra in Andalusia, Spain. Veteran travel guide writer Schultz divides the book geographically, presenting a little less than a page on each location. Each entry lists exactly where to find the spot (e.g. Moorea is located "12 miles/19 km northwest of Tahiti; 10 minutes by air, 1 hour by boat") and when to go (e.g., if you want to check out The Complete Fly Fisher hotel in Montana, "May and Sept.-Oct. offer productive angling in a solitary setting"). This is an excellent resource for the intrepid traveler.Copyright 2003 Reed Business Information, Inc. ...more</x:t>
@@ -200,54 +248,6 @@
   </x:si>
   <x:si>
     <x:t>https://books.toscrape.com/catalogue/1000-places-to-see-before-you-die_1/index.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>National BestsellerIn this witty and warm-hearted account, Peter Mayle tells what it is like to realize a long-cherished dream and actually move into a 200-year-old stone farmhouse in the remote country of the Lubéron with his wife and two large dogs. He endures January's frosty mistral as it comes howling down the Rhône Valley, discovers the secrets of goat racing through National Bestseller&amp;nbsp;In this witty and warm-hearted account, Peter Mayle tells what it is like to realize a long-cherished dream and actually move into a 200-year-old stone farmhouse in the remote country of the Lubéron with his wife and two large dogs. He endures January's frosty mistral as it comes howling down the Rhône Valley, discovers the secrets of goat racing through the middle of town, and delights in the glorious regional cuisine. A Year in Provence transports us into all the earthy pleasures of Provençal life and lets us live vicariously at a tempo governed by seasons, not by days. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9e60929f521fa280</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£56.88</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/8b/81/8b81cd9b2c8f89a12099a80bed1c4911.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/a-year-in-provence-provence-1_421/index.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The hilarious and loving sequel to a hilarious and loving classic of travel writing: Notes from a Small Island, Bill Bryson’s valentine to his adopted country of EnglandIn 1995 Bill Bryson got into his car and took a weeks-long farewell motoring trip about England before moving his family back to the United States. The book about that trip, Notes from a Small Island, is up The hilarious and loving sequel to a hilarious and loving classic of travel writing: Notes from a Small Island, Bill Bryson’s valentine to his adopted country of EnglandIn 1995 Bill Bryson got into his car and took a weeks-long farewell motoring trip about England before moving his family back to the United States. The book about that trip, Notes from a Small Island, is uproarious and endlessly endearing, one of the most acute and affectionate portrayals of England in all its glorious eccentricity ever written. Two decades later, he set out again to rediscover that country, and the result is The Road to Little Dribbling. Nothing is funnier than Bill Bryson on the road—prepare for the total joy and multiple episodes of unseemly laughter. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>366a236aa1ea6f07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£23.21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In stock (3 available)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/26/f5/26f5d20239a45046e756c6d09611b3ea.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/the-road-to-little-dribbling-adventures-of-an-american-in-britain-notes-from-a-small-island-2_277/index.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bill Bryson's first travel book, The Lost Continent, was unanimously acclaimed as one of the funniest books in years. In Neither Here nor There he brings his unique brand of humour to bear on Europe as he shoulders his backpack, keeps a tight hold on his wallet, and journeys from Hammerfest, the northernmost town on the continent, to Istanbul on the cusp of Asia. Fluent in Bill Bryson's first travel book, The Lost Continent, was unanimously acclaimed as one of the funniest books in years. In Neither Here nor There he brings his unique brand of humour to bear on Europe as he shoulders his backpack, keeps a tight hold on his wallet, and journeys from Hammerfest, the northernmost town on the continent, to Istanbul on the cusp of Asia. Fluent in, oh, at least one language, he retraces his travels as a student twenty years before.Whether braving the homicidal motorist of Paris, being robbed by gypsies in Florence, attempting not to order tripe and eyeballs in a German restaurant, window-shopping in the sex shops of the Reeperbahn or disputing his hotel bill in Copenhagen, Bryson takes in the sights, dissects the culture and illuminates each place and person with his hilariously caustic observations. He even goes to Liechtenstein. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>747cf7fca2ccdbd4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£38.95</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/c9/9a/c99a7a05537cd842eb4db83d537e3a4d.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/neither-here-nor-there-travels-in-europe_198/index.html</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -878,42 +878,42 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="J8" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="K8" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:11">
       <x:c r="A9" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="H9" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s">
         <x:v>18</x:v>
@@ -948,7 +948,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s">
         <x:v>18</x:v>
@@ -983,42 +983,42 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="J11" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="K11" s="0" t="s">
         <x:v>71</x:v>
-      </x:c>
-      <x:c r="K11" s="0" t="s">
-        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:11">
       <x:c r="A12" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="H12" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s">
         <x:v>18</x:v>

--- a/page-data-excel/books/books.xlsx
+++ b/page-data-excel/books/books.xlsx
@@ -49,52 +49,142 @@
     <x:t>url</x:t>
   </x:si>
   <x:si>
+    <x:t>To coincide with the 2016 centennial anniversary of the National Parks Service, the Creative Action Network has partnered with the National Parks Conservation Association to revive and reimagine the legacy of WPA travel posters. Artists from all over the world have participated in the creation of this new, crowdsourced collection of See America posters for a modern era. Fe To coincide with the 2016 centennial anniversary of the National Parks Service, the Creative Action Network has partnered with the National Parks Conservation Association to revive and reimagine the legacy of WPA travel posters. Artists from all over the world have participated in the creation of this new, crowdsourced collection of See America posters for a modern era. Featuring artwork for 75 national parks and monuments across all 50 states, this engaging keepsake volume celebrates the full range of our nation's landmarks and treasured wilderness. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Travel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f9705c362f070608</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Books</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£48.87</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£0.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (14 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/c7/1a/c71a85dbf8c2dbc75cb271026618477c.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/see-america-a-celebration-of-our-national-parks-treasured-sites_732/index.html</x:t>
+  </x:si>
+  <x:si>
     <x:t>“Wherever you go, whatever you do, just . . . don’t do anything stupid.” —My MotherDuring her yearlong adventure backpacking from South Africa to Singapore, S. Bedford definitely did a few things her mother might classify as "stupid." She swam with great white sharks in South Africa, ran from lions in Zimbabwe, climbed a Himalayan mountain without training in Nepal, and wa “Wherever you go, whatever you do, just . . . don’t do anything stupid.” —My MotherDuring her yearlong adventure backpacking from South Africa to Singapore, S. Bedford definitely did a few things her mother might classify as "stupid." She swam with great white sharks in South Africa, ran from lions in Zimbabwe, climbed a Himalayan mountain without training in Nepal, and watched as her friend was attacked by a monkey in Indonesia.But interspersed in those slightly more crazy moments, Sue Bedfored and her friend "Sara the Stoic" experienced the sights, sounds, life, and culture of fifteen countries. Joined along the way by a few friends and their aging fathers here and there, Sue and Sara experience the trip of a lifetime. They fall in love with the world, cultivate an appreciation for home, and discover who, or what, they want to become.It's Only the Himalayas is the incredibly funny, sometimes outlandish, always entertaining confession of a young backpacker that will inspire you to take your own adventure. ...more</x:t>
   </x:si>
   <x:si>
-    <x:t>Travel</x:t>
-  </x:si>
-  <x:si>
     <x:t>a22124811bfa8350</x:t>
   </x:si>
   <x:si>
-    <x:t>Books</x:t>
-  </x:si>
-  <x:si>
     <x:t>£45.17</x:t>
   </x:si>
   <x:si>
-    <x:t>£0.00</x:t>
-  </x:si>
-  <x:si>
     <x:t>In stock (19 available)</x:t>
   </x:si>
   <x:si>
-    <x:t>0</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://books.toscrape.com/media/cache/6d/41/6d418a73cc7d4ecfd75ca11d854041db.jpg</x:t>
   </x:si>
   <x:si>
     <x:t>https://books.toscrape.com/catalogue/its-only-the-himalayas_981/index.html</x:t>
   </x:si>
   <x:si>
-    <x:t>To coincide with the 2016 centennial anniversary of the National Parks Service, the Creative Action Network has partnered with the National Parks Conservation Association to revive and reimagine the legacy of WPA travel posters. Artists from all over the world have participated in the creation of this new, crowdsourced collection of See America posters for a modern era. Fe To coincide with the 2016 centennial anniversary of the National Parks Service, the Creative Action Network has partnered with the National Parks Conservation Association to revive and reimagine the legacy of WPA travel posters. Artists from all over the world have participated in the creation of this new, crowdsourced collection of See America posters for a modern era. Featuring artwork for 75 national parks and monuments across all 50 states, this engaging keepsake volume celebrates the full range of our nation's landmarks and treasured wilderness. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f9705c362f070608</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£48.87</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In stock (14 available)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/c7/1a/c71a85dbf8c2dbc75cb271026618477c.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/see-america-a-celebration-of-our-national-parks-treasured-sites_732/index.html</x:t>
+    <x:t>Acclaimed travel writer Rick Antonson sets his adventurous compass on Mount Ararat, exploring the region’s long history, religious mysteries, and complex politics.Mount Ararat is the most fabled mountain in the world. For millennia this massif in eastern Turkey has been rumored as the resting place of Noah’s Ark following the Great Flood. But it also plays a significant ro Acclaimed travel writer Rick Antonson sets his adventurous compass on Mount Ararat, exploring the region’s long history, religious mysteries, and complex politics.Mount Ararat is the most fabled mountain in the world. For millennia this massif in eastern Turkey has been rumored as the resting place of Noah’s Ark following the Great Flood. But it also plays a significant role in the longstanding conflict between Turkey and Armenia.Author Rick Antonson joined a five-member expedition to the mountain’s nearly 17,000-foot summit, trekking alongside a contingent of Armenians, for whom Mount Ararat is the stolen symbol of their country. Antonson weaves vivid historical anecdote with unexpected travel vignettes, whether tracing earlier mountaineering attempts on the peak, recounting the genocide of Armenians and its unresolved debate, or depicting the Kurds’ ambitions for their own nation’s borders, which some say should include Mount Ararat.What unfolds in Full Moon Over Noah’s Ark is one man’s odyssey, a tale told through many stories. Starting with the flooding of the Black Sea in 5600 BCE, through to the Epic of Gilgamesh and the contrasting narratives of the Great Flood known to followers of the Judaic, Christian and Islamic religions, Full Moon Over Noah’s Ark takes readers along with Antonson through the shadows and broad landscapes of Turkey, Iraq, Iran and Armenia, shedding light on a troubled but fascinating area of the world. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ce60436f52c5ee68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£49.43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (15 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/fe/8a/fe8af6ceec7718986380c0fde9b3b34f.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/full-moon-over-noahs-ark-an-odyssey-to-mount-ararat-and-beyond_811/index.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>On her thirtieth birthday, Gwendolyn Reese receives an unexpected present from her widowed Aunt Bea: a grand tour of Europe in the company of Bea's Sudoku and Mahjongg Club. The prospect isn't entirely appealing. But when the gift she is expecting--an engagement ring from her boyfriend--doesn't materialize, Gwen decides to go. At first, Gwen approaches the trip as if it's On her thirtieth birthday, Gwendolyn Reese receives an unexpected present from her widowed Aunt Bea: a grand tour of Europe in the company of Bea's Sudoku and Mahjongg Club. The prospect isn't entirely appealing. But when the gift she is expecting--an engagement ring from her boyfriend--doesn't materialize, Gwen decides to go. At first, Gwen approaches the trip as if it's the math homework she assigns her students, diligently checking monuments off her must-see list. But amid the bougainvillea and stunning vistas of southern Italy, something changes. Gwen begins to live in the moment--skipping down stone staircases in Capri, running her fingers over a glacier in view of the Matterhorn, racing through the Louvre, and taste-testing pastries at a Marseilles cafe. Reveling in every new experience--especially her attraction to a charismatic British physics professor--Gwen discovers that the ancient wonders around her are nothing compared to the renaissance unfolding within. . . "A thinking woman's love story, it swept me away to breathtaking places with a cast of endearing characters I won't soon forget. Bravissima!" Susan McBride, author of "Little Black Dress" Praise for Marilyn Brant's According to Jane "A warm, witty and charmingly original story." --Susan Wiggs, "New York Times " bestselling author "Brant infuses her sweetly romantic and delightfully clever tale with just the right dash of Austen-esque wit." "Chicago Tribune" "An engaging read for all who have been through the long, dark, dating wars, and still believe there's sunshine, and a Mr. Darcy, at the end of the tunnel." --Cathy Lamb, author of "Such a Pretty Face"" ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cc1936a9f4e93477</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£44.34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (7 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/6c/e3/6ce3003931701c7a3fd5354917538ea9.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/a-summer-in-europe_458/index.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>With a new foreword by Tim Ferriss •There’s nothing like vagabonding: taking time off from your normal life—from six weeks to four months to two years—to discover and experience the world on your own terms. In this one-of-a-kind handbook, veteran travel writer Rolf Potts explains how anyone armed with an independent spirit can achieve the dream of extended overseas travel. With a new foreword by Tim Ferriss •&amp;nbsp;There’s nothing like vagabonding: taking time off from your normal life—from six weeks to four months to two years—to discover and experience the world on your own terms. In this one-of-a-kind handbook, veteran travel writer Rolf Potts explains how anyone armed with an independent spirit can achieve the dream of extended overseas travel. Now completely revised and updated, Vagabonding is an accessible and inspiring guide to &amp;nbsp; • financing your travel time • determining your destination • adjusting to life on the road • working and volunteering overseas •&amp;nbsp;handling travel adversity • re-assimilating back into ordinary life &amp;nbsp;Praise for Vagabonding&amp;nbsp; “A crucial reference for any budget wanderer.”—Time&amp;nbsp; “Vagabonding easily remains in my top-10 list of life-changing books. Why? Because one incredible trip, especially a long-term trip, can change your life forever. And Vagabonding teaches you how to travel (and think), not just for one trip, but for the rest of your life.”—Tim Ferriss, from the foreword &amp;nbsp; “The book is a meditation on the joys of hitting the road. . . . It’s also a primer for those with a case of pent-up wanderlust seeking to live the dream.”—USA Today &amp;nbsp; “I couldn’t put this book down. It’s a whole different ethic of travel. . . . [Potts’s] practical advice might just convince you to enjoy that open-ended trip of a lifetime.”—Rick Steves &amp;nbsp; “Potts wants us to wander, to explore, to embrace the unknown, and, finally, to take our own damn time about it. I think this is the most sensible book of travel-related advice ever written.”—Tim Cahill, founding editor of Outside ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1809259a5a5f1d8d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£36.94</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (8 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/ca/30/ca30b1afe1e76ce7ba1db8176d398e53.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/vagabonding-an-uncommon-guide-to-the-art-of-long-term-world-travel_552/index.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>First published more than thirty years ago, Paul Theroux's strange, unique, and hugely entertaining railway odyssey has become a modern classic of travel literature. Here Theroux recounts his early adventures on an unusual grand continental tour. Asia's fabled trains -- the Orient Express, the Khyber Pass Local, the Frontier Mail, the Golden Arrow to Kuala Lumpur, the Mand First published more than thirty years ago, Paul Theroux's strange, unique, and hugely entertaining railway odyssey has become a modern classic of travel literature. Here Theroux recounts his early adventures on an unusual grand continental tour. Asia's fabled trains -- the Orient Express, the Khyber Pass Local, the Frontier Mail, the Golden Arrow to Kuala Lumpur, the Mandalay Express, the Trans-Siberian Express -- are the stars of a journey that takes him on a loop eastbound from London's Victoria Station to Tokyo Central, then back from Japan on the Trans-Siberian. Brimming with Theroux's signature humor and wry observations, this engrossing chronicle is essential reading for both the ardent adventurer and the armchair traveler. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48736df57e7bec9f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£30.54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (6 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/d5/82/d582f6b0261c2842330e893962276295.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/the-great-railway-bazaar_446/index.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The hilarious and loving sequel to a hilarious and loving classic of travel writing: Notes from a Small Island, Bill Bryson’s valentine to his adopted country of EnglandIn 1995 Bill Bryson got into his car and took a weeks-long farewell motoring trip about England before moving his family back to the United States. The book about that trip, Notes from a Small Island, is up The hilarious and loving sequel to a hilarious and loving classic of travel writing: Notes from a Small Island, Bill Bryson’s valentine to his adopted country of EnglandIn 1995 Bill Bryson got into his car and took a weeks-long farewell motoring trip about England before moving his family back to the United States. The book about that trip, Notes from a Small Island, is uproarious and endlessly endearing, one of the most acute and affectionate portrayals of England in all its glorious eccentricity ever written. Two decades later, he set out again to rediscover that country, and the result is The Road to Little Dribbling. Nothing is funnier than Bill Bryson on the road—prepare for the total joy and multiple episodes of unseemly laughter. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>366a236aa1ea6f07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£23.21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (3 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/26/f5/26f5d20239a45046e756c6d09611b3ea.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/the-road-to-little-dribbling-adventures-of-an-american-in-britain-notes-from-a-small-island-2_277/index.html</x:t>
   </x:si>
   <x:si>
     <x:t>A CLASSIC FROM THE BESTSELLING AUTHOR OF UNDER MAGNOLIAFrances Mayes—widely published poet, gourmet cook, and travel writer—opens the door to a wondrous new world when she buys and restores an abandoned villa in the spectacular Tuscan countryside. In evocative language, she brings the reader along as she discovers the beauty and simplicity of life in Italy. Mayes also crea A CLASSIC FROM THE BESTSELLING AUTHOR OF UNDER MAGNOLIAFrances Mayes—widely published poet, gourmet cook, and travel writer—opens the door to a wondrous new world when she buys and restores an abandoned villa in the spectacular Tuscan countryside. In evocative language, she brings the reader along as she discovers the beauty and simplicity of life in Italy. Mayes also creates dozens of delicious seasonal recipes from her traditional kitchen and simple garden, all of which she includes in the book. Doing for Tuscany what M.F.K. Fisher and Peter Mayle did for Provence, Mayes writes about the tastes and pleasures of a foreign country with gusto and passion. ...more</x:t>
@@ -106,51 +196,12 @@
     <x:t>£37.33</x:t>
   </x:si>
   <x:si>
-    <x:t>In stock (7 available)</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://books.toscrape.com/media/cache/45/21/4521c581ba727f5c835e34860cbf53e5.jpg</x:t>
   </x:si>
   <x:si>
     <x:t>https://books.toscrape.com/catalogue/under-the-tuscan-sun_504/index.html</x:t>
   </x:si>
   <x:si>
-    <x:t>Acclaimed travel writer Rick Antonson sets his adventurous compass on Mount Ararat, exploring the region’s long history, religious mysteries, and complex politics.Mount Ararat is the most fabled mountain in the world. For millennia this massif in eastern Turkey has been rumored as the resting place of Noah’s Ark following the Great Flood. But it also plays a significant ro Acclaimed travel writer Rick Antonson sets his adventurous compass on Mount Ararat, exploring the region’s long history, religious mysteries, and complex politics.Mount Ararat is the most fabled mountain in the world. For millennia this massif in eastern Turkey has been rumored as the resting place of Noah’s Ark following the Great Flood. But it also plays a significant role in the longstanding conflict between Turkey and Armenia.Author Rick Antonson joined a five-member expedition to the mountain’s nearly 17,000-foot summit, trekking alongside a contingent of Armenians, for whom Mount Ararat is the stolen symbol of their country. Antonson weaves vivid historical anecdote with unexpected travel vignettes, whether tracing earlier mountaineering attempts on the peak, recounting the genocide of Armenians and its unresolved debate, or depicting the Kurds’ ambitions for their own nation’s borders, which some say should include Mount Ararat.What unfolds in Full Moon Over Noah’s Ark is one man’s odyssey, a tale told through many stories. Starting with the flooding of the Black Sea in 5600 BCE, through to the Epic of Gilgamesh and the contrasting narratives of the Great Flood known to followers of the Judaic, Christian and Islamic religions, Full Moon Over Noah’s Ark takes readers along with Antonson through the shadows and broad landscapes of Turkey, Iraq, Iran and Armenia, shedding light on a troubled but fascinating area of the world. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ce60436f52c5ee68</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£49.43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In stock (15 available)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/fe/8a/fe8af6ceec7718986380c0fde9b3b34f.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/full-moon-over-noahs-ark-an-odyssey-to-mount-ararat-and-beyond_811/index.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>With a new foreword by Tim Ferriss •There’s nothing like vagabonding: taking time off from your normal life—from six weeks to four months to two years—to discover and experience the world on your own terms. In this one-of-a-kind handbook, veteran travel writer Rolf Potts explains how anyone armed with an independent spirit can achieve the dream of extended overseas travel. With a new foreword by Tim Ferriss •&amp;nbsp;There’s nothing like vagabonding: taking time off from your normal life—from six weeks to four months to two years—to discover and experience the world on your own terms. In this one-of-a-kind handbook, veteran travel writer Rolf Potts explains how anyone armed with an independent spirit can achieve the dream of extended overseas travel. Now completely revised and updated, Vagabonding is an accessible and inspiring guide to &amp;nbsp; • financing your travel time • determining your destination • adjusting to life on the road • working and volunteering overseas •&amp;nbsp;handling travel adversity • re-assimilating back into ordinary life &amp;nbsp;Praise for Vagabonding&amp;nbsp; “A crucial reference for any budget wanderer.”—Time&amp;nbsp; “Vagabonding easily remains in my top-10 list of life-changing books. Why? Because one incredible trip, especially a long-term trip, can change your life forever. And Vagabonding teaches you how to travel (and think), not just for one trip, but for the rest of your life.”—Tim Ferriss, from the foreword &amp;nbsp; “The book is a meditation on the joys of hitting the road. . . . It’s also a primer for those with a case of pent-up wanderlust seeking to live the dream.”—USA Today &amp;nbsp; “I couldn’t put this book down. It’s a whole different ethic of travel. . . . [Potts’s] practical advice might just convince you to enjoy that open-ended trip of a lifetime.”—Rick Steves &amp;nbsp; “Potts wants us to wander, to explore, to embrace the unknown, and, finally, to take our own damn time about it. I think this is the most sensible book of travel-related advice ever written.”—Tim Cahill, founding editor of Outside ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1809259a5a5f1d8d</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£36.94</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In stock (8 available)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/ca/30/ca30b1afe1e76ce7ba1db8176d398e53.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/vagabonding-an-uncommon-guide-to-the-art-of-long-term-world-travel_552/index.html</x:t>
-  </x:si>
-  <x:si>
     <x:t>National BestsellerIn this witty and warm-hearted account, Peter Mayle tells what it is like to realize a long-cherished dream and actually move into a 200-year-old stone farmhouse in the remote country of the Lubéron with his wife and two large dogs. He endures January's frosty mistral as it comes howling down the Rhône Valley, discovers the secrets of goat racing through National Bestseller&amp;nbsp;In this witty and warm-hearted account, Peter Mayle tells what it is like to realize a long-cherished dream and actually move into a 200-year-old stone farmhouse in the remote country of the Lubéron with his wife and two large dogs. He endures January's frosty mistral as it comes howling down the Rhône Valley, discovers the secrets of goat racing through the middle of town, and delights in the glorious regional cuisine. A Year in Provence transports us into all the earthy pleasures of Provençal life and lets us live vicariously at a tempo governed by seasons, not by days. ...more</x:t>
   </x:si>
   <x:si>
@@ -160,9 +211,6 @@
     <x:t>£56.88</x:t>
   </x:si>
   <x:si>
-    <x:t>In stock (6 available)</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://books.toscrape.com/media/cache/8b/81/8b81cd9b2c8f89a12099a80bed1c4911.jpg</x:t>
   </x:si>
   <x:si>
@@ -178,58 +226,10 @@
     <x:t>£38.95</x:t>
   </x:si>
   <x:si>
-    <x:t>In stock (3 available)</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://books.toscrape.com/media/cache/c9/9a/c99a7a05537cd842eb4db83d537e3a4d.jpg</x:t>
   </x:si>
   <x:si>
     <x:t>https://books.toscrape.com/catalogue/neither-here-nor-there-travels-in-europe_198/index.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>On her thirtieth birthday, Gwendolyn Reese receives an unexpected present from her widowed Aunt Bea: a grand tour of Europe in the company of Bea's Sudoku and Mahjongg Club. The prospect isn't entirely appealing. But when the gift she is expecting--an engagement ring from her boyfriend--doesn't materialize, Gwen decides to go. At first, Gwen approaches the trip as if it's On her thirtieth birthday, Gwendolyn Reese receives an unexpected present from her widowed Aunt Bea: a grand tour of Europe in the company of Bea's Sudoku and Mahjongg Club. The prospect isn't entirely appealing. But when the gift she is expecting--an engagement ring from her boyfriend--doesn't materialize, Gwen decides to go. At first, Gwen approaches the trip as if it's the math homework she assigns her students, diligently checking monuments off her must-see list. But amid the bougainvillea and stunning vistas of southern Italy, something changes. Gwen begins to live in the moment--skipping down stone staircases in Capri, running her fingers over a glacier in view of the Matterhorn, racing through the Louvre, and taste-testing pastries at a Marseilles cafe. Reveling in every new experience--especially her attraction to a charismatic British physics professor--Gwen discovers that the ancient wonders around her are nothing compared to the renaissance unfolding within. . . "A thinking woman's love story, it swept me away to breathtaking places with a cast of endearing characters I won't soon forget. Bravissima!" Susan McBride, author of "Little Black Dress" Praise for Marilyn Brant's According to Jane "A warm, witty and charmingly original story." --Susan Wiggs, "New York Times " bestselling author "Brant infuses her sweetly romantic and delightfully clever tale with just the right dash of Austen-esque wit." "Chicago Tribune" "An engaging read for all who have been through the long, dark, dating wars, and still believe there's sunshine, and a Mr. Darcy, at the end of the tunnel." --Cathy Lamb, author of "Such a Pretty Face"" ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cc1936a9f4e93477</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£44.34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/6c/e3/6ce3003931701c7a3fd5354917538ea9.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/a-summer-in-europe_458/index.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>First published more than thirty years ago, Paul Theroux's strange, unique, and hugely entertaining railway odyssey has become a modern classic of travel literature. Here Theroux recounts his early adventures on an unusual grand continental tour. Asia's fabled trains -- the Orient Express, the Khyber Pass Local, the Frontier Mail, the Golden Arrow to Kuala Lumpur, the Mand First published more than thirty years ago, Paul Theroux's strange, unique, and hugely entertaining railway odyssey has become a modern classic of travel literature. Here Theroux recounts his early adventures on an unusual grand continental tour. Asia's fabled trains -- the Orient Express, the Khyber Pass Local, the Frontier Mail, the Golden Arrow to Kuala Lumpur, the Mandalay Express, the Trans-Siberian Express -- are the stars of a journey that takes him on a loop eastbound from London's Victoria Station to Tokyo Central, then back from Japan on the Trans-Siberian. Brimming with Theroux's signature humor and wry observations, this engrossing chronicle is essential reading for both the ardent adventurer and the armchair traveler. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48736df57e7bec9f</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£30.54</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/d5/82/d582f6b0261c2842330e893962276295.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/the-great-railway-bazaar_446/index.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The hilarious and loving sequel to a hilarious and loving classic of travel writing: Notes from a Small Island, Bill Bryson’s valentine to his adopted country of EnglandIn 1995 Bill Bryson got into his car and took a weeks-long farewell motoring trip about England before moving his family back to the United States. The book about that trip, Notes from a Small Island, is up The hilarious and loving sequel to a hilarious and loving classic of travel writing: Notes from a Small Island, Bill Bryson’s valentine to his adopted country of EnglandIn 1995 Bill Bryson got into his car and took a weeks-long farewell motoring trip about England before moving his family back to the United States. The book about that trip, Notes from a Small Island, is uproarious and endlessly endearing, one of the most acute and affectionate portrayals of England in all its glorious eccentricity ever written. Two decades later, he set out again to rediscover that country, and the result is The Road to Little Dribbling. Nothing is funnier than Bill Bryson on the road—prepare for the total joy and multiple episodes of unseemly laughter. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>366a236aa1ea6f07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£23.21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/26/f5/26f5d20239a45046e756c6d09611b3ea.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/the-road-to-little-dribbling-adventures-of-an-american-in-britain-notes-from-a-small-island-2_277/index.html</x:t>
   </x:si>
   <x:si>
     <x:t>Around the World, continent by continent, here is the best the world has to offer: 1,000 places guaranteed to give travelers the shivers. Sacred ruins, grand hotels, wildlife preserves, hilltop villages, snack shacks, castles, festivals, reefs, restaurants, cathedrals, hidden islands, opera houses, museums, and more. Each entry tells exactly why it's essential to visit. Th Around the World, continent by continent, here is the best the world has to offer: 1,000 places guaranteed to give travelers the shivers. Sacred ruins, grand hotels, wildlife preserves, hilltop villages, snack shacks, castles, festivals, reefs, restaurants, cathedrals, hidden islands, opera houses, museums, and more. Each entry tells exactly why it's essential to visit. Then come the nuts and bolts: addresses, websites, phone and fax numbers, best times to visit. Stop dreaming and get going.This hefty volume reminds vacationers that hot tourist spots are small percentage of what's worth seeing out there. A quick sampling: Venice's Cipriani Hotel; California's Monterey Peninsula; the Lewis and Clark Trail in Oregon; the Great Wall of China; Robert Louis Stevenson's home in Western Samoa; and the Alhambra in Andalusia, Spain. Veteran travel guide writer Schultz divides the book geographically, presenting a little less than a page on each location. Each entry lists exactly where to find the spot (e.g. Moorea is located "12 miles/19 km northwest of Tahiti; 10 minutes by air, 1 hour by boat") and when to go (e.g., if you want to check out The Complete Fly Fisher hotel in Montana, "May and Sept.-Oct. offer productive angling in a solitary setting"). This is an excellent resource for the intrepid traveler.Copyright 2003 Reed Business Information, Inc. ...more</x:t>
@@ -913,7 +913,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H9" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s">
         <x:v>18</x:v>

--- a/page-data-excel/books/books.xlsx
+++ b/page-data-excel/books/books.xlsx
@@ -49,52 +49,70 @@
     <x:t>url</x:t>
   </x:si>
   <x:si>
+    <x:t>“Wherever you go, whatever you do, just . . . don’t do anything stupid.” —My MotherDuring her yearlong adventure backpacking from South Africa to Singapore, S. Bedford definitely did a few things her mother might classify as "stupid." She swam with great white sharks in South Africa, ran from lions in Zimbabwe, climbed a Himalayan mountain without training in Nepal, and wa “Wherever you go, whatever you do, just . . . don’t do anything stupid.” —My MotherDuring her yearlong adventure backpacking from South Africa to Singapore, S. Bedford definitely did a few things her mother might classify as "stupid." She swam with great white sharks in South Africa, ran from lions in Zimbabwe, climbed a Himalayan mountain without training in Nepal, and watched as her friend was attacked by a monkey in Indonesia.But interspersed in those slightly more crazy moments, Sue Bedfored and her friend "Sara the Stoic" experienced the sights, sounds, life, and culture of fifteen countries. Joined along the way by a few friends and their aging fathers here and there, Sue and Sara experience the trip of a lifetime. They fall in love with the world, cultivate an appreciation for home, and discover who, or what, they want to become.It's Only the Himalayas is the incredibly funny, sometimes outlandish, always entertaining confession of a young backpacker that will inspire you to take your own adventure. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Travel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a22124811bfa8350</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Books</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£45.17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£0.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (19 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/6d/41/6d418a73cc7d4ecfd75ca11d854041db.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/its-only-the-himalayas_981/index.html</x:t>
+  </x:si>
+  <x:si>
     <x:t>To coincide with the 2016 centennial anniversary of the National Parks Service, the Creative Action Network has partnered with the National Parks Conservation Association to revive and reimagine the legacy of WPA travel posters. Artists from all over the world have participated in the creation of this new, crowdsourced collection of See America posters for a modern era. Fe To coincide with the 2016 centennial anniversary of the National Parks Service, the Creative Action Network has partnered with the National Parks Conservation Association to revive and reimagine the legacy of WPA travel posters. Artists from all over the world have participated in the creation of this new, crowdsourced collection of See America posters for a modern era. Featuring artwork for 75 national parks and monuments across all 50 states, this engaging keepsake volume celebrates the full range of our nation's landmarks and treasured wilderness. ...more</x:t>
   </x:si>
   <x:si>
-    <x:t>Travel</x:t>
-  </x:si>
-  <x:si>
     <x:t>f9705c362f070608</x:t>
   </x:si>
   <x:si>
-    <x:t>Books</x:t>
-  </x:si>
-  <x:si>
     <x:t>£48.87</x:t>
   </x:si>
   <x:si>
-    <x:t>£0.00</x:t>
-  </x:si>
-  <x:si>
     <x:t>In stock (14 available)</x:t>
   </x:si>
   <x:si>
-    <x:t>0</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://books.toscrape.com/media/cache/c7/1a/c71a85dbf8c2dbc75cb271026618477c.jpg</x:t>
   </x:si>
   <x:si>
     <x:t>https://books.toscrape.com/catalogue/see-america-a-celebration-of-our-national-parks-treasured-sites_732/index.html</x:t>
   </x:si>
   <x:si>
-    <x:t>“Wherever you go, whatever you do, just . . . don’t do anything stupid.” —My MotherDuring her yearlong adventure backpacking from South Africa to Singapore, S. Bedford definitely did a few things her mother might classify as "stupid." She swam with great white sharks in South Africa, ran from lions in Zimbabwe, climbed a Himalayan mountain without training in Nepal, and wa “Wherever you go, whatever you do, just . . . don’t do anything stupid.” —My MotherDuring her yearlong adventure backpacking from South Africa to Singapore, S. Bedford definitely did a few things her mother might classify as "stupid." She swam with great white sharks in South Africa, ran from lions in Zimbabwe, climbed a Himalayan mountain without training in Nepal, and watched as her friend was attacked by a monkey in Indonesia.But interspersed in those slightly more crazy moments, Sue Bedfored and her friend "Sara the Stoic" experienced the sights, sounds, life, and culture of fifteen countries. Joined along the way by a few friends and their aging fathers here and there, Sue and Sara experience the trip of a lifetime. They fall in love with the world, cultivate an appreciation for home, and discover who, or what, they want to become.It's Only the Himalayas is the incredibly funny, sometimes outlandish, always entertaining confession of a young backpacker that will inspire you to take your own adventure. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>a22124811bfa8350</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£45.17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In stock (19 available)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/6d/41/6d418a73cc7d4ecfd75ca11d854041db.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/its-only-the-himalayas_981/index.html</x:t>
+    <x:t>A CLASSIC FROM THE BESTSELLING AUTHOR OF UNDER MAGNOLIAFrances Mayes—widely published poet, gourmet cook, and travel writer—opens the door to a wondrous new world when she buys and restores an abandoned villa in the spectacular Tuscan countryside. In evocative language, she brings the reader along as she discovers the beauty and simplicity of life in Italy. Mayes also crea A CLASSIC FROM THE BESTSELLING AUTHOR OF UNDER MAGNOLIAFrances Mayes—widely published poet, gourmet cook, and travel writer—opens the door to a wondrous new world when she buys and restores an abandoned villa in the spectacular Tuscan countryside. In evocative language, she brings the reader along as she discovers the beauty and simplicity of life in Italy. Mayes also creates dozens of delicious seasonal recipes from her traditional kitchen and simple garden, all of which she includes in the book. Doing for Tuscany what M.F.K. Fisher and Peter Mayle did for Provence, Mayes writes about the tastes and pleasures of a foreign country with gusto and passion. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a94350ee74deaa07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£37.33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (7 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/45/21/4521c581ba727f5c835e34860cbf53e5.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/under-the-tuscan-sun_504/index.html</x:t>
   </x:si>
   <x:si>
     <x:t>Acclaimed travel writer Rick Antonson sets his adventurous compass on Mount Ararat, exploring the region’s long history, religious mysteries, and complex politics.Mount Ararat is the most fabled mountain in the world. For millennia this massif in eastern Turkey has been rumored as the resting place of Noah’s Ark following the Great Flood. But it also plays a significant ro Acclaimed travel writer Rick Antonson sets his adventurous compass on Mount Ararat, exploring the region’s long history, religious mysteries, and complex politics.Mount Ararat is the most fabled mountain in the world. For millennia this massif in eastern Turkey has been rumored as the resting place of Noah’s Ark following the Great Flood. But it also plays a significant role in the longstanding conflict between Turkey and Armenia.Author Rick Antonson joined a five-member expedition to the mountain’s nearly 17,000-foot summit, trekking alongside a contingent of Armenians, for whom Mount Ararat is the stolen symbol of their country. Antonson weaves vivid historical anecdote with unexpected travel vignettes, whether tracing earlier mountaineering attempts on the peak, recounting the genocide of Armenians and its unresolved debate, or depicting the Kurds’ ambitions for their own nation’s borders, which some say should include Mount Ararat.What unfolds in Full Moon Over Noah’s Ark is one man’s odyssey, a tale told through many stories. Starting with the flooding of the Black Sea in 5600 BCE, through to the Epic of Gilgamesh and the contrasting narratives of the Great Flood known to followers of the Judaic, Christian and Islamic religions, Full Moon Over Noah’s Ark takes readers along with Antonson through the shadows and broad landscapes of Turkey, Iraq, Iran and Armenia, shedding light on a troubled but fascinating area of the world. ...more</x:t>
@@ -115,6 +133,75 @@
     <x:t>https://books.toscrape.com/catalogue/full-moon-over-noahs-ark-an-odyssey-to-mount-ararat-and-beyond_811/index.html</x:t>
   </x:si>
   <x:si>
+    <x:t>With a new foreword by Tim Ferriss •There’s nothing like vagabonding: taking time off from your normal life—from six weeks to four months to two years—to discover and experience the world on your own terms. In this one-of-a-kind handbook, veteran travel writer Rolf Potts explains how anyone armed with an independent spirit can achieve the dream of extended overseas travel. With a new foreword by Tim Ferriss •&amp;nbsp;There’s nothing like vagabonding: taking time off from your normal life—from six weeks to four months to two years—to discover and experience the world on your own terms. In this one-of-a-kind handbook, veteran travel writer Rolf Potts explains how anyone armed with an independent spirit can achieve the dream of extended overseas travel. Now completely revised and updated, Vagabonding is an accessible and inspiring guide to &amp;nbsp; • financing your travel time • determining your destination • adjusting to life on the road • working and volunteering overseas •&amp;nbsp;handling travel adversity • re-assimilating back into ordinary life &amp;nbsp;Praise for Vagabonding&amp;nbsp; “A crucial reference for any budget wanderer.”—Time&amp;nbsp; “Vagabonding easily remains in my top-10 list of life-changing books. Why? Because one incredible trip, especially a long-term trip, can change your life forever. And Vagabonding teaches you how to travel (and think), not just for one trip, but for the rest of your life.”—Tim Ferriss, from the foreword &amp;nbsp; “The book is a meditation on the joys of hitting the road. . . . It’s also a primer for those with a case of pent-up wanderlust seeking to live the dream.”—USA Today &amp;nbsp; “I couldn’t put this book down. It’s a whole different ethic of travel. . . . [Potts’s] practical advice might just convince you to enjoy that open-ended trip of a lifetime.”—Rick Steves &amp;nbsp; “Potts wants us to wander, to explore, to embrace the unknown, and, finally, to take our own damn time about it. I think this is the most sensible book of travel-related advice ever written.”—Tim Cahill, founding editor of Outside ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1809259a5a5f1d8d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£36.94</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (8 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/ca/30/ca30b1afe1e76ce7ba1db8176d398e53.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/vagabonding-an-uncommon-guide-to-the-art-of-long-term-world-travel_552/index.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>National BestsellerIn this witty and warm-hearted account, Peter Mayle tells what it is like to realize a long-cherished dream and actually move into a 200-year-old stone farmhouse in the remote country of the Lubéron with his wife and two large dogs. He endures January's frosty mistral as it comes howling down the Rhône Valley, discovers the secrets of goat racing through National Bestseller&amp;nbsp;In this witty and warm-hearted account, Peter Mayle tells what it is like to realize a long-cherished dream and actually move into a 200-year-old stone farmhouse in the remote country of the Lubéron with his wife and two large dogs. He endures January's frosty mistral as it comes howling down the Rhône Valley, discovers the secrets of goat racing through the middle of town, and delights in the glorious regional cuisine. A Year in Provence transports us into all the earthy pleasures of Provençal life and lets us live vicariously at a tempo governed by seasons, not by days. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9e60929f521fa280</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£56.88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (6 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/8b/81/8b81cd9b2c8f89a12099a80bed1c4911.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/a-year-in-provence-provence-1_421/index.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>First published more than thirty years ago, Paul Theroux's strange, unique, and hugely entertaining railway odyssey has become a modern classic of travel literature. Here Theroux recounts his early adventures on an unusual grand continental tour. Asia's fabled trains -- the Orient Express, the Khyber Pass Local, the Frontier Mail, the Golden Arrow to Kuala Lumpur, the Mand First published more than thirty years ago, Paul Theroux's strange, unique, and hugely entertaining railway odyssey has become a modern classic of travel literature. Here Theroux recounts his early adventures on an unusual grand continental tour. Asia's fabled trains -- the Orient Express, the Khyber Pass Local, the Frontier Mail, the Golden Arrow to Kuala Lumpur, the Mandalay Express, the Trans-Siberian Express -- are the stars of a journey that takes him on a loop eastbound from London's Victoria Station to Tokyo Central, then back from Japan on the Trans-Siberian. Brimming with Theroux's signature humor and wry observations, this engrossing chronicle is essential reading for both the ardent adventurer and the armchair traveler. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48736df57e7bec9f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£30.54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/d5/82/d582f6b0261c2842330e893962276295.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/the-great-railway-bazaar_446/index.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bill Bryson's first travel book, The Lost Continent, was unanimously acclaimed as one of the funniest books in years. In Neither Here nor There he brings his unique brand of humour to bear on Europe as he shoulders his backpack, keeps a tight hold on his wallet, and journeys from Hammerfest, the northernmost town on the continent, to Istanbul on the cusp of Asia. Fluent in Bill Bryson's first travel book, The Lost Continent, was unanimously acclaimed as one of the funniest books in years. In Neither Here nor There he brings his unique brand of humour to bear on Europe as he shoulders his backpack, keeps a tight hold on his wallet, and journeys from Hammerfest, the northernmost town on the continent, to Istanbul on the cusp of Asia. Fluent in, oh, at least one language, he retraces his travels as a student twenty years before.Whether braving the homicidal motorist of Paris, being robbed by gypsies in Florence, attempting not to order tripe and eyeballs in a German restaurant, window-shopping in the sex shops of the Reeperbahn or disputing his hotel bill in Copenhagen, Bryson takes in the sights, dissects the culture and illuminates each place and person with his hilariously caustic observations. He even goes to Liechtenstein. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>747cf7fca2ccdbd4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£38.95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (3 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/c9/9a/c99a7a05537cd842eb4db83d537e3a4d.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/neither-here-nor-there-travels-in-europe_198/index.html</x:t>
+  </x:si>
+  <x:si>
     <x:t>On her thirtieth birthday, Gwendolyn Reese receives an unexpected present from her widowed Aunt Bea: a grand tour of Europe in the company of Bea's Sudoku and Mahjongg Club. The prospect isn't entirely appealing. But when the gift she is expecting--an engagement ring from her boyfriend--doesn't materialize, Gwen decides to go. At first, Gwen approaches the trip as if it's On her thirtieth birthday, Gwendolyn Reese receives an unexpected present from her widowed Aunt Bea: a grand tour of Europe in the company of Bea's Sudoku and Mahjongg Club. The prospect isn't entirely appealing. But when the gift she is expecting--an engagement ring from her boyfriend--doesn't materialize, Gwen decides to go. At first, Gwen approaches the trip as if it's the math homework she assigns her students, diligently checking monuments off her must-see list. But amid the bougainvillea and stunning vistas of southern Italy, something changes. Gwen begins to live in the moment--skipping down stone staircases in Capri, running her fingers over a glacier in view of the Matterhorn, racing through the Louvre, and taste-testing pastries at a Marseilles cafe. Reveling in every new experience--especially her attraction to a charismatic British physics professor--Gwen discovers that the ancient wonders around her are nothing compared to the renaissance unfolding within. . . "A thinking woman's love story, it swept me away to breathtaking places with a cast of endearing characters I won't soon forget. Bravissima!" Susan McBride, author of "Little Black Dress" Praise for Marilyn Brant's According to Jane "A warm, witty and charmingly original story." --Susan Wiggs, "New York Times " bestselling author "Brant infuses her sweetly romantic and delightfully clever tale with just the right dash of Austen-esque wit." "Chicago Tribune" "An engaging read for all who have been through the long, dark, dating wars, and still believe there's sunshine, and a Mr. Darcy, at the end of the tunnel." --Cathy Lamb, author of "Such a Pretty Face"" ...more</x:t>
   </x:si>
   <x:si>
@@ -124,51 +211,12 @@
     <x:t>£44.34</x:t>
   </x:si>
   <x:si>
-    <x:t>In stock (7 available)</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://books.toscrape.com/media/cache/6c/e3/6ce3003931701c7a3fd5354917538ea9.jpg</x:t>
   </x:si>
   <x:si>
     <x:t>https://books.toscrape.com/catalogue/a-summer-in-europe_458/index.html</x:t>
   </x:si>
   <x:si>
-    <x:t>With a new foreword by Tim Ferriss •There’s nothing like vagabonding: taking time off from your normal life—from six weeks to four months to two years—to discover and experience the world on your own terms. In this one-of-a-kind handbook, veteran travel writer Rolf Potts explains how anyone armed with an independent spirit can achieve the dream of extended overseas travel. With a new foreword by Tim Ferriss •&amp;nbsp;There’s nothing like vagabonding: taking time off from your normal life—from six weeks to four months to two years—to discover and experience the world on your own terms. In this one-of-a-kind handbook, veteran travel writer Rolf Potts explains how anyone armed with an independent spirit can achieve the dream of extended overseas travel. Now completely revised and updated, Vagabonding is an accessible and inspiring guide to &amp;nbsp; • financing your travel time • determining your destination • adjusting to life on the road • working and volunteering overseas •&amp;nbsp;handling travel adversity • re-assimilating back into ordinary life &amp;nbsp;Praise for Vagabonding&amp;nbsp; “A crucial reference for any budget wanderer.”—Time&amp;nbsp; “Vagabonding easily remains in my top-10 list of life-changing books. Why? Because one incredible trip, especially a long-term trip, can change your life forever. And Vagabonding teaches you how to travel (and think), not just for one trip, but for the rest of your life.”—Tim Ferriss, from the foreword &amp;nbsp; “The book is a meditation on the joys of hitting the road. . . . It’s also a primer for those with a case of pent-up wanderlust seeking to live the dream.”—USA Today &amp;nbsp; “I couldn’t put this book down. It’s a whole different ethic of travel. . . . [Potts’s] practical advice might just convince you to enjoy that open-ended trip of a lifetime.”—Rick Steves &amp;nbsp; “Potts wants us to wander, to explore, to embrace the unknown, and, finally, to take our own damn time about it. I think this is the most sensible book of travel-related advice ever written.”—Tim Cahill, founding editor of Outside ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1809259a5a5f1d8d</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£36.94</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In stock (8 available)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/ca/30/ca30b1afe1e76ce7ba1db8176d398e53.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/vagabonding-an-uncommon-guide-to-the-art-of-long-term-world-travel_552/index.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>First published more than thirty years ago, Paul Theroux's strange, unique, and hugely entertaining railway odyssey has become a modern classic of travel literature. Here Theroux recounts his early adventures on an unusual grand continental tour. Asia's fabled trains -- the Orient Express, the Khyber Pass Local, the Frontier Mail, the Golden Arrow to Kuala Lumpur, the Mand First published more than thirty years ago, Paul Theroux's strange, unique, and hugely entertaining railway odyssey has become a modern classic of travel literature. Here Theroux recounts his early adventures on an unusual grand continental tour. Asia's fabled trains -- the Orient Express, the Khyber Pass Local, the Frontier Mail, the Golden Arrow to Kuala Lumpur, the Mandalay Express, the Trans-Siberian Express -- are the stars of a journey that takes him on a loop eastbound from London's Victoria Station to Tokyo Central, then back from Japan on the Trans-Siberian. Brimming with Theroux's signature humor and wry observations, this engrossing chronicle is essential reading for both the ardent adventurer and the armchair traveler. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48736df57e7bec9f</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£30.54</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In stock (6 available)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/d5/82/d582f6b0261c2842330e893962276295.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/the-great-railway-bazaar_446/index.html</x:t>
-  </x:si>
-  <x:si>
     <x:t>The hilarious and loving sequel to a hilarious and loving classic of travel writing: Notes from a Small Island, Bill Bryson’s valentine to his adopted country of EnglandIn 1995 Bill Bryson got into his car and took a weeks-long farewell motoring trip about England before moving his family back to the United States. The book about that trip, Notes from a Small Island, is up The hilarious and loving sequel to a hilarious and loving classic of travel writing: Notes from a Small Island, Bill Bryson’s valentine to his adopted country of EnglandIn 1995 Bill Bryson got into his car and took a weeks-long farewell motoring trip about England before moving his family back to the United States. The book about that trip, Notes from a Small Island, is uproarious and endlessly endearing, one of the most acute and affectionate portrayals of England in all its glorious eccentricity ever written. Two decades later, he set out again to rediscover that country, and the result is The Road to Little Dribbling. Nothing is funnier than Bill Bryson on the road—prepare for the total joy and multiple episodes of unseemly laughter. ...more</x:t>
   </x:si>
   <x:si>
@@ -178,58 +226,10 @@
     <x:t>£23.21</x:t>
   </x:si>
   <x:si>
-    <x:t>In stock (3 available)</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://books.toscrape.com/media/cache/26/f5/26f5d20239a45046e756c6d09611b3ea.jpg</x:t>
   </x:si>
   <x:si>
     <x:t>https://books.toscrape.com/catalogue/the-road-to-little-dribbling-adventures-of-an-american-in-britain-notes-from-a-small-island-2_277/index.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A CLASSIC FROM THE BESTSELLING AUTHOR OF UNDER MAGNOLIAFrances Mayes—widely published poet, gourmet cook, and travel writer—opens the door to a wondrous new world when she buys and restores an abandoned villa in the spectacular Tuscan countryside. In evocative language, she brings the reader along as she discovers the beauty and simplicity of life in Italy. Mayes also crea A CLASSIC FROM THE BESTSELLING AUTHOR OF UNDER MAGNOLIAFrances Mayes—widely published poet, gourmet cook, and travel writer—opens the door to a wondrous new world when she buys and restores an abandoned villa in the spectacular Tuscan countryside. In evocative language, she brings the reader along as she discovers the beauty and simplicity of life in Italy. Mayes also creates dozens of delicious seasonal recipes from her traditional kitchen and simple garden, all of which she includes in the book. Doing for Tuscany what M.F.K. Fisher and Peter Mayle did for Provence, Mayes writes about the tastes and pleasures of a foreign country with gusto and passion. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>a94350ee74deaa07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£37.33</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/45/21/4521c581ba727f5c835e34860cbf53e5.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/under-the-tuscan-sun_504/index.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>National BestsellerIn this witty and warm-hearted account, Peter Mayle tells what it is like to realize a long-cherished dream and actually move into a 200-year-old stone farmhouse in the remote country of the Lubéron with his wife and two large dogs. He endures January's frosty mistral as it comes howling down the Rhône Valley, discovers the secrets of goat racing through National Bestseller&amp;nbsp;In this witty and warm-hearted account, Peter Mayle tells what it is like to realize a long-cherished dream and actually move into a 200-year-old stone farmhouse in the remote country of the Lubéron with his wife and two large dogs. He endures January's frosty mistral as it comes howling down the Rhône Valley, discovers the secrets of goat racing through the middle of town, and delights in the glorious regional cuisine. A Year in Provence transports us into all the earthy pleasures of Provençal life and lets us live vicariously at a tempo governed by seasons, not by days. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9e60929f521fa280</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£56.88</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/8b/81/8b81cd9b2c8f89a12099a80bed1c4911.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/a-year-in-provence-provence-1_421/index.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bill Bryson's first travel book, The Lost Continent, was unanimously acclaimed as one of the funniest books in years. In Neither Here nor There he brings his unique brand of humour to bear on Europe as he shoulders his backpack, keeps a tight hold on his wallet, and journeys from Hammerfest, the northernmost town on the continent, to Istanbul on the cusp of Asia. Fluent in Bill Bryson's first travel book, The Lost Continent, was unanimously acclaimed as one of the funniest books in years. In Neither Here nor There he brings his unique brand of humour to bear on Europe as he shoulders his backpack, keeps a tight hold on his wallet, and journeys from Hammerfest, the northernmost town on the continent, to Istanbul on the cusp of Asia. Fluent in, oh, at least one language, he retraces his travels as a student twenty years before.Whether braving the homicidal motorist of Paris, being robbed by gypsies in Florence, attempting not to order tripe and eyeballs in a German restaurant, window-shopping in the sex shops of the Reeperbahn or disputing his hotel bill in Copenhagen, Bryson takes in the sights, dissects the culture and illuminates each place and person with his hilariously caustic observations. He even goes to Liechtenstein. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>747cf7fca2ccdbd4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£38.95</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/c9/9a/c99a7a05537cd842eb4db83d537e3a4d.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/neither-here-nor-there-travels-in-europe_198/index.html</x:t>
   </x:si>
   <x:si>
     <x:t>Around the World, continent by continent, here is the best the world has to offer: 1,000 places guaranteed to give travelers the shivers. Sacred ruins, grand hotels, wildlife preserves, hilltop villages, snack shacks, castles, festivals, reefs, restaurants, cathedrals, hidden islands, opera houses, museums, and more. Each entry tells exactly why it's essential to visit. Th Around the World, continent by continent, here is the best the world has to offer: 1,000 places guaranteed to give travelers the shivers. Sacred ruins, grand hotels, wildlife preserves, hilltop villages, snack shacks, castles, festivals, reefs, restaurants, cathedrals, hidden islands, opera houses, museums, and more. Each entry tells exactly why it's essential to visit. Then come the nuts and bolts: addresses, websites, phone and fax numbers, best times to visit. Stop dreaming and get going.This hefty volume reminds vacationers that hot tourist spots are small percentage of what's worth seeing out there. A quick sampling: Venice's Cipriani Hotel; California's Monterey Peninsula; the Lewis and Clark Trail in Oregon; the Great Wall of China; Robert Louis Stevenson's home in Western Samoa; and the Alhambra in Andalusia, Spain. Veteran travel guide writer Schultz divides the book geographically, presenting a little less than a page on each location. Each entry lists exactly where to find the spot (e.g. Moorea is located "12 miles/19 km northwest of Tahiti; 10 minutes by air, 1 hour by boat") and when to go (e.g., if you want to check out The Complete Fly Fisher hotel in Montana, "May and Sept.-Oct. offer productive angling in a solitary setting"). This is an excellent resource for the intrepid traveler.Copyright 2003 Reed Business Information, Inc. ...more</x:t>
@@ -878,42 +878,42 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="J8" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="K8" s="0" t="s">
         <x:v>55</x:v>
-      </x:c>
-      <x:c r="K8" s="0" t="s">
-        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:11">
       <x:c r="A9" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="H9" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s">
         <x:v>18</x:v>
@@ -948,7 +948,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s">
         <x:v>18</x:v>
@@ -983,7 +983,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s">
         <x:v>18</x:v>

--- a/page-data-excel/books/books.xlsx
+++ b/page-data-excel/books/books.xlsx
@@ -97,6 +97,24 @@
     <x:t>https://books.toscrape.com/catalogue/see-america-a-celebration-of-our-national-parks-treasured-sites_732/index.html</x:t>
   </x:si>
   <x:si>
+    <x:t>Acclaimed travel writer Rick Antonson sets his adventurous compass on Mount Ararat, exploring the region’s long history, religious mysteries, and complex politics.Mount Ararat is the most fabled mountain in the world. For millennia this massif in eastern Turkey has been rumored as the resting place of Noah’s Ark following the Great Flood. But it also plays a significant ro Acclaimed travel writer Rick Antonson sets his adventurous compass on Mount Ararat, exploring the region’s long history, religious mysteries, and complex politics.Mount Ararat is the most fabled mountain in the world. For millennia this massif in eastern Turkey has been rumored as the resting place of Noah’s Ark following the Great Flood. But it also plays a significant role in the longstanding conflict between Turkey and Armenia.Author Rick Antonson joined a five-member expedition to the mountain’s nearly 17,000-foot summit, trekking alongside a contingent of Armenians, for whom Mount Ararat is the stolen symbol of their country. Antonson weaves vivid historical anecdote with unexpected travel vignettes, whether tracing earlier mountaineering attempts on the peak, recounting the genocide of Armenians and its unresolved debate, or depicting the Kurds’ ambitions for their own nation’s borders, which some say should include Mount Ararat.What unfolds in Full Moon Over Noah’s Ark is one man’s odyssey, a tale told through many stories. Starting with the flooding of the Black Sea in 5600 BCE, through to the Epic of Gilgamesh and the contrasting narratives of the Great Flood known to followers of the Judaic, Christian and Islamic religions, Full Moon Over Noah’s Ark takes readers along with Antonson through the shadows and broad landscapes of Turkey, Iraq, Iran and Armenia, shedding light on a troubled but fascinating area of the world. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ce60436f52c5ee68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£49.43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (15 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/fe/8a/fe8af6ceec7718986380c0fde9b3b34f.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/full-moon-over-noahs-ark-an-odyssey-to-mount-ararat-and-beyond_811/index.html</x:t>
+  </x:si>
+  <x:si>
     <x:t>A CLASSIC FROM THE BESTSELLING AUTHOR OF UNDER MAGNOLIAFrances Mayes—widely published poet, gourmet cook, and travel writer—opens the door to a wondrous new world when she buys and restores an abandoned villa in the spectacular Tuscan countryside. In evocative language, she brings the reader along as she discovers the beauty and simplicity of life in Italy. Mayes also crea A CLASSIC FROM THE BESTSELLING AUTHOR OF UNDER MAGNOLIAFrances Mayes—widely published poet, gourmet cook, and travel writer—opens the door to a wondrous new world when she buys and restores an abandoned villa in the spectacular Tuscan countryside. In evocative language, she brings the reader along as she discovers the beauty and simplicity of life in Italy. Mayes also creates dozens of delicious seasonal recipes from her traditional kitchen and simple garden, all of which she includes in the book. Doing for Tuscany what M.F.K. Fisher and Peter Mayle did for Provence, Mayes writes about the tastes and pleasures of a foreign country with gusto and passion. ...more</x:t>
   </x:si>
   <x:si>
@@ -115,22 +133,22 @@
     <x:t>https://books.toscrape.com/catalogue/under-the-tuscan-sun_504/index.html</x:t>
   </x:si>
   <x:si>
-    <x:t>Acclaimed travel writer Rick Antonson sets his adventurous compass on Mount Ararat, exploring the region’s long history, religious mysteries, and complex politics.Mount Ararat is the most fabled mountain in the world. For millennia this massif in eastern Turkey has been rumored as the resting place of Noah’s Ark following the Great Flood. But it also plays a significant ro Acclaimed travel writer Rick Antonson sets his adventurous compass on Mount Ararat, exploring the region’s long history, religious mysteries, and complex politics.Mount Ararat is the most fabled mountain in the world. For millennia this massif in eastern Turkey has been rumored as the resting place of Noah’s Ark following the Great Flood. But it also plays a significant role in the longstanding conflict between Turkey and Armenia.Author Rick Antonson joined a five-member expedition to the mountain’s nearly 17,000-foot summit, trekking alongside a contingent of Armenians, for whom Mount Ararat is the stolen symbol of their country. Antonson weaves vivid historical anecdote with unexpected travel vignettes, whether tracing earlier mountaineering attempts on the peak, recounting the genocide of Armenians and its unresolved debate, or depicting the Kurds’ ambitions for their own nation’s borders, which some say should include Mount Ararat.What unfolds in Full Moon Over Noah’s Ark is one man’s odyssey, a tale told through many stories. Starting with the flooding of the Black Sea in 5600 BCE, through to the Epic of Gilgamesh and the contrasting narratives of the Great Flood known to followers of the Judaic, Christian and Islamic religions, Full Moon Over Noah’s Ark takes readers along with Antonson through the shadows and broad landscapes of Turkey, Iraq, Iran and Armenia, shedding light on a troubled but fascinating area of the world. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ce60436f52c5ee68</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£49.43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In stock (15 available)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/fe/8a/fe8af6ceec7718986380c0fde9b3b34f.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/full-moon-over-noahs-ark-an-odyssey-to-mount-ararat-and-beyond_811/index.html</x:t>
+    <x:t>National BestsellerIn this witty and warm-hearted account, Peter Mayle tells what it is like to realize a long-cherished dream and actually move into a 200-year-old stone farmhouse in the remote country of the Lubéron with his wife and two large dogs. He endures January's frosty mistral as it comes howling down the Rhône Valley, discovers the secrets of goat racing through National Bestseller&amp;nbsp;In this witty and warm-hearted account, Peter Mayle tells what it is like to realize a long-cherished dream and actually move into a 200-year-old stone farmhouse in the remote country of the Lubéron with his wife and two large dogs. He endures January's frosty mistral as it comes howling down the Rhône Valley, discovers the secrets of goat racing through the middle of town, and delights in the glorious regional cuisine. A Year in Provence transports us into all the earthy pleasures of Provençal life and lets us live vicariously at a tempo governed by seasons, not by days. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9e60929f521fa280</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£56.88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (6 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/8b/81/8b81cd9b2c8f89a12099a80bed1c4911.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/a-year-in-provence-provence-1_421/index.html</x:t>
   </x:si>
   <x:si>
     <x:t>With a new foreword by Tim Ferriss •There’s nothing like vagabonding: taking time off from your normal life—from six weeks to four months to two years—to discover and experience the world on your own terms. In this one-of-a-kind handbook, veteran travel writer Rolf Potts explains how anyone armed with an independent spirit can achieve the dream of extended overseas travel. With a new foreword by Tim Ferriss •&amp;nbsp;There’s nothing like vagabonding: taking time off from your normal life—from six weeks to four months to two years—to discover and experience the world on your own terms. In this one-of-a-kind handbook, veteran travel writer Rolf Potts explains how anyone armed with an independent spirit can achieve the dream of extended overseas travel. Now completely revised and updated, Vagabonding is an accessible and inspiring guide to &amp;nbsp; • financing your travel time • determining your destination • adjusting to life on the road • working and volunteering overseas •&amp;nbsp;handling travel adversity • re-assimilating back into ordinary life &amp;nbsp;Praise for Vagabonding&amp;nbsp; “A crucial reference for any budget wanderer.”—Time&amp;nbsp; “Vagabonding easily remains in my top-10 list of life-changing books. Why? Because one incredible trip, especially a long-term trip, can change your life forever. And Vagabonding teaches you how to travel (and think), not just for one trip, but for the rest of your life.”—Tim Ferriss, from the foreword &amp;nbsp; “The book is a meditation on the joys of hitting the road. . . . It’s also a primer for those with a case of pent-up wanderlust seeking to live the dream.”—USA Today &amp;nbsp; “I couldn’t put this book down. It’s a whole different ethic of travel. . . . [Potts’s] practical advice might just convince you to enjoy that open-ended trip of a lifetime.”—Rick Steves &amp;nbsp; “Potts wants us to wander, to explore, to embrace the unknown, and, finally, to take our own damn time about it. I think this is the most sensible book of travel-related advice ever written.”—Tim Cahill, founding editor of Outside ...more</x:t>
@@ -151,22 +169,37 @@
     <x:t>https://books.toscrape.com/catalogue/vagabonding-an-uncommon-guide-to-the-art-of-long-term-world-travel_552/index.html</x:t>
   </x:si>
   <x:si>
-    <x:t>National BestsellerIn this witty and warm-hearted account, Peter Mayle tells what it is like to realize a long-cherished dream and actually move into a 200-year-old stone farmhouse in the remote country of the Lubéron with his wife and two large dogs. He endures January's frosty mistral as it comes howling down the Rhône Valley, discovers the secrets of goat racing through National Bestseller&amp;nbsp;In this witty and warm-hearted account, Peter Mayle tells what it is like to realize a long-cherished dream and actually move into a 200-year-old stone farmhouse in the remote country of the Lubéron with his wife and two large dogs. He endures January's frosty mistral as it comes howling down the Rhône Valley, discovers the secrets of goat racing through the middle of town, and delights in the glorious regional cuisine. A Year in Provence transports us into all the earthy pleasures of Provençal life and lets us live vicariously at a tempo governed by seasons, not by days. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9e60929f521fa280</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£56.88</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In stock (6 available)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/8b/81/8b81cd9b2c8f89a12099a80bed1c4911.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/a-year-in-provence-provence-1_421/index.html</x:t>
+    <x:t>On her thirtieth birthday, Gwendolyn Reese receives an unexpected present from her widowed Aunt Bea: a grand tour of Europe in the company of Bea's Sudoku and Mahjongg Club. The prospect isn't entirely appealing. But when the gift she is expecting--an engagement ring from her boyfriend--doesn't materialize, Gwen decides to go. At first, Gwen approaches the trip as if it's On her thirtieth birthday, Gwendolyn Reese receives an unexpected present from her widowed Aunt Bea: a grand tour of Europe in the company of Bea's Sudoku and Mahjongg Club. The prospect isn't entirely appealing. But when the gift she is expecting--an engagement ring from her boyfriend--doesn't materialize, Gwen decides to go. At first, Gwen approaches the trip as if it's the math homework she assigns her students, diligently checking monuments off her must-see list. But amid the bougainvillea and stunning vistas of southern Italy, something changes. Gwen begins to live in the moment--skipping down stone staircases in Capri, running her fingers over a glacier in view of the Matterhorn, racing through the Louvre, and taste-testing pastries at a Marseilles cafe. Reveling in every new experience--especially her attraction to a charismatic British physics professor--Gwen discovers that the ancient wonders around her are nothing compared to the renaissance unfolding within. . . "A thinking woman's love story, it swept me away to breathtaking places with a cast of endearing characters I won't soon forget. Bravissima!" Susan McBride, author of "Little Black Dress" Praise for Marilyn Brant's According to Jane "A warm, witty and charmingly original story." --Susan Wiggs, "New York Times " bestselling author "Brant infuses her sweetly romantic and delightfully clever tale with just the right dash of Austen-esque wit." "Chicago Tribune" "An engaging read for all who have been through the long, dark, dating wars, and still believe there's sunshine, and a Mr. Darcy, at the end of the tunnel." --Cathy Lamb, author of "Such a Pretty Face"" ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cc1936a9f4e93477</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£44.34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/6c/e3/6ce3003931701c7a3fd5354917538ea9.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/a-summer-in-europe_458/index.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The hilarious and loving sequel to a hilarious and loving classic of travel writing: Notes from a Small Island, Bill Bryson’s valentine to his adopted country of EnglandIn 1995 Bill Bryson got into his car and took a weeks-long farewell motoring trip about England before moving his family back to the United States. The book about that trip, Notes from a Small Island, is up The hilarious and loving sequel to a hilarious and loving classic of travel writing: Notes from a Small Island, Bill Bryson’s valentine to his adopted country of EnglandIn 1995 Bill Bryson got into his car and took a weeks-long farewell motoring trip about England before moving his family back to the United States. The book about that trip, Notes from a Small Island, is uproarious and endlessly endearing, one of the most acute and affectionate portrayals of England in all its glorious eccentricity ever written. Two decades later, he set out again to rediscover that country, and the result is The Road to Little Dribbling. Nothing is funnier than Bill Bryson on the road—prepare for the total joy and multiple episodes of unseemly laughter. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>366a236aa1ea6f07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£23.21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (3 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/26/f5/26f5d20239a45046e756c6d09611b3ea.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/the-road-to-little-dribbling-adventures-of-an-american-in-britain-notes-from-a-small-island-2_277/index.html</x:t>
   </x:si>
   <x:si>
     <x:t>First published more than thirty years ago, Paul Theroux's strange, unique, and hugely entertaining railway odyssey has become a modern classic of travel literature. Here Theroux recounts his early adventures on an unusual grand continental tour. Asia's fabled trains -- the Orient Express, the Khyber Pass Local, the Frontier Mail, the Golden Arrow to Kuala Lumpur, the Mand First published more than thirty years ago, Paul Theroux's strange, unique, and hugely entertaining railway odyssey has become a modern classic of travel literature. Here Theroux recounts his early adventures on an unusual grand continental tour. Asia's fabled trains -- the Orient Express, the Khyber Pass Local, the Frontier Mail, the Golden Arrow to Kuala Lumpur, the Mandalay Express, the Trans-Siberian Express -- are the stars of a journey that takes him on a loop eastbound from London's Victoria Station to Tokyo Central, then back from Japan on the Trans-Siberian. Brimming with Theroux's signature humor and wry observations, this engrossing chronicle is essential reading for both the ardent adventurer and the armchair traveler. ...more</x:t>
@@ -193,43 +226,10 @@
     <x:t>£38.95</x:t>
   </x:si>
   <x:si>
-    <x:t>In stock (3 available)</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://books.toscrape.com/media/cache/c9/9a/c99a7a05537cd842eb4db83d537e3a4d.jpg</x:t>
   </x:si>
   <x:si>
     <x:t>https://books.toscrape.com/catalogue/neither-here-nor-there-travels-in-europe_198/index.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>On her thirtieth birthday, Gwendolyn Reese receives an unexpected present from her widowed Aunt Bea: a grand tour of Europe in the company of Bea's Sudoku and Mahjongg Club. The prospect isn't entirely appealing. But when the gift she is expecting--an engagement ring from her boyfriend--doesn't materialize, Gwen decides to go. At first, Gwen approaches the trip as if it's On her thirtieth birthday, Gwendolyn Reese receives an unexpected present from her widowed Aunt Bea: a grand tour of Europe in the company of Bea's Sudoku and Mahjongg Club. The prospect isn't entirely appealing. But when the gift she is expecting--an engagement ring from her boyfriend--doesn't materialize, Gwen decides to go. At first, Gwen approaches the trip as if it's the math homework she assigns her students, diligently checking monuments off her must-see list. But amid the bougainvillea and stunning vistas of southern Italy, something changes. Gwen begins to live in the moment--skipping down stone staircases in Capri, running her fingers over a glacier in view of the Matterhorn, racing through the Louvre, and taste-testing pastries at a Marseilles cafe. Reveling in every new experience--especially her attraction to a charismatic British physics professor--Gwen discovers that the ancient wonders around her are nothing compared to the renaissance unfolding within. . . "A thinking woman's love story, it swept me away to breathtaking places with a cast of endearing characters I won't soon forget. Bravissima!" Susan McBride, author of "Little Black Dress" Praise for Marilyn Brant's According to Jane "A warm, witty and charmingly original story." --Susan Wiggs, "New York Times " bestselling author "Brant infuses her sweetly romantic and delightfully clever tale with just the right dash of Austen-esque wit." "Chicago Tribune" "An engaging read for all who have been through the long, dark, dating wars, and still believe there's sunshine, and a Mr. Darcy, at the end of the tunnel." --Cathy Lamb, author of "Such a Pretty Face"" ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cc1936a9f4e93477</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£44.34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/6c/e3/6ce3003931701c7a3fd5354917538ea9.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/a-summer-in-europe_458/index.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The hilarious and loving sequel to a hilarious and loving classic of travel writing: Notes from a Small Island, Bill Bryson’s valentine to his adopted country of EnglandIn 1995 Bill Bryson got into his car and took a weeks-long farewell motoring trip about England before moving his family back to the United States. The book about that trip, Notes from a Small Island, is up The hilarious and loving sequel to a hilarious and loving classic of travel writing: Notes from a Small Island, Bill Bryson’s valentine to his adopted country of EnglandIn 1995 Bill Bryson got into his car and took a weeks-long farewell motoring trip about England before moving his family back to the United States. The book about that trip, Notes from a Small Island, is uproarious and endlessly endearing, one of the most acute and affectionate portrayals of England in all its glorious eccentricity ever written. Two decades later, he set out again to rediscover that country, and the result is The Road to Little Dribbling. Nothing is funnier than Bill Bryson on the road—prepare for the total joy and multiple episodes of unseemly laughter. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>366a236aa1ea6f07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£23.21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/26/f5/26f5d20239a45046e756c6d09611b3ea.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/the-road-to-little-dribbling-adventures-of-an-american-in-britain-notes-from-a-small-island-2_277/index.html</x:t>
   </x:si>
   <x:si>
     <x:t>Around the World, continent by continent, here is the best the world has to offer: 1,000 places guaranteed to give travelers the shivers. Sacred ruins, grand hotels, wildlife preserves, hilltop villages, snack shacks, castles, festivals, reefs, restaurants, cathedrals, hidden islands, opera houses, museums, and more. Each entry tells exactly why it's essential to visit. Th Around the World, continent by continent, here is the best the world has to offer: 1,000 places guaranteed to give travelers the shivers. Sacred ruins, grand hotels, wildlife preserves, hilltop villages, snack shacks, castles, festivals, reefs, restaurants, cathedrals, hidden islands, opera houses, museums, and more. Each entry tells exactly why it's essential to visit. Then come the nuts and bolts: addresses, websites, phone and fax numbers, best times to visit. Stop dreaming and get going.This hefty volume reminds vacationers that hot tourist spots are small percentage of what's worth seeing out there. A quick sampling: Venice's Cipriani Hotel; California's Monterey Peninsula; the Lewis and Clark Trail in Oregon; the Great Wall of China; Robert Louis Stevenson's home in Western Samoa; and the Alhambra in Andalusia, Spain. Veteran travel guide writer Schultz divides the book geographically, presenting a little less than a page on each location. Each entry lists exactly where to find the spot (e.g. Moorea is located "12 miles/19 km northwest of Tahiti; 10 minutes by air, 1 hour by boat") and when to go (e.g., if you want to check out The Complete Fly Fisher hotel in Montana, "May and Sept.-Oct. offer productive angling in a solitary setting"). This is an excellent resource for the intrepid traveler.Copyright 2003 Reed Business Information, Inc. ...more</x:t>
@@ -878,7 +878,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s">
         <x:v>18</x:v>
@@ -948,7 +948,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s">
         <x:v>18</x:v>

--- a/page-data-excel/books/books.xlsx
+++ b/page-data-excel/books/books.xlsx
@@ -49,52 +49,70 @@
     <x:t>url</x:t>
   </x:si>
   <x:si>
+    <x:t>To coincide with the 2016 centennial anniversary of the National Parks Service, the Creative Action Network has partnered with the National Parks Conservation Association to revive and reimagine the legacy of WPA travel posters. Artists from all over the world have participated in the creation of this new, crowdsourced collection of See America posters for a modern era. Fe To coincide with the 2016 centennial anniversary of the National Parks Service, the Creative Action Network has partnered with the National Parks Conservation Association to revive and reimagine the legacy of WPA travel posters. Artists from all over the world have participated in the creation of this new, crowdsourced collection of See America posters for a modern era. Featuring artwork for 75 national parks and monuments across all 50 states, this engaging keepsake volume celebrates the full range of our nation's landmarks and treasured wilderness. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Travel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f9705c362f070608</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Books</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£48.87</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£0.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (14 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/c7/1a/c71a85dbf8c2dbc75cb271026618477c.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/see-america-a-celebration-of-our-national-parks-treasured-sites_732/index.html</x:t>
+  </x:si>
+  <x:si>
     <x:t>“Wherever you go, whatever you do, just . . . don’t do anything stupid.” —My MotherDuring her yearlong adventure backpacking from South Africa to Singapore, S. Bedford definitely did a few things her mother might classify as "stupid." She swam with great white sharks in South Africa, ran from lions in Zimbabwe, climbed a Himalayan mountain without training in Nepal, and wa “Wherever you go, whatever you do, just . . . don’t do anything stupid.” —My MotherDuring her yearlong adventure backpacking from South Africa to Singapore, S. Bedford definitely did a few things her mother might classify as "stupid." She swam with great white sharks in South Africa, ran from lions in Zimbabwe, climbed a Himalayan mountain without training in Nepal, and watched as her friend was attacked by a monkey in Indonesia.But interspersed in those slightly more crazy moments, Sue Bedfored and her friend "Sara the Stoic" experienced the sights, sounds, life, and culture of fifteen countries. Joined along the way by a few friends and their aging fathers here and there, Sue and Sara experience the trip of a lifetime. They fall in love with the world, cultivate an appreciation for home, and discover who, or what, they want to become.It's Only the Himalayas is the incredibly funny, sometimes outlandish, always entertaining confession of a young backpacker that will inspire you to take your own adventure. ...more</x:t>
   </x:si>
   <x:si>
-    <x:t>Travel</x:t>
-  </x:si>
-  <x:si>
     <x:t>a22124811bfa8350</x:t>
   </x:si>
   <x:si>
-    <x:t>Books</x:t>
-  </x:si>
-  <x:si>
     <x:t>£45.17</x:t>
   </x:si>
   <x:si>
-    <x:t>£0.00</x:t>
-  </x:si>
-  <x:si>
     <x:t>In stock (19 available)</x:t>
   </x:si>
   <x:si>
-    <x:t>0</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://books.toscrape.com/media/cache/6d/41/6d418a73cc7d4ecfd75ca11d854041db.jpg</x:t>
   </x:si>
   <x:si>
     <x:t>https://books.toscrape.com/catalogue/its-only-the-himalayas_981/index.html</x:t>
   </x:si>
   <x:si>
-    <x:t>To coincide with the 2016 centennial anniversary of the National Parks Service, the Creative Action Network has partnered with the National Parks Conservation Association to revive and reimagine the legacy of WPA travel posters. Artists from all over the world have participated in the creation of this new, crowdsourced collection of See America posters for a modern era. Fe To coincide with the 2016 centennial anniversary of the National Parks Service, the Creative Action Network has partnered with the National Parks Conservation Association to revive and reimagine the legacy of WPA travel posters. Artists from all over the world have participated in the creation of this new, crowdsourced collection of See America posters for a modern era. Featuring artwork for 75 national parks and monuments across all 50 states, this engaging keepsake volume celebrates the full range of our nation's landmarks and treasured wilderness. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f9705c362f070608</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£48.87</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In stock (14 available)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/c7/1a/c71a85dbf8c2dbc75cb271026618477c.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/see-america-a-celebration-of-our-national-parks-treasured-sites_732/index.html</x:t>
+    <x:t>On her thirtieth birthday, Gwendolyn Reese receives an unexpected present from her widowed Aunt Bea: a grand tour of Europe in the company of Bea's Sudoku and Mahjongg Club. The prospect isn't entirely appealing. But when the gift she is expecting--an engagement ring from her boyfriend--doesn't materialize, Gwen decides to go. At first, Gwen approaches the trip as if it's On her thirtieth birthday, Gwendolyn Reese receives an unexpected present from her widowed Aunt Bea: a grand tour of Europe in the company of Bea's Sudoku and Mahjongg Club. The prospect isn't entirely appealing. But when the gift she is expecting--an engagement ring from her boyfriend--doesn't materialize, Gwen decides to go. At first, Gwen approaches the trip as if it's the math homework she assigns her students, diligently checking monuments off her must-see list. But amid the bougainvillea and stunning vistas of southern Italy, something changes. Gwen begins to live in the moment--skipping down stone staircases in Capri, running her fingers over a glacier in view of the Matterhorn, racing through the Louvre, and taste-testing pastries at a Marseilles cafe. Reveling in every new experience--especially her attraction to a charismatic British physics professor--Gwen discovers that the ancient wonders around her are nothing compared to the renaissance unfolding within. . . "A thinking woman's love story, it swept me away to breathtaking places with a cast of endearing characters I won't soon forget. Bravissima!" Susan McBride, author of "Little Black Dress" Praise for Marilyn Brant's According to Jane "A warm, witty and charmingly original story." --Susan Wiggs, "New York Times " bestselling author "Brant infuses her sweetly romantic and delightfully clever tale with just the right dash of Austen-esque wit." "Chicago Tribune" "An engaging read for all who have been through the long, dark, dating wars, and still believe there's sunshine, and a Mr. Darcy, at the end of the tunnel." --Cathy Lamb, author of "Such a Pretty Face"" ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cc1936a9f4e93477</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£44.34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (7 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/6c/e3/6ce3003931701c7a3fd5354917538ea9.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/a-summer-in-europe_458/index.html</x:t>
   </x:si>
   <x:si>
     <x:t>Acclaimed travel writer Rick Antonson sets his adventurous compass on Mount Ararat, exploring the region’s long history, religious mysteries, and complex politics.Mount Ararat is the most fabled mountain in the world. For millennia this massif in eastern Turkey has been rumored as the resting place of Noah’s Ark following the Great Flood. But it also plays a significant ro Acclaimed travel writer Rick Antonson sets his adventurous compass on Mount Ararat, exploring the region’s long history, religious mysteries, and complex politics.Mount Ararat is the most fabled mountain in the world. For millennia this massif in eastern Turkey has been rumored as the resting place of Noah’s Ark following the Great Flood. But it also plays a significant role in the longstanding conflict between Turkey and Armenia.Author Rick Antonson joined a five-member expedition to the mountain’s nearly 17,000-foot summit, trekking alongside a contingent of Armenians, for whom Mount Ararat is the stolen symbol of their country. Antonson weaves vivid historical anecdote with unexpected travel vignettes, whether tracing earlier mountaineering attempts on the peak, recounting the genocide of Armenians and its unresolved debate, or depicting the Kurds’ ambitions for their own nation’s borders, which some say should include Mount Ararat.What unfolds in Full Moon Over Noah’s Ark is one man’s odyssey, a tale told through many stories. Starting with the flooding of the Black Sea in 5600 BCE, through to the Epic of Gilgamesh and the contrasting narratives of the Great Flood known to followers of the Judaic, Christian and Islamic religions, Full Moon Over Noah’s Ark takes readers along with Antonson through the shadows and broad landscapes of Turkey, Iraq, Iran and Armenia, shedding light on a troubled but fascinating area of the world. ...more</x:t>
@@ -115,6 +133,60 @@
     <x:t>https://books.toscrape.com/catalogue/full-moon-over-noahs-ark-an-odyssey-to-mount-ararat-and-beyond_811/index.html</x:t>
   </x:si>
   <x:si>
+    <x:t>First published more than thirty years ago, Paul Theroux's strange, unique, and hugely entertaining railway odyssey has become a modern classic of travel literature. Here Theroux recounts his early adventures on an unusual grand continental tour. Asia's fabled trains -- the Orient Express, the Khyber Pass Local, the Frontier Mail, the Golden Arrow to Kuala Lumpur, the Mand First published more than thirty years ago, Paul Theroux's strange, unique, and hugely entertaining railway odyssey has become a modern classic of travel literature. Here Theroux recounts his early adventures on an unusual grand continental tour. Asia's fabled trains -- the Orient Express, the Khyber Pass Local, the Frontier Mail, the Golden Arrow to Kuala Lumpur, the Mandalay Express, the Trans-Siberian Express -- are the stars of a journey that takes him on a loop eastbound from London's Victoria Station to Tokyo Central, then back from Japan on the Trans-Siberian. Brimming with Theroux's signature humor and wry observations, this engrossing chronicle is essential reading for both the ardent adventurer and the armchair traveler. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48736df57e7bec9f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£30.54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (6 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/d5/82/d582f6b0261c2842330e893962276295.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/the-great-railway-bazaar_446/index.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>With a new foreword by Tim Ferriss •There’s nothing like vagabonding: taking time off from your normal life—from six weeks to four months to two years—to discover and experience the world on your own terms. In this one-of-a-kind handbook, veteran travel writer Rolf Potts explains how anyone armed with an independent spirit can achieve the dream of extended overseas travel. With a new foreword by Tim Ferriss •&amp;nbsp;There’s nothing like vagabonding: taking time off from your normal life—from six weeks to four months to two years—to discover and experience the world on your own terms. In this one-of-a-kind handbook, veteran travel writer Rolf Potts explains how anyone armed with an independent spirit can achieve the dream of extended overseas travel. Now completely revised and updated, Vagabonding is an accessible and inspiring guide to &amp;nbsp; • financing your travel time • determining your destination • adjusting to life on the road • working and volunteering overseas •&amp;nbsp;handling travel adversity • re-assimilating back into ordinary life &amp;nbsp;Praise for Vagabonding&amp;nbsp; “A crucial reference for any budget wanderer.”—Time&amp;nbsp; “Vagabonding easily remains in my top-10 list of life-changing books. Why? Because one incredible trip, especially a long-term trip, can change your life forever. And Vagabonding teaches you how to travel (and think), not just for one trip, but for the rest of your life.”—Tim Ferriss, from the foreword &amp;nbsp; “The book is a meditation on the joys of hitting the road. . . . It’s also a primer for those with a case of pent-up wanderlust seeking to live the dream.”—USA Today &amp;nbsp; “I couldn’t put this book down. It’s a whole different ethic of travel. . . . [Potts’s] practical advice might just convince you to enjoy that open-ended trip of a lifetime.”—Rick Steves &amp;nbsp; “Potts wants us to wander, to explore, to embrace the unknown, and, finally, to take our own damn time about it. I think this is the most sensible book of travel-related advice ever written.”—Tim Cahill, founding editor of Outside ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1809259a5a5f1d8d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£36.94</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (8 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/ca/30/ca30b1afe1e76ce7ba1db8176d398e53.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/vagabonding-an-uncommon-guide-to-the-art-of-long-term-world-travel_552/index.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Around the World, continent by continent, here is the best the world has to offer: 1,000 places guaranteed to give travelers the shivers. Sacred ruins, grand hotels, wildlife preserves, hilltop villages, snack shacks, castles, festivals, reefs, restaurants, cathedrals, hidden islands, opera houses, museums, and more. Each entry tells exactly why it's essential to visit. Th Around the World, continent by continent, here is the best the world has to offer: 1,000 places guaranteed to give travelers the shivers. Sacred ruins, grand hotels, wildlife preserves, hilltop villages, snack shacks, castles, festivals, reefs, restaurants, cathedrals, hidden islands, opera houses, museums, and more. Each entry tells exactly why it's essential to visit. Then come the nuts and bolts: addresses, websites, phone and fax numbers, best times to visit. Stop dreaming and get going.This hefty volume reminds vacationers that hot tourist spots are small percentage of what's worth seeing out there. A quick sampling: Venice's Cipriani Hotel; California's Monterey Peninsula; the Lewis and Clark Trail in Oregon; the Great Wall of China; Robert Louis Stevenson's home in Western Samoa; and the Alhambra in Andalusia, Spain. Veteran travel guide writer Schultz divides the book geographically, presenting a little less than a page on each location. Each entry lists exactly where to find the spot (e.g. Moorea is located "12 miles/19 km northwest of Tahiti; 10 minutes by air, 1 hour by boat") and when to go (e.g., if you want to check out The Complete Fly Fisher hotel in Montana, "May and Sept.-Oct. offer productive angling in a solitary setting"). This is an excellent resource for the intrepid traveler.Copyright 2003 Reed Business Information, Inc. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>228ba5e7577e1d49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£26.08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (1 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/9e/10/9e106f81f65b293e488718a4f54a6a3f.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/1000-places-to-see-before-you-die_1/index.html</x:t>
+  </x:si>
+  <x:si>
     <x:t>A CLASSIC FROM THE BESTSELLING AUTHOR OF UNDER MAGNOLIAFrances Mayes—widely published poet, gourmet cook, and travel writer—opens the door to a wondrous new world when she buys and restores an abandoned villa in the spectacular Tuscan countryside. In evocative language, she brings the reader along as she discovers the beauty and simplicity of life in Italy. Mayes also crea A CLASSIC FROM THE BESTSELLING AUTHOR OF UNDER MAGNOLIAFrances Mayes—widely published poet, gourmet cook, and travel writer—opens the door to a wondrous new world when she buys and restores an abandoned villa in the spectacular Tuscan countryside. In evocative language, she brings the reader along as she discovers the beauty and simplicity of life in Italy. Mayes also creates dozens of delicious seasonal recipes from her traditional kitchen and simple garden, all of which she includes in the book. Doing for Tuscany what M.F.K. Fisher and Peter Mayle did for Provence, Mayes writes about the tastes and pleasures of a foreign country with gusto and passion. ...more</x:t>
   </x:si>
   <x:si>
@@ -124,9 +196,6 @@
     <x:t>£37.33</x:t>
   </x:si>
   <x:si>
-    <x:t>In stock (7 available)</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://books.toscrape.com/media/cache/45/21/4521c581ba727f5c835e34860cbf53e5.jpg</x:t>
   </x:si>
   <x:si>
@@ -142,48 +211,12 @@
     <x:t>£56.88</x:t>
   </x:si>
   <x:si>
-    <x:t>In stock (6 available)</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://books.toscrape.com/media/cache/8b/81/8b81cd9b2c8f89a12099a80bed1c4911.jpg</x:t>
   </x:si>
   <x:si>
     <x:t>https://books.toscrape.com/catalogue/a-year-in-provence-provence-1_421/index.html</x:t>
   </x:si>
   <x:si>
-    <x:t>With a new foreword by Tim Ferriss •There’s nothing like vagabonding: taking time off from your normal life—from six weeks to four months to two years—to discover and experience the world on your own terms. In this one-of-a-kind handbook, veteran travel writer Rolf Potts explains how anyone armed with an independent spirit can achieve the dream of extended overseas travel. With a new foreword by Tim Ferriss •&amp;nbsp;There’s nothing like vagabonding: taking time off from your normal life—from six weeks to four months to two years—to discover and experience the world on your own terms. In this one-of-a-kind handbook, veteran travel writer Rolf Potts explains how anyone armed with an independent spirit can achieve the dream of extended overseas travel. Now completely revised and updated, Vagabonding is an accessible and inspiring guide to &amp;nbsp; • financing your travel time • determining your destination • adjusting to life on the road • working and volunteering overseas •&amp;nbsp;handling travel adversity • re-assimilating back into ordinary life &amp;nbsp;Praise for Vagabonding&amp;nbsp; “A crucial reference for any budget wanderer.”—Time&amp;nbsp; “Vagabonding easily remains in my top-10 list of life-changing books. Why? Because one incredible trip, especially a long-term trip, can change your life forever. And Vagabonding teaches you how to travel (and think), not just for one trip, but for the rest of your life.”—Tim Ferriss, from the foreword &amp;nbsp; “The book is a meditation on the joys of hitting the road. . . . It’s also a primer for those with a case of pent-up wanderlust seeking to live the dream.”—USA Today &amp;nbsp; “I couldn’t put this book down. It’s a whole different ethic of travel. . . . [Potts’s] practical advice might just convince you to enjoy that open-ended trip of a lifetime.”—Rick Steves &amp;nbsp; “Potts wants us to wander, to explore, to embrace the unknown, and, finally, to take our own damn time about it. I think this is the most sensible book of travel-related advice ever written.”—Tim Cahill, founding editor of Outside ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1809259a5a5f1d8d</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£36.94</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In stock (8 available)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/ca/30/ca30b1afe1e76ce7ba1db8176d398e53.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/vagabonding-an-uncommon-guide-to-the-art-of-long-term-world-travel_552/index.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>On her thirtieth birthday, Gwendolyn Reese receives an unexpected present from her widowed Aunt Bea: a grand tour of Europe in the company of Bea's Sudoku and Mahjongg Club. The prospect isn't entirely appealing. But when the gift she is expecting--an engagement ring from her boyfriend--doesn't materialize, Gwen decides to go. At first, Gwen approaches the trip as if it's On her thirtieth birthday, Gwendolyn Reese receives an unexpected present from her widowed Aunt Bea: a grand tour of Europe in the company of Bea's Sudoku and Mahjongg Club. The prospect isn't entirely appealing. But when the gift she is expecting--an engagement ring from her boyfriend--doesn't materialize, Gwen decides to go. At first, Gwen approaches the trip as if it's the math homework she assigns her students, diligently checking monuments off her must-see list. But amid the bougainvillea and stunning vistas of southern Italy, something changes. Gwen begins to live in the moment--skipping down stone staircases in Capri, running her fingers over a glacier in view of the Matterhorn, racing through the Louvre, and taste-testing pastries at a Marseilles cafe. Reveling in every new experience--especially her attraction to a charismatic British physics professor--Gwen discovers that the ancient wonders around her are nothing compared to the renaissance unfolding within. . . "A thinking woman's love story, it swept me away to breathtaking places with a cast of endearing characters I won't soon forget. Bravissima!" Susan McBride, author of "Little Black Dress" Praise for Marilyn Brant's According to Jane "A warm, witty and charmingly original story." --Susan Wiggs, "New York Times " bestselling author "Brant infuses her sweetly romantic and delightfully clever tale with just the right dash of Austen-esque wit." "Chicago Tribune" "An engaging read for all who have been through the long, dark, dating wars, and still believe there's sunshine, and a Mr. Darcy, at the end of the tunnel." --Cathy Lamb, author of "Such a Pretty Face"" ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cc1936a9f4e93477</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£44.34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/6c/e3/6ce3003931701c7a3fd5354917538ea9.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/a-summer-in-europe_458/index.html</x:t>
-  </x:si>
-  <x:si>
     <x:t>The hilarious and loving sequel to a hilarious and loving classic of travel writing: Notes from a Small Island, Bill Bryson’s valentine to his adopted country of EnglandIn 1995 Bill Bryson got into his car and took a weeks-long farewell motoring trip about England before moving his family back to the United States. The book about that trip, Notes from a Small Island, is up The hilarious and loving sequel to a hilarious and loving classic of travel writing: Notes from a Small Island, Bill Bryson’s valentine to his adopted country of EnglandIn 1995 Bill Bryson got into his car and took a weeks-long farewell motoring trip about England before moving his family back to the United States. The book about that trip, Notes from a Small Island, is uproarious and endlessly endearing, one of the most acute and affectionate portrayals of England in all its glorious eccentricity ever written. Two decades later, he set out again to rediscover that country, and the result is The Road to Little Dribbling. Nothing is funnier than Bill Bryson on the road—prepare for the total joy and multiple episodes of unseemly laughter. ...more</x:t>
   </x:si>
   <x:si>
@@ -202,21 +235,6 @@
     <x:t>https://books.toscrape.com/catalogue/the-road-to-little-dribbling-adventures-of-an-american-in-britain-notes-from-a-small-island-2_277/index.html</x:t>
   </x:si>
   <x:si>
-    <x:t>First published more than thirty years ago, Paul Theroux's strange, unique, and hugely entertaining railway odyssey has become a modern classic of travel literature. Here Theroux recounts his early adventures on an unusual grand continental tour. Asia's fabled trains -- the Orient Express, the Khyber Pass Local, the Frontier Mail, the Golden Arrow to Kuala Lumpur, the Mand First published more than thirty years ago, Paul Theroux's strange, unique, and hugely entertaining railway odyssey has become a modern classic of travel literature. Here Theroux recounts his early adventures on an unusual grand continental tour. Asia's fabled trains -- the Orient Express, the Khyber Pass Local, the Frontier Mail, the Golden Arrow to Kuala Lumpur, the Mandalay Express, the Trans-Siberian Express -- are the stars of a journey that takes him on a loop eastbound from London's Victoria Station to Tokyo Central, then back from Japan on the Trans-Siberian. Brimming with Theroux's signature humor and wry observations, this engrossing chronicle is essential reading for both the ardent adventurer and the armchair traveler. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48736df57e7bec9f</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£30.54</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/d5/82/d582f6b0261c2842330e893962276295.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/the-great-railway-bazaar_446/index.html</x:t>
-  </x:si>
-  <x:si>
     <x:t>Bill Bryson's first travel book, The Lost Continent, was unanimously acclaimed as one of the funniest books in years. In Neither Here nor There he brings his unique brand of humour to bear on Europe as he shoulders his backpack, keeps a tight hold on his wallet, and journeys from Hammerfest, the northernmost town on the continent, to Istanbul on the cusp of Asia. Fluent in Bill Bryson's first travel book, The Lost Continent, was unanimously acclaimed as one of the funniest books in years. In Neither Here nor There he brings his unique brand of humour to bear on Europe as he shoulders his backpack, keeps a tight hold on his wallet, and journeys from Hammerfest, the northernmost town on the continent, to Istanbul on the cusp of Asia. Fluent in, oh, at least one language, he retraces his travels as a student twenty years before.Whether braving the homicidal motorist of Paris, being robbed by gypsies in Florence, attempting not to order tripe and eyeballs in a German restaurant, window-shopping in the sex shops of the Reeperbahn or disputing his hotel bill in Copenhagen, Bryson takes in the sights, dissects the culture and illuminates each place and person with his hilariously caustic observations. He even goes to Liechtenstein. ...more</x:t>
   </x:si>
   <x:si>
@@ -230,24 +248,6 @@
   </x:si>
   <x:si>
     <x:t>https://books.toscrape.com/catalogue/neither-here-nor-there-travels-in-europe_198/index.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Around the World, continent by continent, here is the best the world has to offer: 1,000 places guaranteed to give travelers the shivers. Sacred ruins, grand hotels, wildlife preserves, hilltop villages, snack shacks, castles, festivals, reefs, restaurants, cathedrals, hidden islands, opera houses, museums, and more. Each entry tells exactly why it's essential to visit. Th Around the World, continent by continent, here is the best the world has to offer: 1,000 places guaranteed to give travelers the shivers. Sacred ruins, grand hotels, wildlife preserves, hilltop villages, snack shacks, castles, festivals, reefs, restaurants, cathedrals, hidden islands, opera houses, museums, and more. Each entry tells exactly why it's essential to visit. Then come the nuts and bolts: addresses, websites, phone and fax numbers, best times to visit. Stop dreaming and get going.This hefty volume reminds vacationers that hot tourist spots are small percentage of what's worth seeing out there. A quick sampling: Venice's Cipriani Hotel; California's Monterey Peninsula; the Lewis and Clark Trail in Oregon; the Great Wall of China; Robert Louis Stevenson's home in Western Samoa; and the Alhambra in Andalusia, Spain. Veteran travel guide writer Schultz divides the book geographically, presenting a little less than a page on each location. Each entry lists exactly where to find the spot (e.g. Moorea is located "12 miles/19 km northwest of Tahiti; 10 minutes by air, 1 hour by boat") and when to go (e.g., if you want to check out The Complete Fly Fisher hotel in Montana, "May and Sept.-Oct. offer productive angling in a solitary setting"). This is an excellent resource for the intrepid traveler.Copyright 2003 Reed Business Information, Inc. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>228ba5e7577e1d49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£26.08</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In stock (1 available)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/9e/10/9e106f81f65b293e488718a4f54a6a3f.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/1000-places-to-see-before-you-die_1/index.html</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -878,42 +878,42 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="J8" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="K8" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:11">
       <x:c r="A9" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="H9" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s">
         <x:v>18</x:v>
@@ -983,42 +983,42 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="J11" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="K11" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:11">
       <x:c r="A12" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="H12" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s">
         <x:v>18</x:v>

--- a/page-data-excel/books/books.xlsx
+++ b/page-data-excel/books/books.xlsx
@@ -49,52 +49,124 @@
     <x:t>url</x:t>
   </x:si>
   <x:si>
+    <x:t>“Wherever you go, whatever you do, just . . . don’t do anything stupid.” —My MotherDuring her yearlong adventure backpacking from South Africa to Singapore, S. Bedford definitely did a few things her mother might classify as "stupid." She swam with great white sharks in South Africa, ran from lions in Zimbabwe, climbed a Himalayan mountain without training in Nepal, and wa “Wherever you go, whatever you do, just . . . don’t do anything stupid.” —My MotherDuring her yearlong adventure backpacking from South Africa to Singapore, S. Bedford definitely did a few things her mother might classify as "stupid." She swam with great white sharks in South Africa, ran from lions in Zimbabwe, climbed a Himalayan mountain without training in Nepal, and watched as her friend was attacked by a monkey in Indonesia.But interspersed in those slightly more crazy moments, Sue Bedfored and her friend "Sara the Stoic" experienced the sights, sounds, life, and culture of fifteen countries. Joined along the way by a few friends and their aging fathers here and there, Sue and Sara experience the trip of a lifetime. They fall in love with the world, cultivate an appreciation for home, and discover who, or what, they want to become.It's Only the Himalayas is the incredibly funny, sometimes outlandish, always entertaining confession of a young backpacker that will inspire you to take your own adventure. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Travel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a22124811bfa8350</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Books</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£45.17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£0.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (19 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/6d/41/6d418a73cc7d4ecfd75ca11d854041db.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/its-only-the-himalayas_981/index.html</x:t>
+  </x:si>
+  <x:si>
     <x:t>To coincide with the 2016 centennial anniversary of the National Parks Service, the Creative Action Network has partnered with the National Parks Conservation Association to revive and reimagine the legacy of WPA travel posters. Artists from all over the world have participated in the creation of this new, crowdsourced collection of See America posters for a modern era. Fe To coincide with the 2016 centennial anniversary of the National Parks Service, the Creative Action Network has partnered with the National Parks Conservation Association to revive and reimagine the legacy of WPA travel posters. Artists from all over the world have participated in the creation of this new, crowdsourced collection of See America posters for a modern era. Featuring artwork for 75 national parks and monuments across all 50 states, this engaging keepsake volume celebrates the full range of our nation's landmarks and treasured wilderness. ...more</x:t>
   </x:si>
   <x:si>
-    <x:t>Travel</x:t>
-  </x:si>
-  <x:si>
     <x:t>f9705c362f070608</x:t>
   </x:si>
   <x:si>
-    <x:t>Books</x:t>
-  </x:si>
-  <x:si>
     <x:t>£48.87</x:t>
   </x:si>
   <x:si>
-    <x:t>£0.00</x:t>
-  </x:si>
-  <x:si>
     <x:t>In stock (14 available)</x:t>
   </x:si>
   <x:si>
-    <x:t>0</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://books.toscrape.com/media/cache/c7/1a/c71a85dbf8c2dbc75cb271026618477c.jpg</x:t>
   </x:si>
   <x:si>
     <x:t>https://books.toscrape.com/catalogue/see-america-a-celebration-of-our-national-parks-treasured-sites_732/index.html</x:t>
   </x:si>
   <x:si>
-    <x:t>“Wherever you go, whatever you do, just . . . don’t do anything stupid.” —My MotherDuring her yearlong adventure backpacking from South Africa to Singapore, S. Bedford definitely did a few things her mother might classify as "stupid." She swam with great white sharks in South Africa, ran from lions in Zimbabwe, climbed a Himalayan mountain without training in Nepal, and wa “Wherever you go, whatever you do, just . . . don’t do anything stupid.” —My MotherDuring her yearlong adventure backpacking from South Africa to Singapore, S. Bedford definitely did a few things her mother might classify as "stupid." She swam with great white sharks in South Africa, ran from lions in Zimbabwe, climbed a Himalayan mountain without training in Nepal, and watched as her friend was attacked by a monkey in Indonesia.But interspersed in those slightly more crazy moments, Sue Bedfored and her friend "Sara the Stoic" experienced the sights, sounds, life, and culture of fifteen countries. Joined along the way by a few friends and their aging fathers here and there, Sue and Sara experience the trip of a lifetime. They fall in love with the world, cultivate an appreciation for home, and discover who, or what, they want to become.It's Only the Himalayas is the incredibly funny, sometimes outlandish, always entertaining confession of a young backpacker that will inspire you to take your own adventure. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>a22124811bfa8350</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£45.17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In stock (19 available)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/6d/41/6d418a73cc7d4ecfd75ca11d854041db.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/its-only-the-himalayas_981/index.html</x:t>
+    <x:t>Acclaimed travel writer Rick Antonson sets his adventurous compass on Mount Ararat, exploring the region’s long history, religious mysteries, and complex politics.Mount Ararat is the most fabled mountain in the world. For millennia this massif in eastern Turkey has been rumored as the resting place of Noah’s Ark following the Great Flood. But it also plays a significant ro Acclaimed travel writer Rick Antonson sets his adventurous compass on Mount Ararat, exploring the region’s long history, religious mysteries, and complex politics.Mount Ararat is the most fabled mountain in the world. For millennia this massif in eastern Turkey has been rumored as the resting place of Noah’s Ark following the Great Flood. But it also plays a significant role in the longstanding conflict between Turkey and Armenia.Author Rick Antonson joined a five-member expedition to the mountain’s nearly 17,000-foot summit, trekking alongside a contingent of Armenians, for whom Mount Ararat is the stolen symbol of their country. Antonson weaves vivid historical anecdote with unexpected travel vignettes, whether tracing earlier mountaineering attempts on the peak, recounting the genocide of Armenians and its unresolved debate, or depicting the Kurds’ ambitions for their own nation’s borders, which some say should include Mount Ararat.What unfolds in Full Moon Over Noah’s Ark is one man’s odyssey, a tale told through many stories. Starting with the flooding of the Black Sea in 5600 BCE, through to the Epic of Gilgamesh and the contrasting narratives of the Great Flood known to followers of the Judaic, Christian and Islamic religions, Full Moon Over Noah’s Ark takes readers along with Antonson through the shadows and broad landscapes of Turkey, Iraq, Iran and Armenia, shedding light on a troubled but fascinating area of the world. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ce60436f52c5ee68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£49.43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (15 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/fe/8a/fe8af6ceec7718986380c0fde9b3b34f.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/full-moon-over-noahs-ark-an-odyssey-to-mount-ararat-and-beyond_811/index.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A CLASSIC FROM THE BESTSELLING AUTHOR OF UNDER MAGNOLIAFrances Mayes—widely published poet, gourmet cook, and travel writer—opens the door to a wondrous new world when she buys and restores an abandoned villa in the spectacular Tuscan countryside. In evocative language, she brings the reader along as she discovers the beauty and simplicity of life in Italy. Mayes also crea A CLASSIC FROM THE BESTSELLING AUTHOR OF UNDER MAGNOLIAFrances Mayes—widely published poet, gourmet cook, and travel writer—opens the door to a wondrous new world when she buys and restores an abandoned villa in the spectacular Tuscan countryside. In evocative language, she brings the reader along as she discovers the beauty and simplicity of life in Italy. Mayes also creates dozens of delicious seasonal recipes from her traditional kitchen and simple garden, all of which she includes in the book. Doing for Tuscany what M.F.K. Fisher and Peter Mayle did for Provence, Mayes writes about the tastes and pleasures of a foreign country with gusto and passion. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a94350ee74deaa07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£37.33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (7 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/45/21/4521c581ba727f5c835e34860cbf53e5.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/under-the-tuscan-sun_504/index.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>With a new foreword by Tim Ferriss •There’s nothing like vagabonding: taking time off from your normal life—from six weeks to four months to two years—to discover and experience the world on your own terms. In this one-of-a-kind handbook, veteran travel writer Rolf Potts explains how anyone armed with an independent spirit can achieve the dream of extended overseas travel. With a new foreword by Tim Ferriss •&amp;nbsp;There’s nothing like vagabonding: taking time off from your normal life—from six weeks to four months to two years—to discover and experience the world on your own terms. In this one-of-a-kind handbook, veteran travel writer Rolf Potts explains how anyone armed with an independent spirit can achieve the dream of extended overseas travel. Now completely revised and updated, Vagabonding is an accessible and inspiring guide to &amp;nbsp; • financing your travel time • determining your destination • adjusting to life on the road • working and volunteering overseas •&amp;nbsp;handling travel adversity • re-assimilating back into ordinary life &amp;nbsp;Praise for Vagabonding&amp;nbsp; “A crucial reference for any budget wanderer.”—Time&amp;nbsp; “Vagabonding easily remains in my top-10 list of life-changing books. Why? Because one incredible trip, especially a long-term trip, can change your life forever. And Vagabonding teaches you how to travel (and think), not just for one trip, but for the rest of your life.”—Tim Ferriss, from the foreword &amp;nbsp; “The book is a meditation on the joys of hitting the road. . . . It’s also a primer for those with a case of pent-up wanderlust seeking to live the dream.”—USA Today &amp;nbsp; “I couldn’t put this book down. It’s a whole different ethic of travel. . . . [Potts’s] practical advice might just convince you to enjoy that open-ended trip of a lifetime.”—Rick Steves &amp;nbsp; “Potts wants us to wander, to explore, to embrace the unknown, and, finally, to take our own damn time about it. I think this is the most sensible book of travel-related advice ever written.”—Tim Cahill, founding editor of Outside ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1809259a5a5f1d8d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£36.94</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (8 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/ca/30/ca30b1afe1e76ce7ba1db8176d398e53.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/vagabonding-an-uncommon-guide-to-the-art-of-long-term-world-travel_552/index.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>National BestsellerIn this witty and warm-hearted account, Peter Mayle tells what it is like to realize a long-cherished dream and actually move into a 200-year-old stone farmhouse in the remote country of the Lubéron with his wife and two large dogs. He endures January's frosty mistral as it comes howling down the Rhône Valley, discovers the secrets of goat racing through National Bestseller&amp;nbsp;In this witty and warm-hearted account, Peter Mayle tells what it is like to realize a long-cherished dream and actually move into a 200-year-old stone farmhouse in the remote country of the Lubéron with his wife and two large dogs. He endures January's frosty mistral as it comes howling down the Rhône Valley, discovers the secrets of goat racing through the middle of town, and delights in the glorious regional cuisine. A Year in Provence transports us into all the earthy pleasures of Provençal life and lets us live vicariously at a tempo governed by seasons, not by days. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9e60929f521fa280</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£56.88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (6 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/8b/81/8b81cd9b2c8f89a12099a80bed1c4911.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/a-year-in-provence-provence-1_421/index.html</x:t>
   </x:si>
   <x:si>
     <x:t>On her thirtieth birthday, Gwendolyn Reese receives an unexpected present from her widowed Aunt Bea: a grand tour of Europe in the company of Bea's Sudoku and Mahjongg Club. The prospect isn't entirely appealing. But when the gift she is expecting--an engagement ring from her boyfriend--doesn't materialize, Gwen decides to go. At first, Gwen approaches the trip as if it's On her thirtieth birthday, Gwendolyn Reese receives an unexpected present from her widowed Aunt Bea: a grand tour of Europe in the company of Bea's Sudoku and Mahjongg Club. The prospect isn't entirely appealing. But when the gift she is expecting--an engagement ring from her boyfriend--doesn't materialize, Gwen decides to go. At first, Gwen approaches the trip as if it's the math homework she assigns her students, diligently checking monuments off her must-see list. But amid the bougainvillea and stunning vistas of southern Italy, something changes. Gwen begins to live in the moment--skipping down stone staircases in Capri, running her fingers over a glacier in view of the Matterhorn, racing through the Louvre, and taste-testing pastries at a Marseilles cafe. Reveling in every new experience--especially her attraction to a charismatic British physics professor--Gwen discovers that the ancient wonders around her are nothing compared to the renaissance unfolding within. . . "A thinking woman's love story, it swept me away to breathtaking places with a cast of endearing characters I won't soon forget. Bravissima!" Susan McBride, author of "Little Black Dress" Praise for Marilyn Brant's According to Jane "A warm, witty and charmingly original story." --Susan Wiggs, "New York Times " bestselling author "Brant infuses her sweetly romantic and delightfully clever tale with just the right dash of Austen-esque wit." "Chicago Tribune" "An engaging read for all who have been through the long, dark, dating wars, and still believe there's sunshine, and a Mr. Darcy, at the end of the tunnel." --Cathy Lamb, author of "Such a Pretty Face"" ...more</x:t>
@@ -106,31 +178,43 @@
     <x:t>£44.34</x:t>
   </x:si>
   <x:si>
-    <x:t>In stock (7 available)</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://books.toscrape.com/media/cache/6c/e3/6ce3003931701c7a3fd5354917538ea9.jpg</x:t>
   </x:si>
   <x:si>
     <x:t>https://books.toscrape.com/catalogue/a-summer-in-europe_458/index.html</x:t>
   </x:si>
   <x:si>
-    <x:t>Acclaimed travel writer Rick Antonson sets his adventurous compass on Mount Ararat, exploring the region’s long history, religious mysteries, and complex politics.Mount Ararat is the most fabled mountain in the world. For millennia this massif in eastern Turkey has been rumored as the resting place of Noah’s Ark following the Great Flood. But it also plays a significant ro Acclaimed travel writer Rick Antonson sets his adventurous compass on Mount Ararat, exploring the region’s long history, religious mysteries, and complex politics.Mount Ararat is the most fabled mountain in the world. For millennia this massif in eastern Turkey has been rumored as the resting place of Noah’s Ark following the Great Flood. But it also plays a significant role in the longstanding conflict between Turkey and Armenia.Author Rick Antonson joined a five-member expedition to the mountain’s nearly 17,000-foot summit, trekking alongside a contingent of Armenians, for whom Mount Ararat is the stolen symbol of their country. Antonson weaves vivid historical anecdote with unexpected travel vignettes, whether tracing earlier mountaineering attempts on the peak, recounting the genocide of Armenians and its unresolved debate, or depicting the Kurds’ ambitions for their own nation’s borders, which some say should include Mount Ararat.What unfolds in Full Moon Over Noah’s Ark is one man’s odyssey, a tale told through many stories. Starting with the flooding of the Black Sea in 5600 BCE, through to the Epic of Gilgamesh and the contrasting narratives of the Great Flood known to followers of the Judaic, Christian and Islamic religions, Full Moon Over Noah’s Ark takes readers along with Antonson through the shadows and broad landscapes of Turkey, Iraq, Iran and Armenia, shedding light on a troubled but fascinating area of the world. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ce60436f52c5ee68</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£49.43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In stock (15 available)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/fe/8a/fe8af6ceec7718986380c0fde9b3b34f.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/full-moon-over-noahs-ark-an-odyssey-to-mount-ararat-and-beyond_811/index.html</x:t>
+    <x:t>The hilarious and loving sequel to a hilarious and loving classic of travel writing: Notes from a Small Island, Bill Bryson’s valentine to his adopted country of EnglandIn 1995 Bill Bryson got into his car and took a weeks-long farewell motoring trip about England before moving his family back to the United States. The book about that trip, Notes from a Small Island, is up The hilarious and loving sequel to a hilarious and loving classic of travel writing: Notes from a Small Island, Bill Bryson’s valentine to his adopted country of EnglandIn 1995 Bill Bryson got into his car and took a weeks-long farewell motoring trip about England before moving his family back to the United States. The book about that trip, Notes from a Small Island, is uproarious and endlessly endearing, one of the most acute and affectionate portrayals of England in all its glorious eccentricity ever written. Two decades later, he set out again to rediscover that country, and the result is The Road to Little Dribbling. Nothing is funnier than Bill Bryson on the road—prepare for the total joy and multiple episodes of unseemly laughter. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>366a236aa1ea6f07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£23.21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (3 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/26/f5/26f5d20239a45046e756c6d09611b3ea.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/the-road-to-little-dribbling-adventures-of-an-american-in-britain-notes-from-a-small-island-2_277/index.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bill Bryson's first travel book, The Lost Continent, was unanimously acclaimed as one of the funniest books in years. In Neither Here nor There he brings his unique brand of humour to bear on Europe as he shoulders his backpack, keeps a tight hold on his wallet, and journeys from Hammerfest, the northernmost town on the continent, to Istanbul on the cusp of Asia. Fluent in Bill Bryson's first travel book, The Lost Continent, was unanimously acclaimed as one of the funniest books in years. In Neither Here nor There he brings his unique brand of humour to bear on Europe as he shoulders his backpack, keeps a tight hold on his wallet, and journeys from Hammerfest, the northernmost town on the continent, to Istanbul on the cusp of Asia. Fluent in, oh, at least one language, he retraces his travels as a student twenty years before.Whether braving the homicidal motorist of Paris, being robbed by gypsies in Florence, attempting not to order tripe and eyeballs in a German restaurant, window-shopping in the sex shops of the Reeperbahn or disputing his hotel bill in Copenhagen, Bryson takes in the sights, dissects the culture and illuminates each place and person with his hilariously caustic observations. He even goes to Liechtenstein. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>747cf7fca2ccdbd4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£38.95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/c9/9a/c99a7a05537cd842eb4db83d537e3a4d.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/neither-here-nor-there-travels-in-europe_198/index.html</x:t>
   </x:si>
   <x:si>
     <x:t>First published more than thirty years ago, Paul Theroux's strange, unique, and hugely entertaining railway odyssey has become a modern classic of travel literature. Here Theroux recounts his early adventures on an unusual grand continental tour. Asia's fabled trains -- the Orient Express, the Khyber Pass Local, the Frontier Mail, the Golden Arrow to Kuala Lumpur, the Mand First published more than thirty years ago, Paul Theroux's strange, unique, and hugely entertaining railway odyssey has become a modern classic of travel literature. Here Theroux recounts his early adventures on an unusual grand continental tour. Asia's fabled trains -- the Orient Express, the Khyber Pass Local, the Frontier Mail, the Golden Arrow to Kuala Lumpur, the Mandalay Express, the Trans-Siberian Express -- are the stars of a journey that takes him on a loop eastbound from London's Victoria Station to Tokyo Central, then back from Japan on the Trans-Siberian. Brimming with Theroux's signature humor and wry observations, this engrossing chronicle is essential reading for both the ardent adventurer and the armchair traveler. ...more</x:t>
@@ -142,33 +226,12 @@
     <x:t>£30.54</x:t>
   </x:si>
   <x:si>
-    <x:t>In stock (6 available)</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://books.toscrape.com/media/cache/d5/82/d582f6b0261c2842330e893962276295.jpg</x:t>
   </x:si>
   <x:si>
     <x:t>https://books.toscrape.com/catalogue/the-great-railway-bazaar_446/index.html</x:t>
   </x:si>
   <x:si>
-    <x:t>With a new foreword by Tim Ferriss •There’s nothing like vagabonding: taking time off from your normal life—from six weeks to four months to two years—to discover and experience the world on your own terms. In this one-of-a-kind handbook, veteran travel writer Rolf Potts explains how anyone armed with an independent spirit can achieve the dream of extended overseas travel. With a new foreword by Tim Ferriss •&amp;nbsp;There’s nothing like vagabonding: taking time off from your normal life—from six weeks to four months to two years—to discover and experience the world on your own terms. In this one-of-a-kind handbook, veteran travel writer Rolf Potts explains how anyone armed with an independent spirit can achieve the dream of extended overseas travel. Now completely revised and updated, Vagabonding is an accessible and inspiring guide to &amp;nbsp; • financing your travel time • determining your destination • adjusting to life on the road • working and volunteering overseas •&amp;nbsp;handling travel adversity • re-assimilating back into ordinary life &amp;nbsp;Praise for Vagabonding&amp;nbsp; “A crucial reference for any budget wanderer.”—Time&amp;nbsp; “Vagabonding easily remains in my top-10 list of life-changing books. Why? Because one incredible trip, especially a long-term trip, can change your life forever. And Vagabonding teaches you how to travel (and think), not just for one trip, but for the rest of your life.”—Tim Ferriss, from the foreword &amp;nbsp; “The book is a meditation on the joys of hitting the road. . . . It’s also a primer for those with a case of pent-up wanderlust seeking to live the dream.”—USA Today &amp;nbsp; “I couldn’t put this book down. It’s a whole different ethic of travel. . . . [Potts’s] practical advice might just convince you to enjoy that open-ended trip of a lifetime.”—Rick Steves &amp;nbsp; “Potts wants us to wander, to explore, to embrace the unknown, and, finally, to take our own damn time about it. I think this is the most sensible book of travel-related advice ever written.”—Tim Cahill, founding editor of Outside ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1809259a5a5f1d8d</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£36.94</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In stock (8 available)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/ca/30/ca30b1afe1e76ce7ba1db8176d398e53.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/vagabonding-an-uncommon-guide-to-the-art-of-long-term-world-travel_552/index.html</x:t>
-  </x:si>
-  <x:si>
     <x:t>Around the World, continent by continent, here is the best the world has to offer: 1,000 places guaranteed to give travelers the shivers. Sacred ruins, grand hotels, wildlife preserves, hilltop villages, snack shacks, castles, festivals, reefs, restaurants, cathedrals, hidden islands, opera houses, museums, and more. Each entry tells exactly why it's essential to visit. Th Around the World, continent by continent, here is the best the world has to offer: 1,000 places guaranteed to give travelers the shivers. Sacred ruins, grand hotels, wildlife preserves, hilltop villages, snack shacks, castles, festivals, reefs, restaurants, cathedrals, hidden islands, opera houses, museums, and more. Each entry tells exactly why it's essential to visit. Then come the nuts and bolts: addresses, websites, phone and fax numbers, best times to visit. Stop dreaming and get going.This hefty volume reminds vacationers that hot tourist spots are small percentage of what's worth seeing out there. A quick sampling: Venice's Cipriani Hotel; California's Monterey Peninsula; the Lewis and Clark Trail in Oregon; the Great Wall of China; Robert Louis Stevenson's home in Western Samoa; and the Alhambra in Andalusia, Spain. Veteran travel guide writer Schultz divides the book geographically, presenting a little less than a page on each location. Each entry lists exactly where to find the spot (e.g. Moorea is located "12 miles/19 km northwest of Tahiti; 10 minutes by air, 1 hour by boat") and when to go (e.g., if you want to check out The Complete Fly Fisher hotel in Montana, "May and Sept.-Oct. offer productive angling in a solitary setting"). This is an excellent resource for the intrepid traveler.Copyright 2003 Reed Business Information, Inc. ...more</x:t>
   </x:si>
   <x:si>
@@ -185,69 +248,6 @@
   </x:si>
   <x:si>
     <x:t>https://books.toscrape.com/catalogue/1000-places-to-see-before-you-die_1/index.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A CLASSIC FROM THE BESTSELLING AUTHOR OF UNDER MAGNOLIAFrances Mayes—widely published poet, gourmet cook, and travel writer—opens the door to a wondrous new world when she buys and restores an abandoned villa in the spectacular Tuscan countryside. In evocative language, she brings the reader along as she discovers the beauty and simplicity of life in Italy. Mayes also crea A CLASSIC FROM THE BESTSELLING AUTHOR OF UNDER MAGNOLIAFrances Mayes—widely published poet, gourmet cook, and travel writer—opens the door to a wondrous new world when she buys and restores an abandoned villa in the spectacular Tuscan countryside. In evocative language, she brings the reader along as she discovers the beauty and simplicity of life in Italy. Mayes also creates dozens of delicious seasonal recipes from her traditional kitchen and simple garden, all of which she includes in the book. Doing for Tuscany what M.F.K. Fisher and Peter Mayle did for Provence, Mayes writes about the tastes and pleasures of a foreign country with gusto and passion. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>a94350ee74deaa07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£37.33</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/45/21/4521c581ba727f5c835e34860cbf53e5.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/under-the-tuscan-sun_504/index.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>National BestsellerIn this witty and warm-hearted account, Peter Mayle tells what it is like to realize a long-cherished dream and actually move into a 200-year-old stone farmhouse in the remote country of the Lubéron with his wife and two large dogs. He endures January's frosty mistral as it comes howling down the Rhône Valley, discovers the secrets of goat racing through National Bestseller&amp;nbsp;In this witty and warm-hearted account, Peter Mayle tells what it is like to realize a long-cherished dream and actually move into a 200-year-old stone farmhouse in the remote country of the Lubéron with his wife and two large dogs. He endures January's frosty mistral as it comes howling down the Rhône Valley, discovers the secrets of goat racing through the middle of town, and delights in the glorious regional cuisine. A Year in Provence transports us into all the earthy pleasures of Provençal life and lets us live vicariously at a tempo governed by seasons, not by days. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9e60929f521fa280</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£56.88</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/8b/81/8b81cd9b2c8f89a12099a80bed1c4911.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/a-year-in-provence-provence-1_421/index.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The hilarious and loving sequel to a hilarious and loving classic of travel writing: Notes from a Small Island, Bill Bryson’s valentine to his adopted country of EnglandIn 1995 Bill Bryson got into his car and took a weeks-long farewell motoring trip about England before moving his family back to the United States. The book about that trip, Notes from a Small Island, is up The hilarious and loving sequel to a hilarious and loving classic of travel writing: Notes from a Small Island, Bill Bryson’s valentine to his adopted country of EnglandIn 1995 Bill Bryson got into his car and took a weeks-long farewell motoring trip about England before moving his family back to the United States. The book about that trip, Notes from a Small Island, is uproarious and endlessly endearing, one of the most acute and affectionate portrayals of England in all its glorious eccentricity ever written. Two decades later, he set out again to rediscover that country, and the result is The Road to Little Dribbling. Nothing is funnier than Bill Bryson on the road—prepare for the total joy and multiple episodes of unseemly laughter. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>366a236aa1ea6f07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£23.21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In stock (3 available)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/26/f5/26f5d20239a45046e756c6d09611b3ea.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/the-road-to-little-dribbling-adventures-of-an-american-in-britain-notes-from-a-small-island-2_277/index.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bill Bryson's first travel book, The Lost Continent, was unanimously acclaimed as one of the funniest books in years. In Neither Here nor There he brings his unique brand of humour to bear on Europe as he shoulders his backpack, keeps a tight hold on his wallet, and journeys from Hammerfest, the northernmost town on the continent, to Istanbul on the cusp of Asia. Fluent in Bill Bryson's first travel book, The Lost Continent, was unanimously acclaimed as one of the funniest books in years. In Neither Here nor There he brings his unique brand of humour to bear on Europe as he shoulders his backpack, keeps a tight hold on his wallet, and journeys from Hammerfest, the northernmost town on the continent, to Istanbul on the cusp of Asia. Fluent in, oh, at least one language, he retraces his travels as a student twenty years before.Whether braving the homicidal motorist of Paris, being robbed by gypsies in Florence, attempting not to order tripe and eyeballs in a German restaurant, window-shopping in the sex shops of the Reeperbahn or disputing his hotel bill in Copenhagen, Bryson takes in the sights, dissects the culture and illuminates each place and person with his hilariously caustic observations. He even goes to Liechtenstein. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>747cf7fca2ccdbd4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£38.95</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/c9/9a/c99a7a05537cd842eb4db83d537e3a4d.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/neither-here-nor-there-travels-in-europe_198/index.html</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -878,42 +878,42 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="J8" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="K8" s="0" t="s">
         <x:v>55</x:v>
-      </x:c>
-      <x:c r="K8" s="0" t="s">
-        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:11">
       <x:c r="A9" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="H9" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s">
         <x:v>18</x:v>
@@ -948,7 +948,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s">
         <x:v>18</x:v>
@@ -983,42 +983,42 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="J11" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="K11" s="0" t="s">
         <x:v>71</x:v>
-      </x:c>
-      <x:c r="K11" s="0" t="s">
-        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:11">
       <x:c r="A12" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="H12" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s">
         <x:v>18</x:v>

--- a/page-data-excel/books/books.xlsx
+++ b/page-data-excel/books/books.xlsx
@@ -49,54 +49,54 @@
     <x:t>url</x:t>
   </x:si>
   <x:si>
+    <x:t>To coincide with the 2016 centennial anniversary of the National Parks Service, the Creative Action Network has partnered with the National Parks Conservation Association to revive and reimagine the legacy of WPA travel posters. Artists from all over the world have participated in the creation of this new, crowdsourced collection of See America posters for a modern era. Fe To coincide with the 2016 centennial anniversary of the National Parks Service, the Creative Action Network has partnered with the National Parks Conservation Association to revive and reimagine the legacy of WPA travel posters. Artists from all over the world have participated in the creation of this new, crowdsourced collection of See America posters for a modern era. Featuring artwork for 75 national parks and monuments across all 50 states, this engaging keepsake volume celebrates the full range of our nation's landmarks and treasured wilderness. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Travel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f9705c362f070608</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Books</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£48.87</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£0.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (14 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/c7/1a/c71a85dbf8c2dbc75cb271026618477c.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/see-america-a-celebration-of-our-national-parks-treasured-sites_732/index.html</x:t>
+  </x:si>
+  <x:si>
     <x:t>“Wherever you go, whatever you do, just . . . don’t do anything stupid.” —My MotherDuring her yearlong adventure backpacking from South Africa to Singapore, S. Bedford definitely did a few things her mother might classify as "stupid." She swam with great white sharks in South Africa, ran from lions in Zimbabwe, climbed a Himalayan mountain without training in Nepal, and wa “Wherever you go, whatever you do, just . . . don’t do anything stupid.” —My MotherDuring her yearlong adventure backpacking from South Africa to Singapore, S. Bedford definitely did a few things her mother might classify as "stupid." She swam with great white sharks in South Africa, ran from lions in Zimbabwe, climbed a Himalayan mountain without training in Nepal, and watched as her friend was attacked by a monkey in Indonesia.But interspersed in those slightly more crazy moments, Sue Bedfored and her friend "Sara the Stoic" experienced the sights, sounds, life, and culture of fifteen countries. Joined along the way by a few friends and their aging fathers here and there, Sue and Sara experience the trip of a lifetime. They fall in love with the world, cultivate an appreciation for home, and discover who, or what, they want to become.It's Only the Himalayas is the incredibly funny, sometimes outlandish, always entertaining confession of a young backpacker that will inspire you to take your own adventure. ...more</x:t>
   </x:si>
   <x:si>
-    <x:t>Travel</x:t>
-  </x:si>
-  <x:si>
     <x:t>a22124811bfa8350</x:t>
   </x:si>
   <x:si>
-    <x:t>Books</x:t>
-  </x:si>
-  <x:si>
     <x:t>£45.17</x:t>
   </x:si>
   <x:si>
-    <x:t>£0.00</x:t>
-  </x:si>
-  <x:si>
     <x:t>In stock (19 available)</x:t>
   </x:si>
   <x:si>
-    <x:t>0</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://books.toscrape.com/media/cache/6d/41/6d418a73cc7d4ecfd75ca11d854041db.jpg</x:t>
   </x:si>
   <x:si>
     <x:t>https://books.toscrape.com/catalogue/its-only-the-himalayas_981/index.html</x:t>
   </x:si>
   <x:si>
-    <x:t>To coincide with the 2016 centennial anniversary of the National Parks Service, the Creative Action Network has partnered with the National Parks Conservation Association to revive and reimagine the legacy of WPA travel posters. Artists from all over the world have participated in the creation of this new, crowdsourced collection of See America posters for a modern era. Fe To coincide with the 2016 centennial anniversary of the National Parks Service, the Creative Action Network has partnered with the National Parks Conservation Association to revive and reimagine the legacy of WPA travel posters. Artists from all over the world have participated in the creation of this new, crowdsourced collection of See America posters for a modern era. Featuring artwork for 75 national parks and monuments across all 50 states, this engaging keepsake volume celebrates the full range of our nation's landmarks and treasured wilderness. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f9705c362f070608</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£48.87</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In stock (14 available)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/c7/1a/c71a85dbf8c2dbc75cb271026618477c.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/see-america-a-celebration-of-our-national-parks-treasured-sites_732/index.html</x:t>
-  </x:si>
-  <x:si>
     <x:t>Acclaimed travel writer Rick Antonson sets his adventurous compass on Mount Ararat, exploring the region’s long history, religious mysteries, and complex politics.Mount Ararat is the most fabled mountain in the world. For millennia this massif in eastern Turkey has been rumored as the resting place of Noah’s Ark following the Great Flood. But it also plays a significant ro Acclaimed travel writer Rick Antonson sets his adventurous compass on Mount Ararat, exploring the region’s long history, religious mysteries, and complex politics.Mount Ararat is the most fabled mountain in the world. For millennia this massif in eastern Turkey has been rumored as the resting place of Noah’s Ark following the Great Flood. But it also plays a significant role in the longstanding conflict between Turkey and Armenia.Author Rick Antonson joined a five-member expedition to the mountain’s nearly 17,000-foot summit, trekking alongside a contingent of Armenians, for whom Mount Ararat is the stolen symbol of their country. Antonson weaves vivid historical anecdote with unexpected travel vignettes, whether tracing earlier mountaineering attempts on the peak, recounting the genocide of Armenians and its unresolved debate, or depicting the Kurds’ ambitions for their own nation’s borders, which some say should include Mount Ararat.What unfolds in Full Moon Over Noah’s Ark is one man’s odyssey, a tale told through many stories. Starting with the flooding of the Black Sea in 5600 BCE, through to the Epic of Gilgamesh and the contrasting narratives of the Great Flood known to followers of the Judaic, Christian and Islamic religions, Full Moon Over Noah’s Ark takes readers along with Antonson through the shadows and broad landscapes of Turkey, Iraq, Iran and Armenia, shedding light on a troubled but fascinating area of the world. ...more</x:t>
   </x:si>
   <x:si>
@@ -115,6 +115,60 @@
     <x:t>https://books.toscrape.com/catalogue/full-moon-over-noahs-ark-an-odyssey-to-mount-ararat-and-beyond_811/index.html</x:t>
   </x:si>
   <x:si>
+    <x:t>On her thirtieth birthday, Gwendolyn Reese receives an unexpected present from her widowed Aunt Bea: a grand tour of Europe in the company of Bea's Sudoku and Mahjongg Club. The prospect isn't entirely appealing. But when the gift she is expecting--an engagement ring from her boyfriend--doesn't materialize, Gwen decides to go. At first, Gwen approaches the trip as if it's On her thirtieth birthday, Gwendolyn Reese receives an unexpected present from her widowed Aunt Bea: a grand tour of Europe in the company of Bea's Sudoku and Mahjongg Club. The prospect isn't entirely appealing. But when the gift she is expecting--an engagement ring from her boyfriend--doesn't materialize, Gwen decides to go. At first, Gwen approaches the trip as if it's the math homework she assigns her students, diligently checking monuments off her must-see list. But amid the bougainvillea and stunning vistas of southern Italy, something changes. Gwen begins to live in the moment--skipping down stone staircases in Capri, running her fingers over a glacier in view of the Matterhorn, racing through the Louvre, and taste-testing pastries at a Marseilles cafe. Reveling in every new experience--especially her attraction to a charismatic British physics professor--Gwen discovers that the ancient wonders around her are nothing compared to the renaissance unfolding within. . . "A thinking woman's love story, it swept me away to breathtaking places with a cast of endearing characters I won't soon forget. Bravissima!" Susan McBride, author of "Little Black Dress" Praise for Marilyn Brant's According to Jane "A warm, witty and charmingly original story." --Susan Wiggs, "New York Times " bestselling author "Brant infuses her sweetly romantic and delightfully clever tale with just the right dash of Austen-esque wit." "Chicago Tribune" "An engaging read for all who have been through the long, dark, dating wars, and still believe there's sunshine, and a Mr. Darcy, at the end of the tunnel." --Cathy Lamb, author of "Such a Pretty Face"" ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cc1936a9f4e93477</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£44.34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (7 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/6c/e3/6ce3003931701c7a3fd5354917538ea9.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/a-summer-in-europe_458/index.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>First published more than thirty years ago, Paul Theroux's strange, unique, and hugely entertaining railway odyssey has become a modern classic of travel literature. Here Theroux recounts his early adventures on an unusual grand continental tour. Asia's fabled trains -- the Orient Express, the Khyber Pass Local, the Frontier Mail, the Golden Arrow to Kuala Lumpur, the Mand First published more than thirty years ago, Paul Theroux's strange, unique, and hugely entertaining railway odyssey has become a modern classic of travel literature. Here Theroux recounts his early adventures on an unusual grand continental tour. Asia's fabled trains -- the Orient Express, the Khyber Pass Local, the Frontier Mail, the Golden Arrow to Kuala Lumpur, the Mandalay Express, the Trans-Siberian Express -- are the stars of a journey that takes him on a loop eastbound from London's Victoria Station to Tokyo Central, then back from Japan on the Trans-Siberian. Brimming with Theroux's signature humor and wry observations, this engrossing chronicle is essential reading for both the ardent adventurer and the armchair traveler. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48736df57e7bec9f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£30.54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (6 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/d5/82/d582f6b0261c2842330e893962276295.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/the-great-railway-bazaar_446/index.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>With a new foreword by Tim Ferriss •There’s nothing like vagabonding: taking time off from your normal life—from six weeks to four months to two years—to discover and experience the world on your own terms. In this one-of-a-kind handbook, veteran travel writer Rolf Potts explains how anyone armed with an independent spirit can achieve the dream of extended overseas travel. With a new foreword by Tim Ferriss •&amp;nbsp;There’s nothing like vagabonding: taking time off from your normal life—from six weeks to four months to two years—to discover and experience the world on your own terms. In this one-of-a-kind handbook, veteran travel writer Rolf Potts explains how anyone armed with an independent spirit can achieve the dream of extended overseas travel. Now completely revised and updated, Vagabonding is an accessible and inspiring guide to &amp;nbsp; • financing your travel time • determining your destination • adjusting to life on the road • working and volunteering overseas •&amp;nbsp;handling travel adversity • re-assimilating back into ordinary life &amp;nbsp;Praise for Vagabonding&amp;nbsp; “A crucial reference for any budget wanderer.”—Time&amp;nbsp; “Vagabonding easily remains in my top-10 list of life-changing books. Why? Because one incredible trip, especially a long-term trip, can change your life forever. And Vagabonding teaches you how to travel (and think), not just for one trip, but for the rest of your life.”—Tim Ferriss, from the foreword &amp;nbsp; “The book is a meditation on the joys of hitting the road. . . . It’s also a primer for those with a case of pent-up wanderlust seeking to live the dream.”—USA Today &amp;nbsp; “I couldn’t put this book down. It’s a whole different ethic of travel. . . . [Potts’s] practical advice might just convince you to enjoy that open-ended trip of a lifetime.”—Rick Steves &amp;nbsp; “Potts wants us to wander, to explore, to embrace the unknown, and, finally, to take our own damn time about it. I think this is the most sensible book of travel-related advice ever written.”—Tim Cahill, founding editor of Outside ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1809259a5a5f1d8d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£36.94</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (8 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/ca/30/ca30b1afe1e76ce7ba1db8176d398e53.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/vagabonding-an-uncommon-guide-to-the-art-of-long-term-world-travel_552/index.html</x:t>
+  </x:si>
+  <x:si>
     <x:t>A CLASSIC FROM THE BESTSELLING AUTHOR OF UNDER MAGNOLIAFrances Mayes—widely published poet, gourmet cook, and travel writer—opens the door to a wondrous new world when she buys and restores an abandoned villa in the spectacular Tuscan countryside. In evocative language, she brings the reader along as she discovers the beauty and simplicity of life in Italy. Mayes also crea A CLASSIC FROM THE BESTSELLING AUTHOR OF UNDER MAGNOLIAFrances Mayes—widely published poet, gourmet cook, and travel writer—opens the door to a wondrous new world when she buys and restores an abandoned villa in the spectacular Tuscan countryside. In evocative language, she brings the reader along as she discovers the beauty and simplicity of life in Italy. Mayes also creates dozens of delicious seasonal recipes from her traditional kitchen and simple garden, all of which she includes in the book. Doing for Tuscany what M.F.K. Fisher and Peter Mayle did for Provence, Mayes writes about the tastes and pleasures of a foreign country with gusto and passion. ...more</x:t>
   </x:si>
   <x:si>
@@ -124,31 +178,28 @@
     <x:t>£37.33</x:t>
   </x:si>
   <x:si>
-    <x:t>In stock (7 available)</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://books.toscrape.com/media/cache/45/21/4521c581ba727f5c835e34860cbf53e5.jpg</x:t>
   </x:si>
   <x:si>
     <x:t>https://books.toscrape.com/catalogue/under-the-tuscan-sun_504/index.html</x:t>
   </x:si>
   <x:si>
-    <x:t>With a new foreword by Tim Ferriss •There’s nothing like vagabonding: taking time off from your normal life—from six weeks to four months to two years—to discover and experience the world on your own terms. In this one-of-a-kind handbook, veteran travel writer Rolf Potts explains how anyone armed with an independent spirit can achieve the dream of extended overseas travel. With a new foreword by Tim Ferriss •&amp;nbsp;There’s nothing like vagabonding: taking time off from your normal life—from six weeks to four months to two years—to discover and experience the world on your own terms. In this one-of-a-kind handbook, veteran travel writer Rolf Potts explains how anyone armed with an independent spirit can achieve the dream of extended overseas travel. Now completely revised and updated, Vagabonding is an accessible and inspiring guide to &amp;nbsp; • financing your travel time • determining your destination • adjusting to life on the road • working and volunteering overseas •&amp;nbsp;handling travel adversity • re-assimilating back into ordinary life &amp;nbsp;Praise for Vagabonding&amp;nbsp; “A crucial reference for any budget wanderer.”—Time&amp;nbsp; “Vagabonding easily remains in my top-10 list of life-changing books. Why? Because one incredible trip, especially a long-term trip, can change your life forever. And Vagabonding teaches you how to travel (and think), not just for one trip, but for the rest of your life.”—Tim Ferriss, from the foreword &amp;nbsp; “The book is a meditation on the joys of hitting the road. . . . It’s also a primer for those with a case of pent-up wanderlust seeking to live the dream.”—USA Today &amp;nbsp; “I couldn’t put this book down. It’s a whole different ethic of travel. . . . [Potts’s] practical advice might just convince you to enjoy that open-ended trip of a lifetime.”—Rick Steves &amp;nbsp; “Potts wants us to wander, to explore, to embrace the unknown, and, finally, to take our own damn time about it. I think this is the most sensible book of travel-related advice ever written.”—Tim Cahill, founding editor of Outside ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1809259a5a5f1d8d</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£36.94</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In stock (8 available)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/ca/30/ca30b1afe1e76ce7ba1db8176d398e53.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/vagabonding-an-uncommon-guide-to-the-art-of-long-term-world-travel_552/index.html</x:t>
+    <x:t>The hilarious and loving sequel to a hilarious and loving classic of travel writing: Notes from a Small Island, Bill Bryson’s valentine to his adopted country of EnglandIn 1995 Bill Bryson got into his car and took a weeks-long farewell motoring trip about England before moving his family back to the United States. The book about that trip, Notes from a Small Island, is up The hilarious and loving sequel to a hilarious and loving classic of travel writing: Notes from a Small Island, Bill Bryson’s valentine to his adopted country of EnglandIn 1995 Bill Bryson got into his car and took a weeks-long farewell motoring trip about England before moving his family back to the United States. The book about that trip, Notes from a Small Island, is uproarious and endlessly endearing, one of the most acute and affectionate portrayals of England in all its glorious eccentricity ever written. Two decades later, he set out again to rediscover that country, and the result is The Road to Little Dribbling. Nothing is funnier than Bill Bryson on the road—prepare for the total joy and multiple episodes of unseemly laughter. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>366a236aa1ea6f07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£23.21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (3 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/26/f5/26f5d20239a45046e756c6d09611b3ea.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/the-road-to-little-dribbling-adventures-of-an-american-in-britain-notes-from-a-small-island-2_277/index.html</x:t>
   </x:si>
   <x:si>
     <x:t>National BestsellerIn this witty and warm-hearted account, Peter Mayle tells what it is like to realize a long-cherished dream and actually move into a 200-year-old stone farmhouse in the remote country of the Lubéron with his wife and two large dogs. He endures January's frosty mistral as it comes howling down the Rhône Valley, discovers the secrets of goat racing through National Bestseller&amp;nbsp;In this witty and warm-hearted account, Peter Mayle tells what it is like to realize a long-cherished dream and actually move into a 200-year-old stone farmhouse in the remote country of the Lubéron with his wife and two large dogs. He endures January's frosty mistral as it comes howling down the Rhône Valley, discovers the secrets of goat racing through the middle of town, and delights in the glorious regional cuisine. A Year in Provence transports us into all the earthy pleasures of Provençal life and lets us live vicariously at a tempo governed by seasons, not by days. ...more</x:t>
@@ -160,46 +211,28 @@
     <x:t>£56.88</x:t>
   </x:si>
   <x:si>
-    <x:t>In stock (6 available)</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://books.toscrape.com/media/cache/8b/81/8b81cd9b2c8f89a12099a80bed1c4911.jpg</x:t>
   </x:si>
   <x:si>
     <x:t>https://books.toscrape.com/catalogue/a-year-in-provence-provence-1_421/index.html</x:t>
   </x:si>
   <x:si>
-    <x:t>On her thirtieth birthday, Gwendolyn Reese receives an unexpected present from her widowed Aunt Bea: a grand tour of Europe in the company of Bea's Sudoku and Mahjongg Club. The prospect isn't entirely appealing. But when the gift she is expecting--an engagement ring from her boyfriend--doesn't materialize, Gwen decides to go. At first, Gwen approaches the trip as if it's On her thirtieth birthday, Gwendolyn Reese receives an unexpected present from her widowed Aunt Bea: a grand tour of Europe in the company of Bea's Sudoku and Mahjongg Club. The prospect isn't entirely appealing. But when the gift she is expecting--an engagement ring from her boyfriend--doesn't materialize, Gwen decides to go. At first, Gwen approaches the trip as if it's the math homework she assigns her students, diligently checking monuments off her must-see list. But amid the bougainvillea and stunning vistas of southern Italy, something changes. Gwen begins to live in the moment--skipping down stone staircases in Capri, running her fingers over a glacier in view of the Matterhorn, racing through the Louvre, and taste-testing pastries at a Marseilles cafe. Reveling in every new experience--especially her attraction to a charismatic British physics professor--Gwen discovers that the ancient wonders around her are nothing compared to the renaissance unfolding within. . . "A thinking woman's love story, it swept me away to breathtaking places with a cast of endearing characters I won't soon forget. Bravissima!" Susan McBride, author of "Little Black Dress" Praise for Marilyn Brant's According to Jane "A warm, witty and charmingly original story." --Susan Wiggs, "New York Times " bestselling author "Brant infuses her sweetly romantic and delightfully clever tale with just the right dash of Austen-esque wit." "Chicago Tribune" "An engaging read for all who have been through the long, dark, dating wars, and still believe there's sunshine, and a Mr. Darcy, at the end of the tunnel." --Cathy Lamb, author of "Such a Pretty Face"" ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cc1936a9f4e93477</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£44.34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/6c/e3/6ce3003931701c7a3fd5354917538ea9.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/a-summer-in-europe_458/index.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The hilarious and loving sequel to a hilarious and loving classic of travel writing: Notes from a Small Island, Bill Bryson’s valentine to his adopted country of EnglandIn 1995 Bill Bryson got into his car and took a weeks-long farewell motoring trip about England before moving his family back to the United States. The book about that trip, Notes from a Small Island, is up The hilarious and loving sequel to a hilarious and loving classic of travel writing: Notes from a Small Island, Bill Bryson’s valentine to his adopted country of EnglandIn 1995 Bill Bryson got into his car and took a weeks-long farewell motoring trip about England before moving his family back to the United States. The book about that trip, Notes from a Small Island, is uproarious and endlessly endearing, one of the most acute and affectionate portrayals of England in all its glorious eccentricity ever written. Two decades later, he set out again to rediscover that country, and the result is The Road to Little Dribbling. Nothing is funnier than Bill Bryson on the road—prepare for the total joy and multiple episodes of unseemly laughter. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>366a236aa1ea6f07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£23.21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In stock (3 available)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/26/f5/26f5d20239a45046e756c6d09611b3ea.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/the-road-to-little-dribbling-adventures-of-an-american-in-britain-notes-from-a-small-island-2_277/index.html</x:t>
+    <x:t>Around the World, continent by continent, here is the best the world has to offer: 1,000 places guaranteed to give travelers the shivers. Sacred ruins, grand hotels, wildlife preserves, hilltop villages, snack shacks, castles, festivals, reefs, restaurants, cathedrals, hidden islands, opera houses, museums, and more. Each entry tells exactly why it's essential to visit. Th Around the World, continent by continent, here is the best the world has to offer: 1,000 places guaranteed to give travelers the shivers. Sacred ruins, grand hotels, wildlife preserves, hilltop villages, snack shacks, castles, festivals, reefs, restaurants, cathedrals, hidden islands, opera houses, museums, and more. Each entry tells exactly why it's essential to visit. Then come the nuts and bolts: addresses, websites, phone and fax numbers, best times to visit. Stop dreaming and get going.This hefty volume reminds vacationers that hot tourist spots are small percentage of what's worth seeing out there. A quick sampling: Venice's Cipriani Hotel; California's Monterey Peninsula; the Lewis and Clark Trail in Oregon; the Great Wall of China; Robert Louis Stevenson's home in Western Samoa; and the Alhambra in Andalusia, Spain. Veteran travel guide writer Schultz divides the book geographically, presenting a little less than a page on each location. Each entry lists exactly where to find the spot (e.g. Moorea is located "12 miles/19 km northwest of Tahiti; 10 minutes by air, 1 hour by boat") and when to go (e.g., if you want to check out The Complete Fly Fisher hotel in Montana, "May and Sept.-Oct. offer productive angling in a solitary setting"). This is an excellent resource for the intrepid traveler.Copyright 2003 Reed Business Information, Inc. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>228ba5e7577e1d49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£26.08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (1 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/9e/10/9e106f81f65b293e488718a4f54a6a3f.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/1000-places-to-see-before-you-die_1/index.html</x:t>
   </x:si>
   <x:si>
     <x:t>Bill Bryson's first travel book, The Lost Continent, was unanimously acclaimed as one of the funniest books in years. In Neither Here nor There he brings his unique brand of humour to bear on Europe as he shoulders his backpack, keeps a tight hold on his wallet, and journeys from Hammerfest, the northernmost town on the continent, to Istanbul on the cusp of Asia. Fluent in Bill Bryson's first travel book, The Lost Continent, was unanimously acclaimed as one of the funniest books in years. In Neither Here nor There he brings his unique brand of humour to bear on Europe as he shoulders his backpack, keeps a tight hold on his wallet, and journeys from Hammerfest, the northernmost town on the continent, to Istanbul on the cusp of Asia. Fluent in, oh, at least one language, he retraces his travels as a student twenty years before.Whether braving the homicidal motorist of Paris, being robbed by gypsies in Florence, attempting not to order tripe and eyeballs in a German restaurant, window-shopping in the sex shops of the Reeperbahn or disputing his hotel bill in Copenhagen, Bryson takes in the sights, dissects the culture and illuminates each place and person with his hilariously caustic observations. He even goes to Liechtenstein. ...more</x:t>
@@ -215,39 +248,6 @@
   </x:si>
   <x:si>
     <x:t>https://books.toscrape.com/catalogue/neither-here-nor-there-travels-in-europe_198/index.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>First published more than thirty years ago, Paul Theroux's strange, unique, and hugely entertaining railway odyssey has become a modern classic of travel literature. Here Theroux recounts his early adventures on an unusual grand continental tour. Asia's fabled trains -- the Orient Express, the Khyber Pass Local, the Frontier Mail, the Golden Arrow to Kuala Lumpur, the Mand First published more than thirty years ago, Paul Theroux's strange, unique, and hugely entertaining railway odyssey has become a modern classic of travel literature. Here Theroux recounts his early adventures on an unusual grand continental tour. Asia's fabled trains -- the Orient Express, the Khyber Pass Local, the Frontier Mail, the Golden Arrow to Kuala Lumpur, the Mandalay Express, the Trans-Siberian Express -- are the stars of a journey that takes him on a loop eastbound from London's Victoria Station to Tokyo Central, then back from Japan on the Trans-Siberian. Brimming with Theroux's signature humor and wry observations, this engrossing chronicle is essential reading for both the ardent adventurer and the armchair traveler. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48736df57e7bec9f</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£30.54</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/d5/82/d582f6b0261c2842330e893962276295.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/the-great-railway-bazaar_446/index.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Around the World, continent by continent, here is the best the world has to offer: 1,000 places guaranteed to give travelers the shivers. Sacred ruins, grand hotels, wildlife preserves, hilltop villages, snack shacks, castles, festivals, reefs, restaurants, cathedrals, hidden islands, opera houses, museums, and more. Each entry tells exactly why it's essential to visit. Th Around the World, continent by continent, here is the best the world has to offer: 1,000 places guaranteed to give travelers the shivers. Sacred ruins, grand hotels, wildlife preserves, hilltop villages, snack shacks, castles, festivals, reefs, restaurants, cathedrals, hidden islands, opera houses, museums, and more. Each entry tells exactly why it's essential to visit. Then come the nuts and bolts: addresses, websites, phone and fax numbers, best times to visit. Stop dreaming and get going.This hefty volume reminds vacationers that hot tourist spots are small percentage of what's worth seeing out there. A quick sampling: Venice's Cipriani Hotel; California's Monterey Peninsula; the Lewis and Clark Trail in Oregon; the Great Wall of China; Robert Louis Stevenson's home in Western Samoa; and the Alhambra in Andalusia, Spain. Veteran travel guide writer Schultz divides the book geographically, presenting a little less than a page on each location. Each entry lists exactly where to find the spot (e.g. Moorea is located "12 miles/19 km northwest of Tahiti; 10 minutes by air, 1 hour by boat") and when to go (e.g., if you want to check out The Complete Fly Fisher hotel in Montana, "May and Sept.-Oct. offer productive angling in a solitary setting"). This is an excellent resource for the intrepid traveler.Copyright 2003 Reed Business Information, Inc. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>228ba5e7577e1d49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£26.08</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In stock (1 available)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/9e/10/9e106f81f65b293e488718a4f54a6a3f.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/1000-places-to-see-before-you-die_1/index.html</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -948,7 +948,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s">
         <x:v>18</x:v>
@@ -983,42 +983,42 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="J11" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="K11" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:11">
       <x:c r="A12" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="H12" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s">
         <x:v>18</x:v>

--- a/page-data-excel/books/books.xlsx
+++ b/page-data-excel/books/books.xlsx
@@ -97,6 +97,24 @@
     <x:t>https://books.toscrape.com/catalogue/its-only-the-himalayas_981/index.html</x:t>
   </x:si>
   <x:si>
+    <x:t>On her thirtieth birthday, Gwendolyn Reese receives an unexpected present from her widowed Aunt Bea: a grand tour of Europe in the company of Bea's Sudoku and Mahjongg Club. The prospect isn't entirely appealing. But when the gift she is expecting--an engagement ring from her boyfriend--doesn't materialize, Gwen decides to go. At first, Gwen approaches the trip as if it's On her thirtieth birthday, Gwendolyn Reese receives an unexpected present from her widowed Aunt Bea: a grand tour of Europe in the company of Bea's Sudoku and Mahjongg Club. The prospect isn't entirely appealing. But when the gift she is expecting--an engagement ring from her boyfriend--doesn't materialize, Gwen decides to go. At first, Gwen approaches the trip as if it's the math homework she assigns her students, diligently checking monuments off her must-see list. But amid the bougainvillea and stunning vistas of southern Italy, something changes. Gwen begins to live in the moment--skipping down stone staircases in Capri, running her fingers over a glacier in view of the Matterhorn, racing through the Louvre, and taste-testing pastries at a Marseilles cafe. Reveling in every new experience--especially her attraction to a charismatic British physics professor--Gwen discovers that the ancient wonders around her are nothing compared to the renaissance unfolding within. . . "A thinking woman's love story, it swept me away to breathtaking places with a cast of endearing characters I won't soon forget. Bravissima!" Susan McBride, author of "Little Black Dress" Praise for Marilyn Brant's According to Jane "A warm, witty and charmingly original story." --Susan Wiggs, "New York Times " bestselling author "Brant infuses her sweetly romantic and delightfully clever tale with just the right dash of Austen-esque wit." "Chicago Tribune" "An engaging read for all who have been through the long, dark, dating wars, and still believe there's sunshine, and a Mr. Darcy, at the end of the tunnel." --Cathy Lamb, author of "Such a Pretty Face"" ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cc1936a9f4e93477</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£44.34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (7 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/6c/e3/6ce3003931701c7a3fd5354917538ea9.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/a-summer-in-europe_458/index.html</x:t>
+  </x:si>
+  <x:si>
     <x:t>Acclaimed travel writer Rick Antonson sets his adventurous compass on Mount Ararat, exploring the region’s long history, religious mysteries, and complex politics.Mount Ararat is the most fabled mountain in the world. For millennia this massif in eastern Turkey has been rumored as the resting place of Noah’s Ark following the Great Flood. But it also plays a significant ro Acclaimed travel writer Rick Antonson sets his adventurous compass on Mount Ararat, exploring the region’s long history, religious mysteries, and complex politics.Mount Ararat is the most fabled mountain in the world. For millennia this massif in eastern Turkey has been rumored as the resting place of Noah’s Ark following the Great Flood. But it also plays a significant role in the longstanding conflict between Turkey and Armenia.Author Rick Antonson joined a five-member expedition to the mountain’s nearly 17,000-foot summit, trekking alongside a contingent of Armenians, for whom Mount Ararat is the stolen symbol of their country. Antonson weaves vivid historical anecdote with unexpected travel vignettes, whether tracing earlier mountaineering attempts on the peak, recounting the genocide of Armenians and its unresolved debate, or depicting the Kurds’ ambitions for their own nation’s borders, which some say should include Mount Ararat.What unfolds in Full Moon Over Noah’s Ark is one man’s odyssey, a tale told through many stories. Starting with the flooding of the Black Sea in 5600 BCE, through to the Epic of Gilgamesh and the contrasting narratives of the Great Flood known to followers of the Judaic, Christian and Islamic religions, Full Moon Over Noah’s Ark takes readers along with Antonson through the shadows and broad landscapes of Turkey, Iraq, Iran and Armenia, shedding light on a troubled but fascinating area of the world. ...more</x:t>
   </x:si>
   <x:si>
@@ -115,22 +133,22 @@
     <x:t>https://books.toscrape.com/catalogue/full-moon-over-noahs-ark-an-odyssey-to-mount-ararat-and-beyond_811/index.html</x:t>
   </x:si>
   <x:si>
-    <x:t>On her thirtieth birthday, Gwendolyn Reese receives an unexpected present from her widowed Aunt Bea: a grand tour of Europe in the company of Bea's Sudoku and Mahjongg Club. The prospect isn't entirely appealing. But when the gift she is expecting--an engagement ring from her boyfriend--doesn't materialize, Gwen decides to go. At first, Gwen approaches the trip as if it's On her thirtieth birthday, Gwendolyn Reese receives an unexpected present from her widowed Aunt Bea: a grand tour of Europe in the company of Bea's Sudoku and Mahjongg Club. The prospect isn't entirely appealing. But when the gift she is expecting--an engagement ring from her boyfriend--doesn't materialize, Gwen decides to go. At first, Gwen approaches the trip as if it's the math homework she assigns her students, diligently checking monuments off her must-see list. But amid the bougainvillea and stunning vistas of southern Italy, something changes. Gwen begins to live in the moment--skipping down stone staircases in Capri, running her fingers over a glacier in view of the Matterhorn, racing through the Louvre, and taste-testing pastries at a Marseilles cafe. Reveling in every new experience--especially her attraction to a charismatic British physics professor--Gwen discovers that the ancient wonders around her are nothing compared to the renaissance unfolding within. . . "A thinking woman's love story, it swept me away to breathtaking places with a cast of endearing characters I won't soon forget. Bravissima!" Susan McBride, author of "Little Black Dress" Praise for Marilyn Brant's According to Jane "A warm, witty and charmingly original story." --Susan Wiggs, "New York Times " bestselling author "Brant infuses her sweetly romantic and delightfully clever tale with just the right dash of Austen-esque wit." "Chicago Tribune" "An engaging read for all who have been through the long, dark, dating wars, and still believe there's sunshine, and a Mr. Darcy, at the end of the tunnel." --Cathy Lamb, author of "Such a Pretty Face"" ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cc1936a9f4e93477</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£44.34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In stock (7 available)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/6c/e3/6ce3003931701c7a3fd5354917538ea9.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/a-summer-in-europe_458/index.html</x:t>
+    <x:t>With a new foreword by Tim Ferriss •There’s nothing like vagabonding: taking time off from your normal life—from six weeks to four months to two years—to discover and experience the world on your own terms. In this one-of-a-kind handbook, veteran travel writer Rolf Potts explains how anyone armed with an independent spirit can achieve the dream of extended overseas travel. With a new foreword by Tim Ferriss •&amp;nbsp;There’s nothing like vagabonding: taking time off from your normal life—from six weeks to four months to two years—to discover and experience the world on your own terms. In this one-of-a-kind handbook, veteran travel writer Rolf Potts explains how anyone armed with an independent spirit can achieve the dream of extended overseas travel. Now completely revised and updated, Vagabonding is an accessible and inspiring guide to &amp;nbsp; • financing your travel time • determining your destination • adjusting to life on the road • working and volunteering overseas •&amp;nbsp;handling travel adversity • re-assimilating back into ordinary life &amp;nbsp;Praise for Vagabonding&amp;nbsp; “A crucial reference for any budget wanderer.”—Time&amp;nbsp; “Vagabonding easily remains in my top-10 list of life-changing books. Why? Because one incredible trip, especially a long-term trip, can change your life forever. And Vagabonding teaches you how to travel (and think), not just for one trip, but for the rest of your life.”—Tim Ferriss, from the foreword &amp;nbsp; “The book is a meditation on the joys of hitting the road. . . . It’s also a primer for those with a case of pent-up wanderlust seeking to live the dream.”—USA Today &amp;nbsp; “I couldn’t put this book down. It’s a whole different ethic of travel. . . . [Potts’s] practical advice might just convince you to enjoy that open-ended trip of a lifetime.”—Rick Steves &amp;nbsp; “Potts wants us to wander, to explore, to embrace the unknown, and, finally, to take our own damn time about it. I think this is the most sensible book of travel-related advice ever written.”—Tim Cahill, founding editor of Outside ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1809259a5a5f1d8d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£36.94</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (8 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/ca/30/ca30b1afe1e76ce7ba1db8176d398e53.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/vagabonding-an-uncommon-guide-to-the-art-of-long-term-world-travel_552/index.html</x:t>
   </x:si>
   <x:si>
     <x:t>First published more than thirty years ago, Paul Theroux's strange, unique, and hugely entertaining railway odyssey has become a modern classic of travel literature. Here Theroux recounts his early adventures on an unusual grand continental tour. Asia's fabled trains -- the Orient Express, the Khyber Pass Local, the Frontier Mail, the Golden Arrow to Kuala Lumpur, the Mand First published more than thirty years ago, Paul Theroux's strange, unique, and hugely entertaining railway odyssey has become a modern classic of travel literature. Here Theroux recounts his early adventures on an unusual grand continental tour. Asia's fabled trains -- the Orient Express, the Khyber Pass Local, the Frontier Mail, the Golden Arrow to Kuala Lumpur, the Mandalay Express, the Trans-Siberian Express -- are the stars of a journey that takes him on a loop eastbound from London's Victoria Station to Tokyo Central, then back from Japan on the Trans-Siberian. Brimming with Theroux's signature humor and wry observations, this engrossing chronicle is essential reading for both the ardent adventurer and the armchair traveler. ...more</x:t>
@@ -151,24 +169,6 @@
     <x:t>https://books.toscrape.com/catalogue/the-great-railway-bazaar_446/index.html</x:t>
   </x:si>
   <x:si>
-    <x:t>With a new foreword by Tim Ferriss •There’s nothing like vagabonding: taking time off from your normal life—from six weeks to four months to two years—to discover and experience the world on your own terms. In this one-of-a-kind handbook, veteran travel writer Rolf Potts explains how anyone armed with an independent spirit can achieve the dream of extended overseas travel. With a new foreword by Tim Ferriss •&amp;nbsp;There’s nothing like vagabonding: taking time off from your normal life—from six weeks to four months to two years—to discover and experience the world on your own terms. In this one-of-a-kind handbook, veteran travel writer Rolf Potts explains how anyone armed with an independent spirit can achieve the dream of extended overseas travel. Now completely revised and updated, Vagabonding is an accessible and inspiring guide to &amp;nbsp; • financing your travel time • determining your destination • adjusting to life on the road • working and volunteering overseas •&amp;nbsp;handling travel adversity • re-assimilating back into ordinary life &amp;nbsp;Praise for Vagabonding&amp;nbsp; “A crucial reference for any budget wanderer.”—Time&amp;nbsp; “Vagabonding easily remains in my top-10 list of life-changing books. Why? Because one incredible trip, especially a long-term trip, can change your life forever. And Vagabonding teaches you how to travel (and think), not just for one trip, but for the rest of your life.”—Tim Ferriss, from the foreword &amp;nbsp; “The book is a meditation on the joys of hitting the road. . . . It’s also a primer for those with a case of pent-up wanderlust seeking to live the dream.”—USA Today &amp;nbsp; “I couldn’t put this book down. It’s a whole different ethic of travel. . . . [Potts’s] practical advice might just convince you to enjoy that open-ended trip of a lifetime.”—Rick Steves &amp;nbsp; “Potts wants us to wander, to explore, to embrace the unknown, and, finally, to take our own damn time about it. I think this is the most sensible book of travel-related advice ever written.”—Tim Cahill, founding editor of Outside ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1809259a5a5f1d8d</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£36.94</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In stock (8 available)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/ca/30/ca30b1afe1e76ce7ba1db8176d398e53.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/vagabonding-an-uncommon-guide-to-the-art-of-long-term-world-travel_552/index.html</x:t>
-  </x:si>
-  <x:si>
     <x:t>A CLASSIC FROM THE BESTSELLING AUTHOR OF UNDER MAGNOLIAFrances Mayes—widely published poet, gourmet cook, and travel writer—opens the door to a wondrous new world when she buys and restores an abandoned villa in the spectacular Tuscan countryside. In evocative language, she brings the reader along as she discovers the beauty and simplicity of life in Italy. Mayes also crea A CLASSIC FROM THE BESTSELLING AUTHOR OF UNDER MAGNOLIAFrances Mayes—widely published poet, gourmet cook, and travel writer—opens the door to a wondrous new world when she buys and restores an abandoned villa in the spectacular Tuscan countryside. In evocative language, she brings the reader along as she discovers the beauty and simplicity of life in Italy. Mayes also creates dozens of delicious seasonal recipes from her traditional kitchen and simple garden, all of which she includes in the book. Doing for Tuscany what M.F.K. Fisher and Peter Mayle did for Provence, Mayes writes about the tastes and pleasures of a foreign country with gusto and passion. ...more</x:t>
   </x:si>
   <x:si>
@@ -184,6 +184,39 @@
     <x:t>https://books.toscrape.com/catalogue/under-the-tuscan-sun_504/index.html</x:t>
   </x:si>
   <x:si>
+    <x:t>Around the World, continent by continent, here is the best the world has to offer: 1,000 places guaranteed to give travelers the shivers. Sacred ruins, grand hotels, wildlife preserves, hilltop villages, snack shacks, castles, festivals, reefs, restaurants, cathedrals, hidden islands, opera houses, museums, and more. Each entry tells exactly why it's essential to visit. Th Around the World, continent by continent, here is the best the world has to offer: 1,000 places guaranteed to give travelers the shivers. Sacred ruins, grand hotels, wildlife preserves, hilltop villages, snack shacks, castles, festivals, reefs, restaurants, cathedrals, hidden islands, opera houses, museums, and more. Each entry tells exactly why it's essential to visit. Then come the nuts and bolts: addresses, websites, phone and fax numbers, best times to visit. Stop dreaming and get going.This hefty volume reminds vacationers that hot tourist spots are small percentage of what's worth seeing out there. A quick sampling: Venice's Cipriani Hotel; California's Monterey Peninsula; the Lewis and Clark Trail in Oregon; the Great Wall of China; Robert Louis Stevenson's home in Western Samoa; and the Alhambra in Andalusia, Spain. Veteran travel guide writer Schultz divides the book geographically, presenting a little less than a page on each location. Each entry lists exactly where to find the spot (e.g. Moorea is located "12 miles/19 km northwest of Tahiti; 10 minutes by air, 1 hour by boat") and when to go (e.g., if you want to check out The Complete Fly Fisher hotel in Montana, "May and Sept.-Oct. offer productive angling in a solitary setting"). This is an excellent resource for the intrepid traveler.Copyright 2003 Reed Business Information, Inc. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>228ba5e7577e1d49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£26.08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (1 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/9e/10/9e106f81f65b293e488718a4f54a6a3f.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/1000-places-to-see-before-you-die_1/index.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>National BestsellerIn this witty and warm-hearted account, Peter Mayle tells what it is like to realize a long-cherished dream and actually move into a 200-year-old stone farmhouse in the remote country of the Lubéron with his wife and two large dogs. He endures January's frosty mistral as it comes howling down the Rhône Valley, discovers the secrets of goat racing through National Bestseller&amp;nbsp;In this witty and warm-hearted account, Peter Mayle tells what it is like to realize a long-cherished dream and actually move into a 200-year-old stone farmhouse in the remote country of the Lubéron with his wife and two large dogs. He endures January's frosty mistral as it comes howling down the Rhône Valley, discovers the secrets of goat racing through the middle of town, and delights in the glorious regional cuisine. A Year in Provence transports us into all the earthy pleasures of Provençal life and lets us live vicariously at a tempo governed by seasons, not by days. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9e60929f521fa280</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£56.88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/8b/81/8b81cd9b2c8f89a12099a80bed1c4911.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/a-year-in-provence-provence-1_421/index.html</x:t>
+  </x:si>
+  <x:si>
     <x:t>The hilarious and loving sequel to a hilarious and loving classic of travel writing: Notes from a Small Island, Bill Bryson’s valentine to his adopted country of EnglandIn 1995 Bill Bryson got into his car and took a weeks-long farewell motoring trip about England before moving his family back to the United States. The book about that trip, Notes from a Small Island, is up The hilarious and loving sequel to a hilarious and loving classic of travel writing: Notes from a Small Island, Bill Bryson’s valentine to his adopted country of EnglandIn 1995 Bill Bryson got into his car and took a weeks-long farewell motoring trip about England before moving his family back to the United States. The book about that trip, Notes from a Small Island, is uproarious and endlessly endearing, one of the most acute and affectionate portrayals of England in all its glorious eccentricity ever written. Two decades later, he set out again to rediscover that country, and the result is The Road to Little Dribbling. Nothing is funnier than Bill Bryson on the road—prepare for the total joy and multiple episodes of unseemly laughter. ...more</x:t>
   </x:si>
   <x:si>
@@ -200,39 +233,6 @@
   </x:si>
   <x:si>
     <x:t>https://books.toscrape.com/catalogue/the-road-to-little-dribbling-adventures-of-an-american-in-britain-notes-from-a-small-island-2_277/index.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>National BestsellerIn this witty and warm-hearted account, Peter Mayle tells what it is like to realize a long-cherished dream and actually move into a 200-year-old stone farmhouse in the remote country of the Lubéron with his wife and two large dogs. He endures January's frosty mistral as it comes howling down the Rhône Valley, discovers the secrets of goat racing through National Bestseller&amp;nbsp;In this witty and warm-hearted account, Peter Mayle tells what it is like to realize a long-cherished dream and actually move into a 200-year-old stone farmhouse in the remote country of the Lubéron with his wife and two large dogs. He endures January's frosty mistral as it comes howling down the Rhône Valley, discovers the secrets of goat racing through the middle of town, and delights in the glorious regional cuisine. A Year in Provence transports us into all the earthy pleasures of Provençal life and lets us live vicariously at a tempo governed by seasons, not by days. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9e60929f521fa280</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£56.88</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/8b/81/8b81cd9b2c8f89a12099a80bed1c4911.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/a-year-in-provence-provence-1_421/index.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Around the World, continent by continent, here is the best the world has to offer: 1,000 places guaranteed to give travelers the shivers. Sacred ruins, grand hotels, wildlife preserves, hilltop villages, snack shacks, castles, festivals, reefs, restaurants, cathedrals, hidden islands, opera houses, museums, and more. Each entry tells exactly why it's essential to visit. Th Around the World, continent by continent, here is the best the world has to offer: 1,000 places guaranteed to give travelers the shivers. Sacred ruins, grand hotels, wildlife preserves, hilltop villages, snack shacks, castles, festivals, reefs, restaurants, cathedrals, hidden islands, opera houses, museums, and more. Each entry tells exactly why it's essential to visit. Then come the nuts and bolts: addresses, websites, phone and fax numbers, best times to visit. Stop dreaming and get going.This hefty volume reminds vacationers that hot tourist spots are small percentage of what's worth seeing out there. A quick sampling: Venice's Cipriani Hotel; California's Monterey Peninsula; the Lewis and Clark Trail in Oregon; the Great Wall of China; Robert Louis Stevenson's home in Western Samoa; and the Alhambra in Andalusia, Spain. Veteran travel guide writer Schultz divides the book geographically, presenting a little less than a page on each location. Each entry lists exactly where to find the spot (e.g. Moorea is located "12 miles/19 km northwest of Tahiti; 10 minutes by air, 1 hour by boat") and when to go (e.g., if you want to check out The Complete Fly Fisher hotel in Montana, "May and Sept.-Oct. offer productive angling in a solitary setting"). This is an excellent resource for the intrepid traveler.Copyright 2003 Reed Business Information, Inc. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>228ba5e7577e1d49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£26.08</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In stock (1 available)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/9e/10/9e106f81f65b293e488718a4f54a6a3f.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/1000-places-to-see-before-you-die_1/index.html</x:t>
   </x:si>
   <x:si>
     <x:t>Bill Bryson's first travel book, The Lost Continent, was unanimously acclaimed as one of the funniest books in years. In Neither Here nor There he brings his unique brand of humour to bear on Europe as he shoulders his backpack, keeps a tight hold on his wallet, and journeys from Hammerfest, the northernmost town on the continent, to Istanbul on the cusp of Asia. Fluent in Bill Bryson's first travel book, The Lost Continent, was unanimously acclaimed as one of the funniest books in years. In Neither Here nor There he brings his unique brand of humour to bear on Europe as he shoulders his backpack, keeps a tight hold on his wallet, and journeys from Hammerfest, the northernmost town on the continent, to Istanbul on the cusp of Asia. Fluent in, oh, at least one language, he retraces his travels as a student twenty years before.Whether braving the homicidal motorist of Paris, being robbed by gypsies in Florence, attempting not to order tripe and eyeballs in a German restaurant, window-shopping in the sex shops of the Reeperbahn or disputing his hotel bill in Copenhagen, Bryson takes in the sights, dissects the culture and illuminates each place and person with his hilariously caustic observations. He even goes to Liechtenstein. ...more</x:t>
@@ -878,7 +878,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s">
         <x:v>18</x:v>
@@ -948,7 +948,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s">
         <x:v>18</x:v>
@@ -1018,7 +1018,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H12" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s">
         <x:v>18</x:v>

--- a/page-data-excel/books/books.xlsx
+++ b/page-data-excel/books/books.xlsx
@@ -49,52 +49,124 @@
     <x:t>url</x:t>
   </x:si>
   <x:si>
+    <x:t>“Wherever you go, whatever you do, just . . . don’t do anything stupid.” —My MotherDuring her yearlong adventure backpacking from South Africa to Singapore, S. Bedford definitely did a few things her mother might classify as "stupid." She swam with great white sharks in South Africa, ran from lions in Zimbabwe, climbed a Himalayan mountain without training in Nepal, and wa “Wherever you go, whatever you do, just . . . don’t do anything stupid.” —My MotherDuring her yearlong adventure backpacking from South Africa to Singapore, S. Bedford definitely did a few things her mother might classify as "stupid." She swam with great white sharks in South Africa, ran from lions in Zimbabwe, climbed a Himalayan mountain without training in Nepal, and watched as her friend was attacked by a monkey in Indonesia.But interspersed in those slightly more crazy moments, Sue Bedfored and her friend "Sara the Stoic" experienced the sights, sounds, life, and culture of fifteen countries. Joined along the way by a few friends and their aging fathers here and there, Sue and Sara experience the trip of a lifetime. They fall in love with the world, cultivate an appreciation for home, and discover who, or what, they want to become.It's Only the Himalayas is the incredibly funny, sometimes outlandish, always entertaining confession of a young backpacker that will inspire you to take your own adventure. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Travel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a22124811bfa8350</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Books</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£45.17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£0.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (19 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/6d/41/6d418a73cc7d4ecfd75ca11d854041db.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/its-only-the-himalayas_981/index.html</x:t>
+  </x:si>
+  <x:si>
     <x:t>To coincide with the 2016 centennial anniversary of the National Parks Service, the Creative Action Network has partnered with the National Parks Conservation Association to revive and reimagine the legacy of WPA travel posters. Artists from all over the world have participated in the creation of this new, crowdsourced collection of See America posters for a modern era. Fe To coincide with the 2016 centennial anniversary of the National Parks Service, the Creative Action Network has partnered with the National Parks Conservation Association to revive and reimagine the legacy of WPA travel posters. Artists from all over the world have participated in the creation of this new, crowdsourced collection of See America posters for a modern era. Featuring artwork for 75 national parks and monuments across all 50 states, this engaging keepsake volume celebrates the full range of our nation's landmarks and treasured wilderness. ...more</x:t>
   </x:si>
   <x:si>
-    <x:t>Travel</x:t>
-  </x:si>
-  <x:si>
     <x:t>f9705c362f070608</x:t>
   </x:si>
   <x:si>
-    <x:t>Books</x:t>
-  </x:si>
-  <x:si>
     <x:t>£48.87</x:t>
   </x:si>
   <x:si>
-    <x:t>£0.00</x:t>
-  </x:si>
-  <x:si>
     <x:t>In stock (14 available)</x:t>
   </x:si>
   <x:si>
-    <x:t>0</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://books.toscrape.com/media/cache/c7/1a/c71a85dbf8c2dbc75cb271026618477c.jpg</x:t>
   </x:si>
   <x:si>
     <x:t>https://books.toscrape.com/catalogue/see-america-a-celebration-of-our-national-parks-treasured-sites_732/index.html</x:t>
   </x:si>
   <x:si>
-    <x:t>“Wherever you go, whatever you do, just . . . don’t do anything stupid.” —My MotherDuring her yearlong adventure backpacking from South Africa to Singapore, S. Bedford definitely did a few things her mother might classify as "stupid." She swam with great white sharks in South Africa, ran from lions in Zimbabwe, climbed a Himalayan mountain without training in Nepal, and wa “Wherever you go, whatever you do, just . . . don’t do anything stupid.” —My MotherDuring her yearlong adventure backpacking from South Africa to Singapore, S. Bedford definitely did a few things her mother might classify as "stupid." She swam with great white sharks in South Africa, ran from lions in Zimbabwe, climbed a Himalayan mountain without training in Nepal, and watched as her friend was attacked by a monkey in Indonesia.But interspersed in those slightly more crazy moments, Sue Bedfored and her friend "Sara the Stoic" experienced the sights, sounds, life, and culture of fifteen countries. Joined along the way by a few friends and their aging fathers here and there, Sue and Sara experience the trip of a lifetime. They fall in love with the world, cultivate an appreciation for home, and discover who, or what, they want to become.It's Only the Himalayas is the incredibly funny, sometimes outlandish, always entertaining confession of a young backpacker that will inspire you to take your own adventure. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>a22124811bfa8350</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£45.17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In stock (19 available)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/6d/41/6d418a73cc7d4ecfd75ca11d854041db.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/its-only-the-himalayas_981/index.html</x:t>
+    <x:t>Acclaimed travel writer Rick Antonson sets his adventurous compass on Mount Ararat, exploring the region’s long history, religious mysteries, and complex politics.Mount Ararat is the most fabled mountain in the world. For millennia this massif in eastern Turkey has been rumored as the resting place of Noah’s Ark following the Great Flood. But it also plays a significant ro Acclaimed travel writer Rick Antonson sets his adventurous compass on Mount Ararat, exploring the region’s long history, religious mysteries, and complex politics.Mount Ararat is the most fabled mountain in the world. For millennia this massif in eastern Turkey has been rumored as the resting place of Noah’s Ark following the Great Flood. But it also plays a significant role in the longstanding conflict between Turkey and Armenia.Author Rick Antonson joined a five-member expedition to the mountain’s nearly 17,000-foot summit, trekking alongside a contingent of Armenians, for whom Mount Ararat is the stolen symbol of their country. Antonson weaves vivid historical anecdote with unexpected travel vignettes, whether tracing earlier mountaineering attempts on the peak, recounting the genocide of Armenians and its unresolved debate, or depicting the Kurds’ ambitions for their own nation’s borders, which some say should include Mount Ararat.What unfolds in Full Moon Over Noah’s Ark is one man’s odyssey, a tale told through many stories. Starting with the flooding of the Black Sea in 5600 BCE, through to the Epic of Gilgamesh and the contrasting narratives of the Great Flood known to followers of the Judaic, Christian and Islamic religions, Full Moon Over Noah’s Ark takes readers along with Antonson through the shadows and broad landscapes of Turkey, Iraq, Iran and Armenia, shedding light on a troubled but fascinating area of the world. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ce60436f52c5ee68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£49.43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (15 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/fe/8a/fe8af6ceec7718986380c0fde9b3b34f.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/full-moon-over-noahs-ark-an-odyssey-to-mount-ararat-and-beyond_811/index.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A CLASSIC FROM THE BESTSELLING AUTHOR OF UNDER MAGNOLIAFrances Mayes—widely published poet, gourmet cook, and travel writer—opens the door to a wondrous new world when she buys and restores an abandoned villa in the spectacular Tuscan countryside. In evocative language, she brings the reader along as she discovers the beauty and simplicity of life in Italy. Mayes also crea A CLASSIC FROM THE BESTSELLING AUTHOR OF UNDER MAGNOLIAFrances Mayes—widely published poet, gourmet cook, and travel writer—opens the door to a wondrous new world when she buys and restores an abandoned villa in the spectacular Tuscan countryside. In evocative language, she brings the reader along as she discovers the beauty and simplicity of life in Italy. Mayes also creates dozens of delicious seasonal recipes from her traditional kitchen and simple garden, all of which she includes in the book. Doing for Tuscany what M.F.K. Fisher and Peter Mayle did for Provence, Mayes writes about the tastes and pleasures of a foreign country with gusto and passion. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a94350ee74deaa07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£37.33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (7 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/45/21/4521c581ba727f5c835e34860cbf53e5.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/under-the-tuscan-sun_504/index.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>National BestsellerIn this witty and warm-hearted account, Peter Mayle tells what it is like to realize a long-cherished dream and actually move into a 200-year-old stone farmhouse in the remote country of the Lubéron with his wife and two large dogs. He endures January's frosty mistral as it comes howling down the Rhône Valley, discovers the secrets of goat racing through National Bestseller&amp;nbsp;In this witty and warm-hearted account, Peter Mayle tells what it is like to realize a long-cherished dream and actually move into a 200-year-old stone farmhouse in the remote country of the Lubéron with his wife and two large dogs. He endures January's frosty mistral as it comes howling down the Rhône Valley, discovers the secrets of goat racing through the middle of town, and delights in the glorious regional cuisine. A Year in Provence transports us into all the earthy pleasures of Provençal life and lets us live vicariously at a tempo governed by seasons, not by days. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9e60929f521fa280</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£56.88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (6 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/8b/81/8b81cd9b2c8f89a12099a80bed1c4911.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/a-year-in-provence-provence-1_421/index.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>With a new foreword by Tim Ferriss •There’s nothing like vagabonding: taking time off from your normal life—from six weeks to four months to two years—to discover and experience the world on your own terms. In this one-of-a-kind handbook, veteran travel writer Rolf Potts explains how anyone armed with an independent spirit can achieve the dream of extended overseas travel. With a new foreword by Tim Ferriss •&amp;nbsp;There’s nothing like vagabonding: taking time off from your normal life—from six weeks to four months to two years—to discover and experience the world on your own terms. In this one-of-a-kind handbook, veteran travel writer Rolf Potts explains how anyone armed with an independent spirit can achieve the dream of extended overseas travel. Now completely revised and updated, Vagabonding is an accessible and inspiring guide to &amp;nbsp; • financing your travel time • determining your destination • adjusting to life on the road • working and volunteering overseas •&amp;nbsp;handling travel adversity • re-assimilating back into ordinary life &amp;nbsp;Praise for Vagabonding&amp;nbsp; “A crucial reference for any budget wanderer.”—Time&amp;nbsp; “Vagabonding easily remains in my top-10 list of life-changing books. Why? Because one incredible trip, especially a long-term trip, can change your life forever. And Vagabonding teaches you how to travel (and think), not just for one trip, but for the rest of your life.”—Tim Ferriss, from the foreword &amp;nbsp; “The book is a meditation on the joys of hitting the road. . . . It’s also a primer for those with a case of pent-up wanderlust seeking to live the dream.”—USA Today &amp;nbsp; “I couldn’t put this book down. It’s a whole different ethic of travel. . . . [Potts’s] practical advice might just convince you to enjoy that open-ended trip of a lifetime.”—Rick Steves &amp;nbsp; “Potts wants us to wander, to explore, to embrace the unknown, and, finally, to take our own damn time about it. I think this is the most sensible book of travel-related advice ever written.”—Tim Cahill, founding editor of Outside ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1809259a5a5f1d8d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£36.94</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (8 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/ca/30/ca30b1afe1e76ce7ba1db8176d398e53.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/vagabonding-an-uncommon-guide-to-the-art-of-long-term-world-travel_552/index.html</x:t>
   </x:si>
   <x:si>
     <x:t>On her thirtieth birthday, Gwendolyn Reese receives an unexpected present from her widowed Aunt Bea: a grand tour of Europe in the company of Bea's Sudoku and Mahjongg Club. The prospect isn't entirely appealing. But when the gift she is expecting--an engagement ring from her boyfriend--doesn't materialize, Gwen decides to go. At first, Gwen approaches the trip as if it's On her thirtieth birthday, Gwendolyn Reese receives an unexpected present from her widowed Aunt Bea: a grand tour of Europe in the company of Bea's Sudoku and Mahjongg Club. The prospect isn't entirely appealing. But when the gift she is expecting--an engagement ring from her boyfriend--doesn't materialize, Gwen decides to go. At first, Gwen approaches the trip as if it's the math homework she assigns her students, diligently checking monuments off her must-see list. But amid the bougainvillea and stunning vistas of southern Italy, something changes. Gwen begins to live in the moment--skipping down stone staircases in Capri, running her fingers over a glacier in view of the Matterhorn, racing through the Louvre, and taste-testing pastries at a Marseilles cafe. Reveling in every new experience--especially her attraction to a charismatic British physics professor--Gwen discovers that the ancient wonders around her are nothing compared to the renaissance unfolding within. . . "A thinking woman's love story, it swept me away to breathtaking places with a cast of endearing characters I won't soon forget. Bravissima!" Susan McBride, author of "Little Black Dress" Praise for Marilyn Brant's According to Jane "A warm, witty and charmingly original story." --Susan Wiggs, "New York Times " bestselling author "Brant infuses her sweetly romantic and delightfully clever tale with just the right dash of Austen-esque wit." "Chicago Tribune" "An engaging read for all who have been through the long, dark, dating wars, and still believe there's sunshine, and a Mr. Darcy, at the end of the tunnel." --Cathy Lamb, author of "Such a Pretty Face"" ...more</x:t>
@@ -106,49 +178,28 @@
     <x:t>£44.34</x:t>
   </x:si>
   <x:si>
-    <x:t>In stock (7 available)</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://books.toscrape.com/media/cache/6c/e3/6ce3003931701c7a3fd5354917538ea9.jpg</x:t>
   </x:si>
   <x:si>
     <x:t>https://books.toscrape.com/catalogue/a-summer-in-europe_458/index.html</x:t>
   </x:si>
   <x:si>
-    <x:t>Acclaimed travel writer Rick Antonson sets his adventurous compass on Mount Ararat, exploring the region’s long history, religious mysteries, and complex politics.Mount Ararat is the most fabled mountain in the world. For millennia this massif in eastern Turkey has been rumored as the resting place of Noah’s Ark following the Great Flood. But it also plays a significant ro Acclaimed travel writer Rick Antonson sets his adventurous compass on Mount Ararat, exploring the region’s long history, religious mysteries, and complex politics.Mount Ararat is the most fabled mountain in the world. For millennia this massif in eastern Turkey has been rumored as the resting place of Noah’s Ark following the Great Flood. But it also plays a significant role in the longstanding conflict between Turkey and Armenia.Author Rick Antonson joined a five-member expedition to the mountain’s nearly 17,000-foot summit, trekking alongside a contingent of Armenians, for whom Mount Ararat is the stolen symbol of their country. Antonson weaves vivid historical anecdote with unexpected travel vignettes, whether tracing earlier mountaineering attempts on the peak, recounting the genocide of Armenians and its unresolved debate, or depicting the Kurds’ ambitions for their own nation’s borders, which some say should include Mount Ararat.What unfolds in Full Moon Over Noah’s Ark is one man’s odyssey, a tale told through many stories. Starting with the flooding of the Black Sea in 5600 BCE, through to the Epic of Gilgamesh and the contrasting narratives of the Great Flood known to followers of the Judaic, Christian and Islamic religions, Full Moon Over Noah’s Ark takes readers along with Antonson through the shadows and broad landscapes of Turkey, Iraq, Iran and Armenia, shedding light on a troubled but fascinating area of the world. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ce60436f52c5ee68</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£49.43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In stock (15 available)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/fe/8a/fe8af6ceec7718986380c0fde9b3b34f.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/full-moon-over-noahs-ark-an-odyssey-to-mount-ararat-and-beyond_811/index.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>With a new foreword by Tim Ferriss •There’s nothing like vagabonding: taking time off from your normal life—from six weeks to four months to two years—to discover and experience the world on your own terms. In this one-of-a-kind handbook, veteran travel writer Rolf Potts explains how anyone armed with an independent spirit can achieve the dream of extended overseas travel. With a new foreword by Tim Ferriss •&amp;nbsp;There’s nothing like vagabonding: taking time off from your normal life—from six weeks to four months to two years—to discover and experience the world on your own terms. In this one-of-a-kind handbook, veteran travel writer Rolf Potts explains how anyone armed with an independent spirit can achieve the dream of extended overseas travel. Now completely revised and updated, Vagabonding is an accessible and inspiring guide to &amp;nbsp; • financing your travel time • determining your destination • adjusting to life on the road • working and volunteering overseas •&amp;nbsp;handling travel adversity • re-assimilating back into ordinary life &amp;nbsp;Praise for Vagabonding&amp;nbsp; “A crucial reference for any budget wanderer.”—Time&amp;nbsp; “Vagabonding easily remains in my top-10 list of life-changing books. Why? Because one incredible trip, especially a long-term trip, can change your life forever. And Vagabonding teaches you how to travel (and think), not just for one trip, but for the rest of your life.”—Tim Ferriss, from the foreword &amp;nbsp; “The book is a meditation on the joys of hitting the road. . . . It’s also a primer for those with a case of pent-up wanderlust seeking to live the dream.”—USA Today &amp;nbsp; “I couldn’t put this book down. It’s a whole different ethic of travel. . . . [Potts’s] practical advice might just convince you to enjoy that open-ended trip of a lifetime.”—Rick Steves &amp;nbsp; “Potts wants us to wander, to explore, to embrace the unknown, and, finally, to take our own damn time about it. I think this is the most sensible book of travel-related advice ever written.”—Tim Cahill, founding editor of Outside ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1809259a5a5f1d8d</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£36.94</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In stock (8 available)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/ca/30/ca30b1afe1e76ce7ba1db8176d398e53.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/vagabonding-an-uncommon-guide-to-the-art-of-long-term-world-travel_552/index.html</x:t>
+    <x:t>The hilarious and loving sequel to a hilarious and loving classic of travel writing: Notes from a Small Island, Bill Bryson’s valentine to his adopted country of EnglandIn 1995 Bill Bryson got into his car and took a weeks-long farewell motoring trip about England before moving his family back to the United States. The book about that trip, Notes from a Small Island, is up The hilarious and loving sequel to a hilarious and loving classic of travel writing: Notes from a Small Island, Bill Bryson’s valentine to his adopted country of EnglandIn 1995 Bill Bryson got into his car and took a weeks-long farewell motoring trip about England before moving his family back to the United States. The book about that trip, Notes from a Small Island, is uproarious and endlessly endearing, one of the most acute and affectionate portrayals of England in all its glorious eccentricity ever written. Two decades later, he set out again to rediscover that country, and the result is The Road to Little Dribbling. Nothing is funnier than Bill Bryson on the road—prepare for the total joy and multiple episodes of unseemly laughter. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>366a236aa1ea6f07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£23.21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (3 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/26/f5/26f5d20239a45046e756c6d09611b3ea.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/the-road-to-little-dribbling-adventures-of-an-american-in-britain-notes-from-a-small-island-2_277/index.html</x:t>
   </x:si>
   <x:si>
     <x:t>First published more than thirty years ago, Paul Theroux's strange, unique, and hugely entertaining railway odyssey has become a modern classic of travel literature. Here Theroux recounts his early adventures on an unusual grand continental tour. Asia's fabled trains -- the Orient Express, the Khyber Pass Local, the Frontier Mail, the Golden Arrow to Kuala Lumpur, the Mand First published more than thirty years ago, Paul Theroux's strange, unique, and hugely entertaining railway odyssey has become a modern classic of travel literature. Here Theroux recounts his early adventures on an unusual grand continental tour. Asia's fabled trains -- the Orient Express, the Khyber Pass Local, the Frontier Mail, the Golden Arrow to Kuala Lumpur, the Mandalay Express, the Trans-Siberian Express -- are the stars of a journey that takes him on a loop eastbound from London's Victoria Station to Tokyo Central, then back from Japan on the Trans-Siberian. Brimming with Theroux's signature humor and wry observations, this engrossing chronicle is essential reading for both the ardent adventurer and the armchair traveler. ...more</x:t>
@@ -160,28 +211,25 @@
     <x:t>£30.54</x:t>
   </x:si>
   <x:si>
-    <x:t>In stock (6 available)</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://books.toscrape.com/media/cache/d5/82/d582f6b0261c2842330e893962276295.jpg</x:t>
   </x:si>
   <x:si>
     <x:t>https://books.toscrape.com/catalogue/the-great-railway-bazaar_446/index.html</x:t>
   </x:si>
   <x:si>
-    <x:t>A CLASSIC FROM THE BESTSELLING AUTHOR OF UNDER MAGNOLIAFrances Mayes—widely published poet, gourmet cook, and travel writer—opens the door to a wondrous new world when she buys and restores an abandoned villa in the spectacular Tuscan countryside. In evocative language, she brings the reader along as she discovers the beauty and simplicity of life in Italy. Mayes also crea A CLASSIC FROM THE BESTSELLING AUTHOR OF UNDER MAGNOLIAFrances Mayes—widely published poet, gourmet cook, and travel writer—opens the door to a wondrous new world when she buys and restores an abandoned villa in the spectacular Tuscan countryside. In evocative language, she brings the reader along as she discovers the beauty and simplicity of life in Italy. Mayes also creates dozens of delicious seasonal recipes from her traditional kitchen and simple garden, all of which she includes in the book. Doing for Tuscany what M.F.K. Fisher and Peter Mayle did for Provence, Mayes writes about the tastes and pleasures of a foreign country with gusto and passion. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>a94350ee74deaa07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£37.33</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/45/21/4521c581ba727f5c835e34860cbf53e5.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/under-the-tuscan-sun_504/index.html</x:t>
+    <x:t>Bill Bryson's first travel book, The Lost Continent, was unanimously acclaimed as one of the funniest books in years. In Neither Here nor There he brings his unique brand of humour to bear on Europe as he shoulders his backpack, keeps a tight hold on his wallet, and journeys from Hammerfest, the northernmost town on the continent, to Istanbul on the cusp of Asia. Fluent in Bill Bryson's first travel book, The Lost Continent, was unanimously acclaimed as one of the funniest books in years. In Neither Here nor There he brings his unique brand of humour to bear on Europe as he shoulders his backpack, keeps a tight hold on his wallet, and journeys from Hammerfest, the northernmost town on the continent, to Istanbul on the cusp of Asia. Fluent in, oh, at least one language, he retraces his travels as a student twenty years before.Whether braving the homicidal motorist of Paris, being robbed by gypsies in Florence, attempting not to order tripe and eyeballs in a German restaurant, window-shopping in the sex shops of the Reeperbahn or disputing his hotel bill in Copenhagen, Bryson takes in the sights, dissects the culture and illuminates each place and person with his hilariously caustic observations. He even goes to Liechtenstein. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>747cf7fca2ccdbd4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£38.95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/c9/9a/c99a7a05537cd842eb4db83d537e3a4d.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/neither-here-nor-there-travels-in-europe_198/index.html</x:t>
   </x:si>
   <x:si>
     <x:t>Around the World, continent by continent, here is the best the world has to offer: 1,000 places guaranteed to give travelers the shivers. Sacred ruins, grand hotels, wildlife preserves, hilltop villages, snack shacks, castles, festivals, reefs, restaurants, cathedrals, hidden islands, opera houses, museums, and more. Each entry tells exactly why it's essential to visit. Th Around the World, continent by continent, here is the best the world has to offer: 1,000 places guaranteed to give travelers the shivers. Sacred ruins, grand hotels, wildlife preserves, hilltop villages, snack shacks, castles, festivals, reefs, restaurants, cathedrals, hidden islands, opera houses, museums, and more. Each entry tells exactly why it's essential to visit. Then come the nuts and bolts: addresses, websites, phone and fax numbers, best times to visit. Stop dreaming and get going.This hefty volume reminds vacationers that hot tourist spots are small percentage of what's worth seeing out there. A quick sampling: Venice's Cipriani Hotel; California's Monterey Peninsula; the Lewis and Clark Trail in Oregon; the Great Wall of China; Robert Louis Stevenson's home in Western Samoa; and the Alhambra in Andalusia, Spain. Veteran travel guide writer Schultz divides the book geographically, presenting a little less than a page on each location. Each entry lists exactly where to find the spot (e.g. Moorea is located "12 miles/19 km northwest of Tahiti; 10 minutes by air, 1 hour by boat") and when to go (e.g., if you want to check out The Complete Fly Fisher hotel in Montana, "May and Sept.-Oct. offer productive angling in a solitary setting"). This is an excellent resource for the intrepid traveler.Copyright 2003 Reed Business Information, Inc. ...more</x:t>
@@ -200,54 +248,6 @@
   </x:si>
   <x:si>
     <x:t>https://books.toscrape.com/catalogue/1000-places-to-see-before-you-die_1/index.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>National BestsellerIn this witty and warm-hearted account, Peter Mayle tells what it is like to realize a long-cherished dream and actually move into a 200-year-old stone farmhouse in the remote country of the Lubéron with his wife and two large dogs. He endures January's frosty mistral as it comes howling down the Rhône Valley, discovers the secrets of goat racing through National Bestseller&amp;nbsp;In this witty and warm-hearted account, Peter Mayle tells what it is like to realize a long-cherished dream and actually move into a 200-year-old stone farmhouse in the remote country of the Lubéron with his wife and two large dogs. He endures January's frosty mistral as it comes howling down the Rhône Valley, discovers the secrets of goat racing through the middle of town, and delights in the glorious regional cuisine. A Year in Provence transports us into all the earthy pleasures of Provençal life and lets us live vicariously at a tempo governed by seasons, not by days. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9e60929f521fa280</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£56.88</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/8b/81/8b81cd9b2c8f89a12099a80bed1c4911.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/a-year-in-provence-provence-1_421/index.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The hilarious and loving sequel to a hilarious and loving classic of travel writing: Notes from a Small Island, Bill Bryson’s valentine to his adopted country of EnglandIn 1995 Bill Bryson got into his car and took a weeks-long farewell motoring trip about England before moving his family back to the United States. The book about that trip, Notes from a Small Island, is up The hilarious and loving sequel to a hilarious and loving classic of travel writing: Notes from a Small Island, Bill Bryson’s valentine to his adopted country of EnglandIn 1995 Bill Bryson got into his car and took a weeks-long farewell motoring trip about England before moving his family back to the United States. The book about that trip, Notes from a Small Island, is uproarious and endlessly endearing, one of the most acute and affectionate portrayals of England in all its glorious eccentricity ever written. Two decades later, he set out again to rediscover that country, and the result is The Road to Little Dribbling. Nothing is funnier than Bill Bryson on the road—prepare for the total joy and multiple episodes of unseemly laughter. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>366a236aa1ea6f07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£23.21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In stock (3 available)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/26/f5/26f5d20239a45046e756c6d09611b3ea.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/the-road-to-little-dribbling-adventures-of-an-american-in-britain-notes-from-a-small-island-2_277/index.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bill Bryson's first travel book, The Lost Continent, was unanimously acclaimed as one of the funniest books in years. In Neither Here nor There he brings his unique brand of humour to bear on Europe as he shoulders his backpack, keeps a tight hold on his wallet, and journeys from Hammerfest, the northernmost town on the continent, to Istanbul on the cusp of Asia. Fluent in Bill Bryson's first travel book, The Lost Continent, was unanimously acclaimed as one of the funniest books in years. In Neither Here nor There he brings his unique brand of humour to bear on Europe as he shoulders his backpack, keeps a tight hold on his wallet, and journeys from Hammerfest, the northernmost town on the continent, to Istanbul on the cusp of Asia. Fluent in, oh, at least one language, he retraces his travels as a student twenty years before.Whether braving the homicidal motorist of Paris, being robbed by gypsies in Florence, attempting not to order tripe and eyeballs in a German restaurant, window-shopping in the sex shops of the Reeperbahn or disputing his hotel bill in Copenhagen, Bryson takes in the sights, dissects the culture and illuminates each place and person with his hilariously caustic observations. He even goes to Liechtenstein. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>747cf7fca2ccdbd4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£38.95</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/c9/9a/c99a7a05537cd842eb4db83d537e3a4d.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/neither-here-nor-there-travels-in-europe_198/index.html</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -878,7 +878,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s">
         <x:v>18</x:v>
@@ -948,7 +948,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s">
         <x:v>18</x:v>
@@ -983,42 +983,42 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="J11" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="K11" s="0" t="s">
         <x:v>71</x:v>
-      </x:c>
-      <x:c r="K11" s="0" t="s">
-        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:11">
       <x:c r="A12" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="H12" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s">
         <x:v>18</x:v>

--- a/page-data-excel/books/books.xlsx
+++ b/page-data-excel/books/books.xlsx
@@ -49,52 +49,70 @@
     <x:t>url</x:t>
   </x:si>
   <x:si>
+    <x:t>To coincide with the 2016 centennial anniversary of the National Parks Service, the Creative Action Network has partnered with the National Parks Conservation Association to revive and reimagine the legacy of WPA travel posters. Artists from all over the world have participated in the creation of this new, crowdsourced collection of See America posters for a modern era. Fe To coincide with the 2016 centennial anniversary of the National Parks Service, the Creative Action Network has partnered with the National Parks Conservation Association to revive and reimagine the legacy of WPA travel posters. Artists from all over the world have participated in the creation of this new, crowdsourced collection of See America posters for a modern era. Featuring artwork for 75 national parks and monuments across all 50 states, this engaging keepsake volume celebrates the full range of our nation's landmarks and treasured wilderness. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Travel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f9705c362f070608</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Books</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£48.87</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£0.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (14 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/c7/1a/c71a85dbf8c2dbc75cb271026618477c.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/see-america-a-celebration-of-our-national-parks-treasured-sites_732/index.html</x:t>
+  </x:si>
+  <x:si>
     <x:t>“Wherever you go, whatever you do, just . . . don’t do anything stupid.” —My MotherDuring her yearlong adventure backpacking from South Africa to Singapore, S. Bedford definitely did a few things her mother might classify as "stupid." She swam with great white sharks in South Africa, ran from lions in Zimbabwe, climbed a Himalayan mountain without training in Nepal, and wa “Wherever you go, whatever you do, just . . . don’t do anything stupid.” —My MotherDuring her yearlong adventure backpacking from South Africa to Singapore, S. Bedford definitely did a few things her mother might classify as "stupid." She swam with great white sharks in South Africa, ran from lions in Zimbabwe, climbed a Himalayan mountain without training in Nepal, and watched as her friend was attacked by a monkey in Indonesia.But interspersed in those slightly more crazy moments, Sue Bedfored and her friend "Sara the Stoic" experienced the sights, sounds, life, and culture of fifteen countries. Joined along the way by a few friends and their aging fathers here and there, Sue and Sara experience the trip of a lifetime. They fall in love with the world, cultivate an appreciation for home, and discover who, or what, they want to become.It's Only the Himalayas is the incredibly funny, sometimes outlandish, always entertaining confession of a young backpacker that will inspire you to take your own adventure. ...more</x:t>
   </x:si>
   <x:si>
-    <x:t>Travel</x:t>
-  </x:si>
-  <x:si>
     <x:t>a22124811bfa8350</x:t>
   </x:si>
   <x:si>
-    <x:t>Books</x:t>
-  </x:si>
-  <x:si>
     <x:t>£45.17</x:t>
   </x:si>
   <x:si>
-    <x:t>£0.00</x:t>
-  </x:si>
-  <x:si>
     <x:t>In stock (19 available)</x:t>
   </x:si>
   <x:si>
-    <x:t>0</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://books.toscrape.com/media/cache/6d/41/6d418a73cc7d4ecfd75ca11d854041db.jpg</x:t>
   </x:si>
   <x:si>
     <x:t>https://books.toscrape.com/catalogue/its-only-the-himalayas_981/index.html</x:t>
   </x:si>
   <x:si>
-    <x:t>To coincide with the 2016 centennial anniversary of the National Parks Service, the Creative Action Network has partnered with the National Parks Conservation Association to revive and reimagine the legacy of WPA travel posters. Artists from all over the world have participated in the creation of this new, crowdsourced collection of See America posters for a modern era. Fe To coincide with the 2016 centennial anniversary of the National Parks Service, the Creative Action Network has partnered with the National Parks Conservation Association to revive and reimagine the legacy of WPA travel posters. Artists from all over the world have participated in the creation of this new, crowdsourced collection of See America posters for a modern era. Featuring artwork for 75 national parks and monuments across all 50 states, this engaging keepsake volume celebrates the full range of our nation's landmarks and treasured wilderness. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f9705c362f070608</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£48.87</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In stock (14 available)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/c7/1a/c71a85dbf8c2dbc75cb271026618477c.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/see-america-a-celebration-of-our-national-parks-treasured-sites_732/index.html</x:t>
+    <x:t>On her thirtieth birthday, Gwendolyn Reese receives an unexpected present from her widowed Aunt Bea: a grand tour of Europe in the company of Bea's Sudoku and Mahjongg Club. The prospect isn't entirely appealing. But when the gift she is expecting--an engagement ring from her boyfriend--doesn't materialize, Gwen decides to go. At first, Gwen approaches the trip as if it's On her thirtieth birthday, Gwendolyn Reese receives an unexpected present from her widowed Aunt Bea: a grand tour of Europe in the company of Bea's Sudoku and Mahjongg Club. The prospect isn't entirely appealing. But when the gift she is expecting--an engagement ring from her boyfriend--doesn't materialize, Gwen decides to go. At first, Gwen approaches the trip as if it's the math homework she assigns her students, diligently checking monuments off her must-see list. But amid the bougainvillea and stunning vistas of southern Italy, something changes. Gwen begins to live in the moment--skipping down stone staircases in Capri, running her fingers over a glacier in view of the Matterhorn, racing through the Louvre, and taste-testing pastries at a Marseilles cafe. Reveling in every new experience--especially her attraction to a charismatic British physics professor--Gwen discovers that the ancient wonders around her are nothing compared to the renaissance unfolding within. . . "A thinking woman's love story, it swept me away to breathtaking places with a cast of endearing characters I won't soon forget. Bravissima!" Susan McBride, author of "Little Black Dress" Praise for Marilyn Brant's According to Jane "A warm, witty and charmingly original story." --Susan Wiggs, "New York Times " bestselling author "Brant infuses her sweetly romantic and delightfully clever tale with just the right dash of Austen-esque wit." "Chicago Tribune" "An engaging read for all who have been through the long, dark, dating wars, and still believe there's sunshine, and a Mr. Darcy, at the end of the tunnel." --Cathy Lamb, author of "Such a Pretty Face"" ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cc1936a9f4e93477</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£44.34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (7 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/6c/e3/6ce3003931701c7a3fd5354917538ea9.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/a-summer-in-europe_458/index.html</x:t>
   </x:si>
   <x:si>
     <x:t>Acclaimed travel writer Rick Antonson sets his adventurous compass on Mount Ararat, exploring the region’s long history, religious mysteries, and complex politics.Mount Ararat is the most fabled mountain in the world. For millennia this massif in eastern Turkey has been rumored as the resting place of Noah’s Ark following the Great Flood. But it also plays a significant ro Acclaimed travel writer Rick Antonson sets his adventurous compass on Mount Ararat, exploring the region’s long history, religious mysteries, and complex politics.Mount Ararat is the most fabled mountain in the world. For millennia this massif in eastern Turkey has been rumored as the resting place of Noah’s Ark following the Great Flood. But it also plays a significant role in the longstanding conflict between Turkey and Armenia.Author Rick Antonson joined a five-member expedition to the mountain’s nearly 17,000-foot summit, trekking alongside a contingent of Armenians, for whom Mount Ararat is the stolen symbol of their country. Antonson weaves vivid historical anecdote with unexpected travel vignettes, whether tracing earlier mountaineering attempts on the peak, recounting the genocide of Armenians and its unresolved debate, or depicting the Kurds’ ambitions for their own nation’s borders, which some say should include Mount Ararat.What unfolds in Full Moon Over Noah’s Ark is one man’s odyssey, a tale told through many stories. Starting with the flooding of the Black Sea in 5600 BCE, through to the Epic of Gilgamesh and the contrasting narratives of the Great Flood known to followers of the Judaic, Christian and Islamic religions, Full Moon Over Noah’s Ark takes readers along with Antonson through the shadows and broad landscapes of Turkey, Iraq, Iran and Armenia, shedding light on a troubled but fascinating area of the world. ...more</x:t>
@@ -115,6 +133,42 @@
     <x:t>https://books.toscrape.com/catalogue/full-moon-over-noahs-ark-an-odyssey-to-mount-ararat-and-beyond_811/index.html</x:t>
   </x:si>
   <x:si>
+    <x:t>With a new foreword by Tim Ferriss •There’s nothing like vagabonding: taking time off from your normal life—from six weeks to four months to two years—to discover and experience the world on your own terms. In this one-of-a-kind handbook, veteran travel writer Rolf Potts explains how anyone armed with an independent spirit can achieve the dream of extended overseas travel. With a new foreword by Tim Ferriss •&amp;nbsp;There’s nothing like vagabonding: taking time off from your normal life—from six weeks to four months to two years—to discover and experience the world on your own terms. In this one-of-a-kind handbook, veteran travel writer Rolf Potts explains how anyone armed with an independent spirit can achieve the dream of extended overseas travel. Now completely revised and updated, Vagabonding is an accessible and inspiring guide to &amp;nbsp; • financing your travel time • determining your destination • adjusting to life on the road • working and volunteering overseas •&amp;nbsp;handling travel adversity • re-assimilating back into ordinary life &amp;nbsp;Praise for Vagabonding&amp;nbsp; “A crucial reference for any budget wanderer.”—Time&amp;nbsp; “Vagabonding easily remains in my top-10 list of life-changing books. Why? Because one incredible trip, especially a long-term trip, can change your life forever. And Vagabonding teaches you how to travel (and think), not just for one trip, but for the rest of your life.”—Tim Ferriss, from the foreword &amp;nbsp; “The book is a meditation on the joys of hitting the road. . . . It’s also a primer for those with a case of pent-up wanderlust seeking to live the dream.”—USA Today &amp;nbsp; “I couldn’t put this book down. It’s a whole different ethic of travel. . . . [Potts’s] practical advice might just convince you to enjoy that open-ended trip of a lifetime.”—Rick Steves &amp;nbsp; “Potts wants us to wander, to explore, to embrace the unknown, and, finally, to take our own damn time about it. I think this is the most sensible book of travel-related advice ever written.”—Tim Cahill, founding editor of Outside ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1809259a5a5f1d8d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£36.94</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (8 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/ca/30/ca30b1afe1e76ce7ba1db8176d398e53.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/vagabonding-an-uncommon-guide-to-the-art-of-long-term-world-travel_552/index.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>First published more than thirty years ago, Paul Theroux's strange, unique, and hugely entertaining railway odyssey has become a modern classic of travel literature. Here Theroux recounts his early adventures on an unusual grand continental tour. Asia's fabled trains -- the Orient Express, the Khyber Pass Local, the Frontier Mail, the Golden Arrow to Kuala Lumpur, the Mand First published more than thirty years ago, Paul Theroux's strange, unique, and hugely entertaining railway odyssey has become a modern classic of travel literature. Here Theroux recounts his early adventures on an unusual grand continental tour. Asia's fabled trains -- the Orient Express, the Khyber Pass Local, the Frontier Mail, the Golden Arrow to Kuala Lumpur, the Mandalay Express, the Trans-Siberian Express -- are the stars of a journey that takes him on a loop eastbound from London's Victoria Station to Tokyo Central, then back from Japan on the Trans-Siberian. Brimming with Theroux's signature humor and wry observations, this engrossing chronicle is essential reading for both the ardent adventurer and the armchair traveler. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48736df57e7bec9f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£30.54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (6 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/d5/82/d582f6b0261c2842330e893962276295.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/the-great-railway-bazaar_446/index.html</x:t>
+  </x:si>
+  <x:si>
     <x:t>A CLASSIC FROM THE BESTSELLING AUTHOR OF UNDER MAGNOLIAFrances Mayes—widely published poet, gourmet cook, and travel writer—opens the door to a wondrous new world when she buys and restores an abandoned villa in the spectacular Tuscan countryside. In evocative language, she brings the reader along as she discovers the beauty and simplicity of life in Italy. Mayes also crea A CLASSIC FROM THE BESTSELLING AUTHOR OF UNDER MAGNOLIAFrances Mayes—widely published poet, gourmet cook, and travel writer—opens the door to a wondrous new world when she buys and restores an abandoned villa in the spectacular Tuscan countryside. In evocative language, she brings the reader along as she discovers the beauty and simplicity of life in Italy. Mayes also creates dozens of delicious seasonal recipes from her traditional kitchen and simple garden, all of which she includes in the book. Doing for Tuscany what M.F.K. Fisher and Peter Mayle did for Provence, Mayes writes about the tastes and pleasures of a foreign country with gusto and passion. ...more</x:t>
   </x:si>
   <x:si>
@@ -124,9 +178,6 @@
     <x:t>£37.33</x:t>
   </x:si>
   <x:si>
-    <x:t>In stock (7 available)</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://books.toscrape.com/media/cache/45/21/4521c581ba727f5c835e34860cbf53e5.jpg</x:t>
   </x:si>
   <x:si>
@@ -142,46 +193,46 @@
     <x:t>£56.88</x:t>
   </x:si>
   <x:si>
-    <x:t>In stock (6 available)</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://books.toscrape.com/media/cache/8b/81/8b81cd9b2c8f89a12099a80bed1c4911.jpg</x:t>
   </x:si>
   <x:si>
     <x:t>https://books.toscrape.com/catalogue/a-year-in-provence-provence-1_421/index.html</x:t>
   </x:si>
   <x:si>
-    <x:t>With a new foreword by Tim Ferriss •There’s nothing like vagabonding: taking time off from your normal life—from six weeks to four months to two years—to discover and experience the world on your own terms. In this one-of-a-kind handbook, veteran travel writer Rolf Potts explains how anyone armed with an independent spirit can achieve the dream of extended overseas travel. With a new foreword by Tim Ferriss •&amp;nbsp;There’s nothing like vagabonding: taking time off from your normal life—from six weeks to four months to two years—to discover and experience the world on your own terms. In this one-of-a-kind handbook, veteran travel writer Rolf Potts explains how anyone armed with an independent spirit can achieve the dream of extended overseas travel. Now completely revised and updated, Vagabonding is an accessible and inspiring guide to &amp;nbsp; • financing your travel time • determining your destination • adjusting to life on the road • working and volunteering overseas •&amp;nbsp;handling travel adversity • re-assimilating back into ordinary life &amp;nbsp;Praise for Vagabonding&amp;nbsp; “A crucial reference for any budget wanderer.”—Time&amp;nbsp; “Vagabonding easily remains in my top-10 list of life-changing books. Why? Because one incredible trip, especially a long-term trip, can change your life forever. And Vagabonding teaches you how to travel (and think), not just for one trip, but for the rest of your life.”—Tim Ferriss, from the foreword &amp;nbsp; “The book is a meditation on the joys of hitting the road. . . . It’s also a primer for those with a case of pent-up wanderlust seeking to live the dream.”—USA Today &amp;nbsp; “I couldn’t put this book down. It’s a whole different ethic of travel. . . . [Potts’s] practical advice might just convince you to enjoy that open-ended trip of a lifetime.”—Rick Steves &amp;nbsp; “Potts wants us to wander, to explore, to embrace the unknown, and, finally, to take our own damn time about it. I think this is the most sensible book of travel-related advice ever written.”—Tim Cahill, founding editor of Outside ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1809259a5a5f1d8d</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£36.94</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In stock (8 available)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/ca/30/ca30b1afe1e76ce7ba1db8176d398e53.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/vagabonding-an-uncommon-guide-to-the-art-of-long-term-world-travel_552/index.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>On her thirtieth birthday, Gwendolyn Reese receives an unexpected present from her widowed Aunt Bea: a grand tour of Europe in the company of Bea's Sudoku and Mahjongg Club. The prospect isn't entirely appealing. But when the gift she is expecting--an engagement ring from her boyfriend--doesn't materialize, Gwen decides to go. At first, Gwen approaches the trip as if it's On her thirtieth birthday, Gwendolyn Reese receives an unexpected present from her widowed Aunt Bea: a grand tour of Europe in the company of Bea's Sudoku and Mahjongg Club. The prospect isn't entirely appealing. But when the gift she is expecting--an engagement ring from her boyfriend--doesn't materialize, Gwen decides to go. At first, Gwen approaches the trip as if it's the math homework she assigns her students, diligently checking monuments off her must-see list. But amid the bougainvillea and stunning vistas of southern Italy, something changes. Gwen begins to live in the moment--skipping down stone staircases in Capri, running her fingers over a glacier in view of the Matterhorn, racing through the Louvre, and taste-testing pastries at a Marseilles cafe. Reveling in every new experience--especially her attraction to a charismatic British physics professor--Gwen discovers that the ancient wonders around her are nothing compared to the renaissance unfolding within. . . "A thinking woman's love story, it swept me away to breathtaking places with a cast of endearing characters I won't soon forget. Bravissima!" Susan McBride, author of "Little Black Dress" Praise for Marilyn Brant's According to Jane "A warm, witty and charmingly original story." --Susan Wiggs, "New York Times " bestselling author "Brant infuses her sweetly romantic and delightfully clever tale with just the right dash of Austen-esque wit." "Chicago Tribune" "An engaging read for all who have been through the long, dark, dating wars, and still believe there's sunshine, and a Mr. Darcy, at the end of the tunnel." --Cathy Lamb, author of "Such a Pretty Face"" ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cc1936a9f4e93477</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£44.34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/6c/e3/6ce3003931701c7a3fd5354917538ea9.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/a-summer-in-europe_458/index.html</x:t>
+    <x:t>Around the World, continent by continent, here is the best the world has to offer: 1,000 places guaranteed to give travelers the shivers. Sacred ruins, grand hotels, wildlife preserves, hilltop villages, snack shacks, castles, festivals, reefs, restaurants, cathedrals, hidden islands, opera houses, museums, and more. Each entry tells exactly why it's essential to visit. Th Around the World, continent by continent, here is the best the world has to offer: 1,000 places guaranteed to give travelers the shivers. Sacred ruins, grand hotels, wildlife preserves, hilltop villages, snack shacks, castles, festivals, reefs, restaurants, cathedrals, hidden islands, opera houses, museums, and more. Each entry tells exactly why it's essential to visit. Then come the nuts and bolts: addresses, websites, phone and fax numbers, best times to visit. Stop dreaming and get going.This hefty volume reminds vacationers that hot tourist spots are small percentage of what's worth seeing out there. A quick sampling: Venice's Cipriani Hotel; California's Monterey Peninsula; the Lewis and Clark Trail in Oregon; the Great Wall of China; Robert Louis Stevenson's home in Western Samoa; and the Alhambra in Andalusia, Spain. Veteran travel guide writer Schultz divides the book geographically, presenting a little less than a page on each location. Each entry lists exactly where to find the spot (e.g. Moorea is located "12 miles/19 km northwest of Tahiti; 10 minutes by air, 1 hour by boat") and when to go (e.g., if you want to check out The Complete Fly Fisher hotel in Montana, "May and Sept.-Oct. offer productive angling in a solitary setting"). This is an excellent resource for the intrepid traveler.Copyright 2003 Reed Business Information, Inc. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>228ba5e7577e1d49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£26.08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (1 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/9e/10/9e106f81f65b293e488718a4f54a6a3f.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/1000-places-to-see-before-you-die_1/index.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bill Bryson's first travel book, The Lost Continent, was unanimously acclaimed as one of the funniest books in years. In Neither Here nor There he brings his unique brand of humour to bear on Europe as he shoulders his backpack, keeps a tight hold on his wallet, and journeys from Hammerfest, the northernmost town on the continent, to Istanbul on the cusp of Asia. Fluent in Bill Bryson's first travel book, The Lost Continent, was unanimously acclaimed as one of the funniest books in years. In Neither Here nor There he brings his unique brand of humour to bear on Europe as he shoulders his backpack, keeps a tight hold on his wallet, and journeys from Hammerfest, the northernmost town on the continent, to Istanbul on the cusp of Asia. Fluent in, oh, at least one language, he retraces his travels as a student twenty years before.Whether braving the homicidal motorist of Paris, being robbed by gypsies in Florence, attempting not to order tripe and eyeballs in a German restaurant, window-shopping in the sex shops of the Reeperbahn or disputing his hotel bill in Copenhagen, Bryson takes in the sights, dissects the culture and illuminates each place and person with his hilariously caustic observations. He even goes to Liechtenstein. ...more</x:t>
+  </x:si>
+  <x:si>
+    <x:t>747cf7fca2ccdbd4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£38.95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In stock (3 available)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/media/cache/c9/9a/c99a7a05537cd842eb4db83d537e3a4d.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://books.toscrape.com/catalogue/neither-here-nor-there-travels-in-europe_198/index.html</x:t>
   </x:si>
   <x:si>
     <x:t>The hilarious and loving sequel to a hilarious and loving classic of travel writing: Notes from a Small Island, Bill Bryson’s valentine to his adopted country of EnglandIn 1995 Bill Bryson got into his car and took a weeks-long farewell motoring trip about England before moving his family back to the United States. The book about that trip, Notes from a Small Island, is up The hilarious and loving sequel to a hilarious and loving classic of travel writing: Notes from a Small Island, Bill Bryson’s valentine to his adopted country of EnglandIn 1995 Bill Bryson got into his car and took a weeks-long farewell motoring trip about England before moving his family back to the United States. The book about that trip, Notes from a Small Island, is uproarious and endlessly endearing, one of the most acute and affectionate portrayals of England in all its glorious eccentricity ever written. Two decades later, he set out again to rediscover that country, and the result is The Road to Little Dribbling. Nothing is funnier than Bill Bryson on the road—prepare for the total joy and multiple episodes of unseemly laughter. ...more</x:t>
@@ -193,61 +244,10 @@
     <x:t>£23.21</x:t>
   </x:si>
   <x:si>
-    <x:t>In stock (3 available)</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://books.toscrape.com/media/cache/26/f5/26f5d20239a45046e756c6d09611b3ea.jpg</x:t>
   </x:si>
   <x:si>
     <x:t>https://books.toscrape.com/catalogue/the-road-to-little-dribbling-adventures-of-an-american-in-britain-notes-from-a-small-island-2_277/index.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>First published more than thirty years ago, Paul Theroux's strange, unique, and hugely entertaining railway odyssey has become a modern classic of travel literature. Here Theroux recounts his early adventures on an unusual grand continental tour. Asia's fabled trains -- the Orient Express, the Khyber Pass Local, the Frontier Mail, the Golden Arrow to Kuala Lumpur, the Mand First published more than thirty years ago, Paul Theroux's strange, unique, and hugely entertaining railway odyssey has become a modern classic of travel literature. Here Theroux recounts his early adventures on an unusual grand continental tour. Asia's fabled trains -- the Orient Express, the Khyber Pass Local, the Frontier Mail, the Golden Arrow to Kuala Lumpur, the Mandalay Express, the Trans-Siberian Express -- are the stars of a journey that takes him on a loop eastbound from London's Victoria Station to Tokyo Central, then back from Japan on the Trans-Siberian. Brimming with Theroux's signature humor and wry observations, this engrossing chronicle is essential reading for both the ardent adventurer and the armchair traveler. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48736df57e7bec9f</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£30.54</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/d5/82/d582f6b0261c2842330e893962276295.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/the-great-railway-bazaar_446/index.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bill Bryson's first travel book, The Lost Continent, was unanimously acclaimed as one of the funniest books in years. In Neither Here nor There he brings his unique brand of humour to bear on Europe as he shoulders his backpack, keeps a tight hold on his wallet, and journeys from Hammerfest, the northernmost town on the continent, to Istanbul on the cusp of Asia. Fluent in Bill Bryson's first travel book, The Lost Continent, was unanimously acclaimed as one of the funniest books in years. In Neither Here nor There he brings his unique brand of humour to bear on Europe as he shoulders his backpack, keeps a tight hold on his wallet, and journeys from Hammerfest, the northernmost town on the continent, to Istanbul on the cusp of Asia. Fluent in, oh, at least one language, he retraces his travels as a student twenty years before.Whether braving the homicidal motorist of Paris, being robbed by gypsies in Florence, attempting not to order tripe and eyeballs in a German restaurant, window-shopping in the sex shops of the Reeperbahn or disputing his hotel bill in Copenhagen, Bryson takes in the sights, dissects the culture and illuminates each place and person with his hilariously caustic observations. He even goes to Liechtenstein. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>747cf7fca2ccdbd4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£38.95</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/c9/9a/c99a7a05537cd842eb4db83d537e3a4d.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/neither-here-nor-there-travels-in-europe_198/index.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Around the World, continent by continent, here is the best the world has to offer: 1,000 places guaranteed to give travelers the shivers. Sacred ruins, grand hotels, wildlife preserves, hilltop villages, snack shacks, castles, festivals, reefs, restaurants, cathedrals, hidden islands, opera houses, museums, and more. Each entry tells exactly why it's essential to visit. Th Around the World, continent by continent, here is the best the world has to offer: 1,000 places guaranteed to give travelers the shivers. Sacred ruins, grand hotels, wildlife preserves, hilltop villages, snack shacks, castles, festivals, reefs, restaurants, cathedrals, hidden islands, opera houses, museums, and more. Each entry tells exactly why it's essential to visit. Then come the nuts and bolts: addresses, websites, phone and fax numbers, best times to visit. Stop dreaming and get going.This hefty volume reminds vacationers that hot tourist spots are small percentage of what's worth seeing out there. A quick sampling: Venice's Cipriani Hotel; California's Monterey Peninsula; the Lewis and Clark Trail in Oregon; the Great Wall of China; Robert Louis Stevenson's home in Western Samoa; and the Alhambra in Andalusia, Spain. Veteran travel guide writer Schultz divides the book geographically, presenting a little less than a page on each location. Each entry lists exactly where to find the spot (e.g. Moorea is located "12 miles/19 km northwest of Tahiti; 10 minutes by air, 1 hour by boat") and when to go (e.g., if you want to check out The Complete Fly Fisher hotel in Montana, "May and Sept.-Oct. offer productive angling in a solitary setting"). This is an excellent resource for the intrepid traveler.Copyright 2003 Reed Business Information, Inc. ...more</x:t>
-  </x:si>
-  <x:si>
-    <x:t>228ba5e7577e1d49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£26.08</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In stock (1 available)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/media/cache/9e/10/9e106f81f65b293e488718a4f54a6a3f.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://books.toscrape.com/catalogue/1000-places-to-see-before-you-die_1/index.html</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -878,7 +878,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s">
         <x:v>18</x:v>
@@ -913,42 +913,42 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H9" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="J9" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="K9" s="0" t="s">
         <x:v>60</x:v>
-      </x:c>
-      <x:c r="K9" s="0" t="s">
-        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:11">
       <x:c r="A10" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s">
         <x:v>18</x:v>
@@ -983,42 +983,42 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="J11" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="K11" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:11">
       <x:c r="A12" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="H12" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s">
         <x:v>18</x:v>
